--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4283BB3-9C0D-044F-8321-EC185B1FC67B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA872F-948F-BB4A-BFCE-9B44BC085067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1260" windowWidth="35840" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
@@ -122,6 +122,92 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145153</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Rounded Rectangle 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECCFA98-439C-E84B-8F1A-E0E54A1E1884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4272653" y="12700000"/>
+          <a:ext cx="3360047" cy="3784600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NETTY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1452,17 +1538,400 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>454811</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE6C741-A927-6A4D-B806-70641AAD556C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="1219200"/>
+          <a:ext cx="3606800" cy="7035800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FUNCTIONAL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> MICROSERVICE CLUSTER</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Enriches</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tweet with sentiment analysis data, geoposition and persist in data warehouse.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Integration with:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sentiment analysis model services.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Geopositioning services.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cassandra Data warehouse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>340511</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="Group 33">
+        <xdr:cNvPr id="24" name="Group 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF4FD9C-74D0-6B4D-B8A9-53C3F1F194DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0C0221-8D7C-C64D-9B81-0C734900B73B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,18 +1939,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8991600" y="1219200"/>
-          <a:ext cx="6322211" cy="7035800"/>
-          <a:chOff x="8991600" y="1219200"/>
-          <a:chExt cx="6322211" cy="7035800"/>
+          <a:off x="10363200" y="2400300"/>
+          <a:ext cx="5661811" cy="4089400"/>
+          <a:chOff x="9652000" y="2222500"/>
+          <a:chExt cx="5661811" cy="4089400"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15">
+          <xdr:cNvPr id="108" name="Rounded Rectangle 107">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE6C741-A927-6A4D-B806-70641AAD556C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643053CD-4BE3-AE4D-8ED6-F896B7AE76A7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1489,16 +1958,17 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8991600" y="1219200"/>
-            <a:ext cx="3606800" cy="7035800"/>
+            <a:off x="9944100" y="2603500"/>
+            <a:ext cx="914400" cy="393700"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
             </a:schemeClr>
           </a:solidFill>
         </xdr:spPr>
@@ -1519,1309 +1989,920 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>FUNCTIONAL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> MICROSERVICE CLUSTER</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Enriches</a:t>
+              <a:t>EN1</a:t>
             </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="Rounded Rectangle 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED24D62C-AB70-4148-AEE4-51B300D9B129}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10325100" y="2921000"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> tweet with sentiment analysis data, geoposition and persist in data warehouse.</a:t>
+              <a:t>EN2</a:t>
             </a:r>
           </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="Rounded Rectangle 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D150D93-5AD0-3C46-A183-4A57D513F85F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10477500" y="3225800"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Integration with:</a:t>
+              <a:t>EN3</a:t>
             </a:r>
           </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="Rounded Rectangle 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CDA558-110F-A24C-B76D-4792732C24F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10579100" y="3670300"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
           <a:p>
-            <a:pPr marL="285750" indent="-285750" algn="l">
-              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:buChar char="•"/>
-            </a:pPr>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Sentiment analysis model services.</a:t>
+              <a:t>DE1</a:t>
             </a:r>
           </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="Rounded Rectangle 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B27C0D-8E0A-1A40-B2BF-ED371FD80106}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10604500" y="3949700"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
           <a:p>
-            <a:pPr marL="285750" indent="-285750" algn="l">
-              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:buChar char="•"/>
-            </a:pPr>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Geopositioning services.</a:t>
+              <a:t>DE2</a:t>
             </a:r>
           </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="Rounded Rectangle 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B6CB41-60EF-FE49-BDE1-0C19CD2CB5A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10579100" y="4432300"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
           <a:p>
-            <a:pPr marL="285750" indent="-285750" algn="l">
-              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:buChar char="•"/>
-            </a:pPr>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Cassandra Data warehouse</a:t>
+              <a:t>FR1</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="24" name="Group 23">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="Rounded Rectangle 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0C0221-8D7C-C64D-9B81-0C734900B73B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9359F23C-DF96-4D44-9645-450FF39219CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10439400" y="4737100"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IT1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="Rounded Rectangle 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0E779A-AB50-284B-8708-84C7AB4145F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10083800" y="5257800"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RU1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="Rounded Rectangle 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B91DE82-98F7-204B-8B57-EC5E48CFC58C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9918700" y="5562600"/>
+            <a:ext cx="914400" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RU2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF7DE76-52E1-3443-B738-2E1A115502E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="124" idx="3"/>
+            <a:endCxn id="25" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11518900" y="3807611"/>
+            <a:ext cx="2626511" cy="338939"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="138" name="Straight Arrow Connector 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB50180-964F-4B46-A82C-A43350315C12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="123" idx="3"/>
+            <a:endCxn id="25" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11493500" y="3807611"/>
+            <a:ext cx="2651911" cy="59539"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="141" name="Straight Arrow Connector 140">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77174B31-4CCF-7E43-9587-7DE0D6AFFC2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="108" idx="3"/>
+            <a:endCxn id="26" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10858500" y="2800350"/>
+            <a:ext cx="4455311" cy="29361"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="144" name="Straight Arrow Connector 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CFF9C1-D9FA-2847-B760-9C822FC1AAEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="110" idx="3"/>
+            <a:endCxn id="26" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11239500" y="3117850"/>
+            <a:ext cx="3949700" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="149" name="Straight Arrow Connector 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA2CF12-59C0-BD40-A111-E0EEFBDCA29D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="112" idx="3"/>
+            <a:endCxn id="26" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11391900" y="3130550"/>
+            <a:ext cx="3797300" cy="292100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="160" name="Straight Arrow Connector 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EDFF11-3EB1-2F45-8271-82543778ED89}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="132" idx="3"/>
+            <a:endCxn id="27" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10998200" y="5454650"/>
+            <a:ext cx="3568700" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="163" name="Straight Arrow Connector 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E9B148-1B2E-2E40-A237-C8B82B654A9B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="134" idx="3"/>
+            <a:endCxn id="27" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10833100" y="5607050"/>
+            <a:ext cx="3733800" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="233" name="Rounded Rectangle 232">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B2374C-0606-D344-8F00-A584EA2D00F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
             <a:off x="9652000" y="2222500"/>
-            <a:ext cx="5661811" cy="4089400"/>
-            <a:chOff x="9652000" y="2222500"/>
-            <a:chExt cx="5661811" cy="4089400"/>
+            <a:ext cx="2082800" cy="4089400"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="108" name="Rounded Rectangle 107">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643053CD-4BE3-AE4D-8ED6-F896B7AE76A7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9944100" y="2603500"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>EN1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="110" name="Rounded Rectangle 109">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED24D62C-AB70-4148-AEE4-51B300D9B129}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10325100" y="2921000"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>EN2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="112" name="Rounded Rectangle 111">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D150D93-5AD0-3C46-A183-4A57D513F85F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10477500" y="3225800"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>EN3</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="123" name="Rounded Rectangle 122">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CDA558-110F-A24C-B76D-4792732C24F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10579100" y="3670300"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>DE1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="124" name="Rounded Rectangle 123">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B27C0D-8E0A-1A40-B2BF-ED371FD80106}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10604500" y="3949700"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>DE2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="126" name="Rounded Rectangle 125">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B6CB41-60EF-FE49-BDE1-0C19CD2CB5A9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10579100" y="4432300"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>FR1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="Rounded Rectangle 128">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9359F23C-DF96-4D44-9645-450FF39219CA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10439400" y="4737100"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>IT1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="132" name="Rounded Rectangle 131">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0E779A-AB50-284B-8708-84C7AB4145F0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10083800" y="5257800"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>RU1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="134" name="Rounded Rectangle 133">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B91DE82-98F7-204B-8B57-EC5E48CFC58C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9918700" y="5562600"/>
-              <a:ext cx="914400" cy="393700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>RU2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF7DE76-52E1-3443-B738-2E1A115502E5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="124" idx="3"/>
-              <a:endCxn id="25" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="11518900" y="3807611"/>
-              <a:ext cx="2626511" cy="338939"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="138" name="Straight Arrow Connector 137">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB50180-964F-4B46-A82C-A43350315C12}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="123" idx="3"/>
-              <a:endCxn id="25" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="11493500" y="3807611"/>
-              <a:ext cx="2651911" cy="59539"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="Straight Arrow Connector 140">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77174B31-4CCF-7E43-9587-7DE0D6AFFC2B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="108" idx="3"/>
-              <a:endCxn id="26" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10858500" y="2800350"/>
-              <a:ext cx="4455311" cy="29361"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="144" name="Straight Arrow Connector 143">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CFF9C1-D9FA-2847-B760-9C822FC1AAEF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="110" idx="3"/>
-              <a:endCxn id="26" idx="2"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11239500" y="3117850"/>
-              <a:ext cx="3949700" cy="12700"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="149" name="Straight Arrow Connector 148">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA2CF12-59C0-BD40-A111-E0EEFBDCA29D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="112" idx="3"/>
-              <a:endCxn id="26" idx="2"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="11391900" y="3130550"/>
-              <a:ext cx="3797300" cy="292100"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="160" name="Straight Arrow Connector 159">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EDFF11-3EB1-2F45-8271-82543778ED89}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="132" idx="3"/>
-              <a:endCxn id="27" idx="2"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10998200" y="5454650"/>
-              <a:ext cx="3568700" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="163" name="Straight Arrow Connector 162">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E9B148-1B2E-2E40-A237-C8B82B654A9B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="134" idx="3"/>
-              <a:endCxn id="27" idx="2"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="10833100" y="5607050"/>
-              <a:ext cx="3733800" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="233" name="Rounded Rectangle 232">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B2374C-0606-D344-8F00-A584EA2D00F3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9652000" y="2222500"/>
-              <a:ext cx="2082800" cy="4089400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="152" name="Straight Arrow Connector 151">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A95001D-0F50-894A-96D4-A3416F647783}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="126" idx="3"/>
-              <a:endCxn id="27" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11493500" y="4629150"/>
-              <a:ext cx="3198011" cy="677061"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="157" name="Straight Arrow Connector 156">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E9E2D-4EC5-E14A-8B52-0E8D7FA1E841}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="129" idx="3"/>
-              <a:endCxn id="27" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11353800" y="4933950"/>
-              <a:ext cx="3337711" cy="372261"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="152" name="Straight Arrow Connector 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A95001D-0F50-894A-96D4-A3416F647783}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="126" idx="3"/>
+            <a:endCxn id="27" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11493500" y="4629150"/>
+            <a:ext cx="3198011" cy="677061"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="157" name="Straight Arrow Connector 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E9E2D-4EC5-E14A-8B52-0E8D7FA1E841}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="129" idx="3"/>
+            <a:endCxn id="27" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11353800" y="4933950"/>
+            <a:ext cx="3337711" cy="372261"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2833,8 +2914,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>170268</xdr:rowOff>
     </xdr:to>
@@ -2852,9 +2933,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6342753" y="2336800"/>
-          <a:ext cx="4261747" cy="3929468"/>
+          <a:ext cx="4972947" cy="3929468"/>
           <a:chOff x="6342753" y="2336800"/>
-          <a:chExt cx="4261747" cy="3929468"/>
+          <a:chExt cx="4972947" cy="3929468"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3162,7 +3243,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="7124700" y="2800350"/>
+            <a:off x="7835900" y="2978150"/>
             <a:ext cx="2819400" cy="361950"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3203,7 +3284,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7975600" y="3759200"/>
+            <a:off x="8686800" y="3937000"/>
             <a:ext cx="2603500" cy="107950"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3244,7 +3325,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="7975600" y="4629150"/>
+            <a:off x="8686800" y="4806950"/>
             <a:ext cx="2603500" cy="146050"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3324,7 +3405,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="7124700" y="3117850"/>
+            <a:off x="7835900" y="3295650"/>
             <a:ext cx="3200400" cy="184150"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3365,7 +3446,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7975600" y="3835400"/>
+            <a:off x="8686800" y="4013200"/>
             <a:ext cx="2628900" cy="311150"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3406,7 +3487,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7975600" y="4876800"/>
+            <a:off x="8686800" y="5054600"/>
             <a:ext cx="2463800" cy="57150"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3486,7 +3567,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7150100" y="3390900"/>
+            <a:off x="7861300" y="3568700"/>
             <a:ext cx="3327400" cy="31750"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -8763,16 +8844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>681175</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8787,182 +8868,12 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2451100" y="11087100"/>
-          <a:ext cx="3183075" cy="2819400"/>
-          <a:chOff x="5092700" y="10236200"/>
-          <a:chExt cx="3183075" cy="2819400"/>
+          <a:off x="4711700" y="13931900"/>
+          <a:ext cx="1625600" cy="2070100"/>
+          <a:chOff x="4762500" y="15455900"/>
+          <a:chExt cx="1625600" cy="2070100"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="158" name="Rectangle 157">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5822FE48-C944-3043-84BD-8B0AF57BE471}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5092700" y="10236200"/>
-            <a:ext cx="3183075" cy="2819400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>NETTY</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="161" name="Rounded Rectangle 160">
@@ -8976,7 +8887,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5918200" y="10706100"/>
+            <a:off x="4800600" y="15455900"/>
             <a:ext cx="1587500" cy="596900"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -9035,7 +8946,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5905500" y="11455400"/>
+            <a:off x="4787900" y="16205200"/>
             <a:ext cx="1587500" cy="596900"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -9094,7 +9005,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5880100" y="12179300"/>
+            <a:off x="4762500" y="16929100"/>
             <a:ext cx="1587500" cy="596900"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -9137,6 +9048,1851 @@
               </a:rPr>
               <a:t>CONNECTION 3</a:t>
             </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81653</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="Rounded Rectangle 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD5E2EC-93EC-0F4E-85D6-06B3D8CB4724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8336653" y="11252200"/>
+          <a:ext cx="3360047" cy="2768600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LISTENERS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Rounded Rectangle 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAA0339-7B8D-D84C-9452-FEF1141DAFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8788400" y="11823700"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NewOrderListener</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="Rounded Rectangle 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD3D207-85C9-F74E-A554-8087D19C9F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8775700" y="12319000"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CancelOrderListener</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="Rounded Rectangle 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51E763F-6A98-DF4B-B500-F98635E3B7CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8775700" y="12814300"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QuoteSubscriptionListener</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538853</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437253</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="Rounded Rectangle 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239B44FF-27A2-A949-9BCE-6E263B88B1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8793853" y="13347700"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CloseShortListener</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134247</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="Rounded Rectangle 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D52B57-9D65-4043-8F12-4E99EA0C820A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8331200" y="14528800"/>
+          <a:ext cx="3360047" cy="2768600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NOTIFIERS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>527947</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426347</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="Rounded Rectangle 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705F7E89-5C30-AE46-B5F3-5B8A211CE991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782947" y="15100300"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BalanceNotifierServer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515247</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413647</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="Rounded Rectangle 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D9CF92-283C-EE47-B80C-F36D765C6EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8770247" y="15595600"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ExecutionNotifierServer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515247</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413647</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="Rounded Rectangle 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CFB88B-BE40-2845-A838-299F9E54E85C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8770247" y="16090900"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PositionNotifierServer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="Rounded Rectangle 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100CFA61-C7C8-0A4D-9E49-0D207F358160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8788400" y="16624300"/>
+          <a:ext cx="2374900" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QuoteNotifierServer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215901</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>787401</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90150D70-558A-4146-9A51-C04C9485CA6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12598401" y="12674600"/>
+          <a:ext cx="3048000" cy="2768600"/>
+          <a:chOff x="12928600" y="12585700"/>
+          <a:chExt cx="3360047" cy="2768600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="187" name="Rounded Rectangle 186">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12928600" y="12585700"/>
+            <a:ext cx="3360047" cy="2768600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Servers</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="189" name="Rounded Rectangle 188">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13436600" y="13398500"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>QueryServer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="Rounded Rectangle 189">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13423900" y="13893800"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>OrderManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="Rounded Rectangle 190">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13423900" y="14389100"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AccountManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="195" name="Group 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD0B4E5-E09D-FA40-A2EB-B3C8637AD23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17729200" y="12407900"/>
+          <a:ext cx="3416300" cy="3327400"/>
+          <a:chOff x="14020800" y="2705100"/>
+          <a:chExt cx="3416300" cy="3327400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="201" name="Group 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4AC57B-AE22-E244-98ED-CB460F776F9B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="14020800" y="2705100"/>
+            <a:ext cx="3416300" cy="3327400"/>
+            <a:chOff x="14020800" y="2705100"/>
+            <a:chExt cx="3416300" cy="3327400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="203" name="Group 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F67FE88-9ACC-9B42-BEC0-8674449AA066}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14020800" y="2705100"/>
+              <a:ext cx="3416300" cy="3327400"/>
+              <a:chOff x="15011400" y="3860800"/>
+              <a:chExt cx="3416300" cy="3327400"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="212" name="Group 211">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BC1D6E-3531-2747-A653-0A810CDE7CC5}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="15011400" y="3860800"/>
+                <a:ext cx="3416300" cy="3327400"/>
+                <a:chOff x="14947900" y="3721100"/>
+                <a:chExt cx="3416300" cy="3327400"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="216" name="Group 215">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E89232-6693-1443-9E77-86A1C5740589}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="14947900" y="3721100"/>
+                  <a:ext cx="3086100" cy="3327400"/>
+                  <a:chOff x="14947900" y="3721100"/>
+                  <a:chExt cx="3086100" cy="3327400"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="220" name="Oval 219">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85C8BDC-0DFC-324B-9E62-08C43CD31185}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15290800" y="4140200"/>
+                    <a:ext cx="2743200" cy="2743200"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="40000"/>
+                      <a:lumOff val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="222" name="Oval 221">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CCE0B4-68C9-114E-87AC-04167FD445C2}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="14947900" y="4699000"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                    <a:prstTxWarp prst="textNoShape">
+                      <a:avLst/>
+                    </a:prstTxWarp>
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" indent="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>N5</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="223" name="Oval 222">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E674744B-6844-DC44-AE8A-74DD4A8F8A76}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="16116300" y="3721100"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>N1</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="224" name="Oval 223">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA7B50A-C114-D74E-8590-6B110DBB86CC}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15494000" y="6197600"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                    <a:prstTxWarp prst="textNoShape">
+                      <a:avLst/>
+                    </a:prstTxWarp>
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" indent="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>N4</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="225" name="Oval 224">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC194B6-B546-894D-B4AE-D67ED5E6CF0B}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="17081500" y="6184900"/>
+                    <a:ext cx="850900" cy="850900"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="ellipse">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                    <a:prstTxWarp prst="textNoShape">
+                      <a:avLst/>
+                    </a:prstTxWarp>
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" indent="0" algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>N3</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="218" name="Oval 217">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11AD3C7-21C5-E641-9033-9061CE473647}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17513300" y="4597400"/>
+                  <a:ext cx="850900" cy="850900"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr marL="0" indent="0" algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>N2</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="213" name="Rectangle 212">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA075BCB-887B-0C43-B858-CB968D757A23}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="15925800" y="4851400"/>
+                <a:ext cx="1689100" cy="266700"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>EXCHANGE</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="205" name="Arc 204">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE3B3F7-E2EC-194B-8DAC-D2B9974D5A9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5032411">
+              <a:off x="14744488" y="3408007"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="206" name="Arc 205">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA4A03B-7BA0-9145-A58E-2B6A4F8ED2FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="9337731">
+              <a:off x="14655800" y="3530599"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="207" name="Arc 206">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580733C1-9FAB-7449-8AFF-7A76A1F90991}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="13590369">
+              <a:off x="14503399" y="3429001"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="208" name="Arc 207">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F903D8E-576C-6445-B1A2-491216034D85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="17720357">
+              <a:off x="14566899" y="3251201"/>
+              <a:ext cx="2234135" cy="2234135"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16200000"/>
+                <a:gd name="adj2" fmla="val 18985926"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="Arc 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB721661-1705-B640-97BB-66BC2E579BBD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="392783">
+            <a:off x="14503400" y="3289301"/>
+            <a:ext cx="2476500" cy="2476500"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 16200000"/>
+              <a:gd name="adj2" fmla="val 18985926"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -9445,8 +11201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
   <dimension ref="A1:AR83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="AE63" sqref="AE63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA872F-948F-BB4A-BFCE-9B44BC085067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00407A02-102D-7045-950E-E6BA3D0BE46C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1260" windowWidth="35840" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
@@ -9900,7 +9900,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Servers</a:t>
+              <a:t>MANAGERS</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -11201,8 +11201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
   <dimension ref="A1:AR83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="AE63" sqref="AE63"/>
+    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
+      <selection activeCell="U63" sqref="U63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00407A02-102D-7045-950E-E6BA3D0BE46C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800E40E-0139-2D40-809F-FAC89F6EDB0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="35840" windowHeight="21140" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="RSystemDesign" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>[R SYSTEM] CLOUD DESIGN DIAGRAM</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>BID container</t>
+  </si>
+  <si>
+    <t>ASK Container</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap&lt;String, ConcurrentSkipListMap&lt;Integer, ConcurrentLinkedDeque&lt;Order&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Order matchintg examples:</t>
+  </si>
+  <si>
+    <t>Terminology:</t>
+  </si>
+  <si>
+    <t>Order - incoming order that is not matched yet on the exchange.</t>
+  </si>
+  <si>
+    <t>Container  data structure: Symbol &gt; Price &gt; Order</t>
+  </si>
+  <si>
+    <t>MatchingOrder - order that is already stored in BID or ASK container, for underlying symbol, in specific price tier, in order que.</t>
+  </si>
+  <si>
+    <t>CASE1 No Matching orders:</t>
+  </si>
+  <si>
+    <t>MXG</t>
+  </si>
+  <si>
+    <t>If exchange receives BUY MXG 400 @15, it encounters that there are no matching orders in BID container it will insert in ASK container to price tier 15 to the end of the queue making tier size 760 + 400 = 1160</t>
+  </si>
+  <si>
+    <t>CASE2 Matching multiple tiers:</t>
+  </si>
+  <si>
+    <t>If exchange receives BUY MXG 2000 @17 it matches folloving orders:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @16 with quantity 1000 and 500 tier total 1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @17 with quantity 400, 800, 100, 100, 80 tier total 1480</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +117,54 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -90,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -102,6 +204,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -124,16 +240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145153</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>259453</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -148,7 +264,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4272653" y="12700000"/>
+          <a:off x="3561453" y="11988800"/>
           <a:ext cx="3360047" cy="3784600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -298,7 +414,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="18288000" y="1295400"/>
-          <a:ext cx="4972050" cy="6413500"/>
+          <a:ext cx="4464050" cy="6413500"/>
           <a:chOff x="18288000" y="1295400"/>
           <a:chExt cx="4972050" cy="6413500"/>
         </a:xfrm>
@@ -6825,7 +6941,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23444200" y="4457700"/>
+          <a:off x="22936200" y="4457700"/>
           <a:ext cx="1714500" cy="1651000"/>
           <a:chOff x="23444200" y="4457700"/>
           <a:chExt cx="1714500" cy="1651000"/>
@@ -7280,7 +7396,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26606500" y="4738678"/>
+          <a:off x="26098500" y="4738678"/>
           <a:ext cx="2032000" cy="2246322"/>
           <a:chOff x="26606500" y="4738678"/>
           <a:chExt cx="2032000" cy="2246322"/>
@@ -7417,8 +7533,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22110700" y="1676400"/>
-          <a:ext cx="3035300" cy="1752600"/>
+          <a:off x="21894800" y="1676400"/>
+          <a:ext cx="2743200" cy="1752600"/>
           <a:chOff x="22110700" y="1676400"/>
           <a:chExt cx="3035300" cy="1752600"/>
         </a:xfrm>
@@ -8844,16 +8960,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8868,7 +8984,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4711700" y="13931900"/>
+          <a:off x="4000500" y="13220700"/>
           <a:ext cx="1625600" cy="2070100"/>
           <a:chOff x="4762500" y="15455900"/>
           <a:chExt cx="1625600" cy="2070100"/>
@@ -9292,14 +9408,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9314,7 +9430,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8775700" y="12814300"/>
+          <a:off x="8775700" y="13385800"/>
           <a:ext cx="2374900" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9366,14 +9482,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>437253</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9388,7 +9504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8793853" y="13347700"/>
+          <a:off x="8793853" y="12865100"/>
           <a:ext cx="2374900" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9821,22 +9937,552 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>215901</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="Rounded Rectangle 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12598400" y="11214100"/>
+          <a:ext cx="3568700" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MANAGERS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638623</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>316466</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="Rounded Rectangle 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13021123" y="14897100"/>
+          <a:ext cx="2154343" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QueryServer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>716003</xdr:colOff>
       <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>393846</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="Rounded Rectangle 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13098503" y="12585700"/>
+          <a:ext cx="2154343" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OrderManager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>716003</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>393846</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="Rounded Rectangle 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13098503" y="11887200"/>
+          <a:ext cx="2154343" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AccountManager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>690603</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>787401</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>368446</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="Rounded Rectangle 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C952AAB-5F1E-1D4B-B691-D82A53DD4979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13073103" y="13322300"/>
+          <a:ext cx="2154343" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CancelOrderManager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660401</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>338244</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="Rounded Rectangle 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3250D696-7025-7B44-AE05-0BB7D5F144B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13042901" y="14084300"/>
+          <a:ext cx="2154343" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CloseShortManager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223943</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="Rounded Rectangle 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EC042B-602C-BC43-9B30-AD55449FAA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12928600" y="16154400"/>
+          <a:ext cx="2154343" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ExecutionManager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 13">
+        <xdr:cNvPr id="20" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90150D70-558A-4146-9A51-C04C9485CA6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC17918-23FB-BE46-9F97-4A038DA29204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9844,18 +10490,53 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12598401" y="12674600"/>
-          <a:ext cx="3048000" cy="2768600"/>
-          <a:chOff x="12928600" y="12585700"/>
-          <a:chExt cx="3360047" cy="2768600"/>
+          <a:off x="16357600" y="9017000"/>
+          <a:ext cx="10274300" cy="10793860"/>
+          <a:chOff x="16844551" y="9612295"/>
+          <a:chExt cx="9220200" cy="9220200"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Graphic 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B4114F-748B-8449-99D0-B590EC86FD96}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16844551" y="9612295"/>
+            <a:ext cx="9220200" cy="9220200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="187" name="Rounded Rectangle 186">
+          <xdr:cNvPr id="200" name="Rectangle 199">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E257BF-E901-CB4B-9D4A-0A18CE831981}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9863,15 +10544,16 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12928600" y="12585700"/>
-            <a:ext cx="3360047" cy="2768600"/>
+            <a:off x="20567650" y="10121900"/>
+            <a:ext cx="1765300" cy="723900"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -9900,201 +10582,21 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>MANAGERS</a:t>
+              <a:t>EXCHANGE</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> CORE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="189" name="Rounded Rectangle 188">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13436600" y="13398500"/>
-            <a:ext cx="2374900" cy="393700"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>QueryServer</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="190" name="Rounded Rectangle 189">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13423900" y="13893800"/>
-            <a:ext cx="2374900" cy="393700"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OrderManager</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="191" name="Rounded Rectangle 190">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13423900" y="14389100"/>
-            <a:ext cx="2374900" cy="393700"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>AccountManager</a:t>
-            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10103,800 +10605,1142 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="195" name="Group 194">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="Straight Arrow Connector 229">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD0B4E5-E09D-FA40-A2EB-B3C8637AD23D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203B5619-69F3-2246-819E-2AD1CFDBF80A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="3"/>
+          <a:endCxn id="173" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5626100" y="12020550"/>
+          <a:ext cx="3162300" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="Straight Arrow Connector 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93176CFC-E993-0B4E-95D8-FA0EA3C15EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="3"/>
+          <a:endCxn id="174" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5626100" y="12515850"/>
+          <a:ext cx="3149600" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="Straight Arrow Connector 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638F96A7-35EA-D448-BEA9-21F4397DC9C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="17729200" y="12407900"/>
-          <a:ext cx="3416300" cy="3327400"/>
-          <a:chOff x="14020800" y="2705100"/>
-          <a:chExt cx="3416300" cy="3327400"/>
+          <a:off x="5626100" y="13519150"/>
+          <a:ext cx="3149600" cy="63500"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="201" name="Group 200">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4AC57B-AE22-E244-98ED-CB460F776F9B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="14020800" y="2705100"/>
-            <a:ext cx="3416300" cy="3327400"/>
-            <a:chOff x="14020800" y="2705100"/>
-            <a:chExt cx="3416300" cy="3327400"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="203" name="Group 202">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F67FE88-9ACC-9B42-BEC0-8674449AA066}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="14020800" y="2705100"/>
-              <a:ext cx="3416300" cy="3327400"/>
-              <a:chOff x="15011400" y="3860800"/>
-              <a:chExt cx="3416300" cy="3327400"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="212" name="Group 211">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BC1D6E-3531-2747-A653-0A810CDE7CC5}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="15011400" y="3860800"/>
-                <a:ext cx="3416300" cy="3327400"/>
-                <a:chOff x="14947900" y="3721100"/>
-                <a:chExt cx="3416300" cy="3327400"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="216" name="Group 215">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E89232-6693-1443-9E77-86A1C5740589}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="14947900" y="3721100"/>
-                  <a:ext cx="3086100" cy="3327400"/>
-                  <a:chOff x="14947900" y="3721100"/>
-                  <a:chExt cx="3086100" cy="3327400"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="220" name="Oval 219">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85C8BDC-0DFC-324B-9E62-08C43CD31185}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="15290800" y="4140200"/>
-                    <a:ext cx="2743200" cy="2743200"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="ellipse">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="40000"/>
-                      <a:lumOff val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:endParaRPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="222" name="Oval 221">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CCE0B4-68C9-114E-87AC-04167FD445C2}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="14947900" y="4699000"/>
-                    <a:ext cx="850900" cy="850900"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="ellipse">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                    <a:prstTxWarp prst="textNoShape">
-                      <a:avLst/>
-                    </a:prstTxWarp>
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr marL="0" indent="0" algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <a:t>N5</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="223" name="Oval 222">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E674744B-6844-DC44-AE8A-74DD4A8F8A76}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="16116300" y="3721100"/>
-                    <a:ext cx="850900" cy="850900"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="ellipse">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>N1</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="224" name="Oval 223">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA7B50A-C114-D74E-8590-6B110DBB86CC}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="15494000" y="6197600"/>
-                    <a:ext cx="850900" cy="850900"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="ellipse">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                    <a:prstTxWarp prst="textNoShape">
-                      <a:avLst/>
-                    </a:prstTxWarp>
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr marL="0" indent="0" algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <a:t>N4</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="225" name="Oval 224">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC194B6-B546-894D-B4AE-D67ED5E6CF0B}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="17081500" y="6184900"/>
-                    <a:ext cx="850900" cy="850900"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="ellipse">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                    <a:prstTxWarp prst="textNoShape">
-                      <a:avLst/>
-                    </a:prstTxWarp>
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr marL="0" indent="0" algn="ctr"/>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <a:t>N3</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-            </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="218" name="Oval 217">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11AD3C7-21C5-E641-9033-9061CE473647}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="17513300" y="4597400"/>
-                  <a:ext cx="850900" cy="850900"/>
-                </a:xfrm>
-                <a:prstGeom prst="ellipse">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                  <a:prstTxWarp prst="textNoShape">
-                    <a:avLst/>
-                  </a:prstTxWarp>
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr marL="0" indent="0" algn="ctr"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1400">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <a:t>N2</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="213" name="Rectangle 212">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA075BCB-887B-0C43-B858-CB968D757A23}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="15925800" y="4851400"/>
-                <a:ext cx="1689100" cy="266700"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>EXCHANGE</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="205" name="Arc 204">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE3B3F7-E2EC-194B-8DAC-D2B9974D5A9C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="5032411">
-              <a:off x="14744488" y="3408007"/>
-              <a:ext cx="2234135" cy="2234135"/>
-            </a:xfrm>
-            <a:prstGeom prst="arc">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 16200000"/>
-                <a:gd name="adj2" fmla="val 18985926"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="206" name="Arc 205">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA4A03B-7BA0-9145-A58E-2B6A4F8ED2FF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="9337731">
-              <a:off x="14655800" y="3530599"/>
-              <a:ext cx="2234135" cy="2234135"/>
-            </a:xfrm>
-            <a:prstGeom prst="arc">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 16200000"/>
-                <a:gd name="adj2" fmla="val 18985926"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="207" name="Arc 206">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580733C1-9FAB-7449-8AFF-7A76A1F90991}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="13590369">
-              <a:off x="14503399" y="3429001"/>
-              <a:ext cx="2234135" cy="2234135"/>
-            </a:xfrm>
-            <a:prstGeom prst="arc">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 16200000"/>
-                <a:gd name="adj2" fmla="val 18985926"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="208" name="Arc 207">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F903D8E-576C-6445-B1A2-491216034D85}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="17720357">
-              <a:off x="14566899" y="3251201"/>
-              <a:ext cx="2234135" cy="2234135"/>
-            </a:xfrm>
-            <a:prstGeom prst="arc">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 16200000"/>
-                <a:gd name="adj2" fmla="val 18985926"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="Arc 201">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB721661-1705-B640-97BB-66BC2E579BBD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="392783">
-            <a:off x="14503400" y="3289301"/>
-            <a:ext cx="2476500" cy="2476500"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 16200000"/>
-              <a:gd name="adj2" fmla="val 18985926"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="Straight Arrow Connector 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C0217D-C862-134C-BE74-FF4F105CB42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="169" idx="3"/>
+          <a:endCxn id="173" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5613400" y="12020550"/>
+          <a:ext cx="3175000" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="Straight Arrow Connector 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BC3206-8A61-4B4A-A39B-C0796EF03F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5588000" y="13582650"/>
+          <a:ext cx="3187700" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875A65DC-0B9A-8E47-8D1E-5D7E11481AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="169" idx="3"/>
+          <a:endCxn id="174" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5613400" y="12515850"/>
+          <a:ext cx="3162300" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Straight Arrow Connector 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB23153-E20C-AF40-81CB-05806E6A6412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="3"/>
+          <a:endCxn id="174" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5588000" y="12515850"/>
+          <a:ext cx="3187700" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="Straight Arrow Connector 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055870A8-FE32-6848-8666-E89C14CFE276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="3"/>
+          <a:endCxn id="173" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5588000" y="12020550"/>
+          <a:ext cx="3200400" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538853</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C73DA6-B4EF-B04C-911D-39B2796E17E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="3"/>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5626100" y="13061950"/>
+          <a:ext cx="3167753" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5588000" y="13582650"/>
+          <a:ext cx="3187700" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538853</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="Straight Arrow Connector 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8F75D8-8176-9544-9293-18363AC316C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="3"/>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5588000" y="13061950"/>
+          <a:ext cx="3205853" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538853</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="Straight Arrow Connector 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3D1C60-7ECE-C149-81A5-8A0FB2660976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="169" idx="3"/>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5613400" y="13061950"/>
+          <a:ext cx="3180453" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88894649-E449-814C-BB46-3EE419A28B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="169" idx="3"/>
+          <a:endCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5613400" y="13582650"/>
+          <a:ext cx="3162300" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>716003</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="Straight Arrow Connector 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8725711A-810C-7B48-9EC1-2267E0ADD429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="173" idx="3"/>
+          <a:endCxn id="190" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="12020550"/>
+          <a:ext cx="1935203" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>716003</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="265" name="Straight Arrow Connector 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC91AEF-442D-F844-9225-C9D72D02105F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="173" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="12020550"/>
+          <a:ext cx="1935203" cy="63500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>690603</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="268" name="Straight Arrow Connector 267">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E24346-F1AA-214B-912C-111790E4CDE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="3"/>
+          <a:endCxn id="194" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11150600" y="12515850"/>
+          <a:ext cx="1922503" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>716003</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="Straight Arrow Connector 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC2345-5143-F444-86BB-58FB87DEEE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11150600" y="12084050"/>
+          <a:ext cx="1947903" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437253</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660401</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="275" name="Straight Arrow Connector 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018239AC-8CCB-9C49-892E-6F52A27F52E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="3"/>
+          <a:endCxn id="196" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11168753" y="13061950"/>
+          <a:ext cx="1874148" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437253</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>716003</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="Straight Arrow Connector 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D27669-F802-7D4D-9CF6-0B4EAD48E548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11168753" y="12084050"/>
+          <a:ext cx="1929750" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638623</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="Straight Arrow Connector 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7B1650-7DF6-EB4F-A65C-C9D88F25215A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="3"/>
+          <a:endCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11150600" y="13582650"/>
+          <a:ext cx="1870523" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11199,13 +12043,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
-  <dimension ref="A1:AR83"/>
+  <dimension ref="A1:AR114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="U63" sqref="U63"/>
+    <sheetView tabSelected="1" topLeftCell="I47" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="28" max="28" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
@@ -13279,95 +14127,483 @@
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
     </row>
-    <row r="55" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="W54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+    </row>
+    <row r="55" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E55" s="4"/>
       <c r="L55" s="4"/>
+      <c r="W55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
     </row>
-    <row r="56" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E57" s="4"/>
       <c r="L57" s="4"/>
+      <c r="X57" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
     </row>
-    <row r="58" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
       <c r="L58" s="4"/>
+      <c r="X58" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z58" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="59" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E59" s="4"/>
       <c r="L59" s="4"/>
+      <c r="X59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y59" s="9">
+        <v>72</v>
+      </c>
+      <c r="Z59" s="9">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="60" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
       <c r="L60" s="4"/>
+      <c r="X60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>71</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>210</v>
+      </c>
     </row>
-    <row r="61" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
+      <c r="X61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y61" s="9">
+        <v>68</v>
+      </c>
+      <c r="Z61" s="9">
+        <v>100</v>
+      </c>
     </row>
-    <row r="62" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E62" s="4"/>
+      <c r="X62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>64</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="63" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E63" s="4"/>
+      <c r="X63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>51</v>
+      </c>
+      <c r="Z63" s="9">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="64" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:30" ht="17" x14ac:dyDescent="0.2">
       <c r="E64" s="4"/>
+      <c r="X64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>50</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>25900</v>
+      </c>
     </row>
-    <row r="65" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E65" s="4"/>
+      <c r="X65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y65" s="9">
+        <v>46</v>
+      </c>
+      <c r="Z65" s="9">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="66" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E66" s="4"/>
+      <c r="X66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z66" s="9">
+        <v>7670</v>
+      </c>
     </row>
-    <row r="67" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E67" s="4"/>
+      <c r="X67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z67" s="9">
+        <v>2420</v>
+      </c>
     </row>
-    <row r="68" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E68" s="4"/>
+      <c r="X68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y68" s="9">
+        <v>33</v>
+      </c>
+      <c r="Z68" s="9">
+        <v>780</v>
+      </c>
     </row>
-    <row r="69" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E69" s="4"/>
+      <c r="X69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>25</v>
+      </c>
+      <c r="Z69" s="9">
+        <v>180</v>
+      </c>
     </row>
-    <row r="70" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E70" s="4"/>
+      <c r="X70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y70" s="9">
+        <v>22</v>
+      </c>
+      <c r="Z70" s="9">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="71" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E71" s="4"/>
+      <c r="X71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y71" s="9">
+        <v>17</v>
+      </c>
+      <c r="Z71" s="9">
+        <v>1480</v>
+      </c>
     </row>
-    <row r="75" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="X72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y72" s="9">
+        <v>16</v>
+      </c>
+      <c r="Z72" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB73" s="11">
+        <v>15</v>
+      </c>
+      <c r="AC73" s="11">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="74" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB74" s="11">
+        <v>14</v>
+      </c>
+      <c r="AC74" s="11">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="75" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E75" s="4"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB75" s="11">
+        <v>13</v>
+      </c>
+      <c r="AC75" s="11">
+        <v>1440</v>
+      </c>
     </row>
-    <row r="76" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E76" s="4"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB76" s="11">
+        <v>12</v>
+      </c>
+      <c r="AC76" s="11">
+        <v>10320</v>
+      </c>
     </row>
-    <row r="77" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E77" s="4"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB77" s="11">
+        <v>11</v>
+      </c>
+      <c r="AC77" s="11">
+        <v>115160</v>
+      </c>
     </row>
-    <row r="78" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E78" s="4"/>
+      <c r="AA78" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB78" s="11">
+        <v>10</v>
+      </c>
+      <c r="AC78" s="11">
+        <v>153440</v>
+      </c>
     </row>
-    <row r="79" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E79" s="4"/>
+      <c r="AA79" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB79" s="11">
+        <v>9</v>
+      </c>
+      <c r="AC79" s="11">
+        <v>75960</v>
+      </c>
     </row>
-    <row r="80" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E80" s="4"/>
+      <c r="AA80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB80" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC80" s="11">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="81" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E81" s="4"/>
+      <c r="AA81" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB81" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC81" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="82" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E82" s="4"/>
+      <c r="AA82" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB82" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC82" s="11">
+        <v>590</v>
+      </c>
     </row>
-    <row r="83" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:29" ht="17" x14ac:dyDescent="0.2">
       <c r="E83" s="4"/>
+      <c r="AA83" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB83" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="11">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="84" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="AA84" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB84" s="11">
+        <v>4</v>
+      </c>
+      <c r="AC84" s="11">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="85" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="AA85" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB85" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC85" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="86" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="AA86" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB86" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC86" s="11">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="AA87" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC87" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="5:29" x14ac:dyDescent="0.2">
+      <c r="AA88" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB88" s="13"/>
+      <c r="AC88" s="13"/>
+    </row>
+    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q114" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="AA88:AC88"/>
+    <mergeCell ref="W55:AD55"/>
+    <mergeCell ref="W54:AD54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800E40E-0139-2D40-809F-FAC89F6EDB0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58971478-EE3A-FB4F-A53A-4237BAE787EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="RSystemDesign" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -211,14 +212,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,161 +238,545 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>259453</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>322953</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="Rounded Rectangle 158">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1071" name="Group 1070">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECCFA98-439C-E84B-8F1A-E0E54A1E1884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAE18EC-DCCD-7A44-BB87-0022FC3CB5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3561453" y="11988800"/>
-          <a:ext cx="3360047" cy="3784600"/>
+          <a:off x="3624953" y="12763500"/>
+          <a:ext cx="3360047" cy="5245100"/>
+          <a:chOff x="3561453" y="13004800"/>
+          <a:chExt cx="3360047" cy="5245100"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="Rounded Rectangle 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECCFA98-439C-E84B-8F1A-E0E54A1E1884}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3561453" y="13004800"/>
+            <a:ext cx="3360047" cy="5245100"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>NETTY</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>NETTY</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3A5137-6644-E74C-83CE-E5AD2F01E750}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4000500" y="14236700"/>
+            <a:ext cx="1625600" cy="2070100"/>
+            <a:chOff x="4762500" y="15455900"/>
+            <a:chExt cx="1625600" cy="2070100"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="161" name="Rounded Rectangle 160">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62306583-A3B9-E441-8A67-F536BB02C808}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800600" y="15455900"/>
+              <a:ext cx="1587500" cy="596900"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
             </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte">
+              <a:bevelT prst="relaxedInset"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>CONNECTION 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="169" name="Rounded Rectangle 168">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF172B3D-5D93-FE41-9165-F0FCF9257DBD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4787900" y="16205200"/>
+              <a:ext cx="1587500" cy="596900"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
             </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte">
+              <a:bevelT prst="relaxedInset"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>CONNECTION 2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="171" name="Rounded Rectangle 170">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194479BD-B2C7-8143-810E-7D86D214CB71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4762500" y="16929100"/>
+              <a:ext cx="1587500" cy="596900"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte">
+              <a:bevelT prst="relaxedInset"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>CONNECTION 3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="309" name="Rounded Rectangle 308">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C089DF-A58C-1B45-B92B-E67D43D8D975}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3982346" y="16548100"/>
+            <a:ext cx="2532753" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SessionConnectListener</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="310" name="Rounded Rectangle 309">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0F55BE-BC24-824E-A87F-817CAA809D7E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3931546" y="17614900"/>
+            <a:ext cx="2532753" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SessionAuthorizationListener</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="311" name="Rounded Rectangle 310">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E14F0A-A6AF-C440-B411-094E3E16AFF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3944246" y="17081500"/>
+            <a:ext cx="2545453" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SessionDisconnectListener</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27B11A4-8BE3-CB4A-A95C-13561250A307}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1727200" y="469900"/>
-          <a:ext cx="24358600" cy="8470900"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -413,7 +794,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18288000" y="1295400"/>
+          <a:off x="19939000" y="1295400"/>
           <a:ext cx="4464050" cy="6413500"/>
           <a:chOff x="18288000" y="1295400"/>
           <a:chExt cx="4972050" cy="6413500"/>
@@ -5009,7 +5390,7 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5028,7 +5409,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="10909300" y="635000"/>
-          <a:ext cx="8128000" cy="2139950"/>
+          <a:ext cx="9779000" cy="2139950"/>
           <a:chOff x="10909300" y="635000"/>
           <a:chExt cx="8128000" cy="2139950"/>
         </a:xfrm>
@@ -5500,7 +5881,7 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>188111</xdr:rowOff>
@@ -5556,7 +5937,7 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -5575,7 +5956,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14020800" y="2705100"/>
-          <a:ext cx="5016500" cy="3327400"/>
+          <a:ext cx="6667500" cy="3327400"/>
           <a:chOff x="14020800" y="2705100"/>
           <a:chExt cx="5016500" cy="3327400"/>
         </a:xfrm>
@@ -6543,13 +6924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -6843,13 +7224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -6917,13 +7298,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -6941,7 +7322,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22936200" y="4457700"/>
+          <a:off x="24587200" y="4457700"/>
           <a:ext cx="1714500" cy="1651000"/>
           <a:chOff x="23444200" y="4457700"/>
           <a:chExt cx="1714500" cy="1651000"/>
@@ -7251,13 +7632,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -7315,13 +7696,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>140489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -7372,13 +7753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>65078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -7396,7 +7777,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26098500" y="4738678"/>
+          <a:off x="27749500" y="4738678"/>
           <a:ext cx="2032000" cy="2246322"/>
           <a:chOff x="26606500" y="4738678"/>
           <a:chExt cx="2032000" cy="2246322"/>
@@ -7509,13 +7890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -7533,7 +7914,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21894800" y="1676400"/>
+          <a:off x="23545800" y="1676400"/>
           <a:ext cx="2743200" cy="1752600"/>
           <a:chOff x="22110700" y="1676400"/>
           <a:chExt cx="3035300" cy="1752600"/>
@@ -8902,13 +9283,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -8960,23 +9341,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81653</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 3">
+        <xdr:cNvPr id="1070" name="Group 1069">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3A5137-6644-E74C-83CE-E5AD2F01E750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318258E5-6F70-FC4C-9950-20B2C02A16BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8984,18 +9365,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4000500" y="13220700"/>
-          <a:ext cx="1625600" cy="2070100"/>
-          <a:chOff x="4762500" y="15455900"/>
-          <a:chExt cx="1625600" cy="2070100"/>
+          <a:off x="8336653" y="12268200"/>
+          <a:ext cx="3360047" cy="2768600"/>
+          <a:chOff x="8336653" y="12268200"/>
+          <a:chExt cx="3360047" cy="2768600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="Rounded Rectangle 160">
+          <xdr:cNvPr id="167" name="Rounded Rectangle 166">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62306583-A3B9-E441-8A67-F536BB02C808}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD5E2EC-93EC-0F4E-85D6-06B3D8CB4724}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9003,8 +9384,113 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4800600" y="15455900"/>
-            <a:ext cx="1587500" cy="596900"/>
+            <a:off x="8336653" y="12268200"/>
+            <a:ext cx="3360047" cy="2768600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>LISTENERS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="173" name="Rounded Rectangle 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAA0339-7B8D-D84C-9452-FEF1141DAFF1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8788400" y="12839700"/>
+            <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -9044,17 +9530,17 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>CONNECTION 1</a:t>
+              <a:t>NewOrderListener</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="169" name="Rounded Rectangle 168">
+          <xdr:cNvPr id="174" name="Rounded Rectangle 173">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF172B3D-5D93-FE41-9165-F0FCF9257DBD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD3D207-85C9-F74E-A554-8087D19C9F45}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9062,8 +9548,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4787900" y="16205200"/>
-            <a:ext cx="1587500" cy="596900"/>
+            <a:off x="8775700" y="13335000"/>
+            <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -9103,17 +9589,17 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>CONNECTION 2</a:t>
+              <a:t>CancelOrderListener</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="171" name="Rounded Rectangle 170">
+          <xdr:cNvPr id="175" name="Rounded Rectangle 174">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194479BD-B2C7-8143-810E-7D86D214CB71}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51E763F-6A98-DF4B-B500-F98635E3B7CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9121,8 +9607,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4762500" y="16929100"/>
-            <a:ext cx="1587500" cy="596900"/>
+            <a:off x="8775700" y="14401800"/>
+            <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -9162,7 +9648,66 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>CONNECTION 3</a:t>
+              <a:t>QuoteSubscriptionListener</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="176" name="Rounded Rectangle 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239B44FF-27A2-A949-9BCE-6E263B88B1B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8793853" y="13881100"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CloseShortListener</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -9173,1309 +9718,851 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>81653</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="Rounded Rectangle 166">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD5E2EC-93EC-0F4E-85D6-06B3D8CB4724}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8336653" y="11252200"/>
-          <a:ext cx="3360047" cy="2768600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LISTENERS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="Rounded Rectangle 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAA0339-7B8D-D84C-9452-FEF1141DAFF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8788400" y="11823700"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>NewOrderListener</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="Rounded Rectangle 173">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD3D207-85C9-F74E-A554-8087D19C9F45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8775700" y="12319000"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CancelOrderListener</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="Rounded Rectangle 174">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51E763F-6A98-DF4B-B500-F98635E3B7CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8775700" y="13385800"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>QuoteSubscriptionListener</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437253</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="Rounded Rectangle 175">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239B44FF-27A2-A949-9BCE-6E263B88B1B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8793853" y="12865100"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CloseShortListener</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>134247</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="Rounded Rectangle 176">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1069" name="Group 1068">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D52B57-9D65-4043-8F12-4E99EA0C820A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F07E37F-BEB8-4541-8FD2-F7BB25CB24A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8331200" y="14528800"/>
+          <a:off x="8331200" y="15544800"/>
           <a:ext cx="3360047" cy="2768600"/>
+          <a:chOff x="8331200" y="15544800"/>
+          <a:chExt cx="3360047" cy="2768600"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="Rounded Rectangle 176">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D52B57-9D65-4043-8F12-4E99EA0C820A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8331200" y="15544800"/>
+            <a:ext cx="3360047" cy="2768600"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>NOTIFIERS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>NOTIFIERS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527947</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>426347</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="Rounded Rectangle 178">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705F7E89-5C30-AE46-B5F3-5B8A211CE991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8782947" y="15100300"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>BalanceNotifierServer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>515247</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>413647</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="Rounded Rectangle 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D9CF92-283C-EE47-B80C-F36D765C6EB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8770247" y="15595600"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ExecutionNotifierServer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>515247</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>413647</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="Rounded Rectangle 183">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CFB88B-BE40-2845-A838-299F9E54E85C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8770247" y="16090900"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PositionNotifierServer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="Rounded Rectangle 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100CFA61-C7C8-0A4D-9E49-0D207F358160}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8788400" y="16624300"/>
-          <a:ext cx="2374900" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>QuoteNotifierServer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="Rounded Rectangle 178">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705F7E89-5C30-AE46-B5F3-5B8A211CE991}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8694047" y="16611600"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BalanceNotifier</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="Rounded Rectangle 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D9CF92-283C-EE47-B80C-F36D765C6EB9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8782947" y="17805400"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ExecutionNotifier</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="Rounded Rectangle 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CFB88B-BE40-2845-A838-299F9E54E85C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8719447" y="17208500"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PositionNotifier</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="186" name="Rounded Rectangle 185">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100CFA61-C7C8-0A4D-9E49-0D207F358160}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8801100" y="15989300"/>
+            <a:ext cx="2374900" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>QuoteNotifier</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="Rounded Rectangle 186">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1068" name="Group 1067">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FACD2A6-B56B-694C-BF69-443B86F984ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12598400" y="11214100"/>
-          <a:ext cx="3568700" cy="6096000"/>
+          <a:off x="12788900" y="12217400"/>
+          <a:ext cx="5346700" cy="6096000"/>
+          <a:chOff x="12598400" y="12230100"/>
+          <a:chExt cx="5346700" cy="6096000"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="187" name="Rounded Rectangle 186">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12598400" y="12230100"/>
+            <a:ext cx="5346700" cy="6096000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MANAGERS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>MANAGERS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="189" name="Rounded Rectangle 188">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14100623" y="16802100"/>
+            <a:ext cx="2154343" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>QuoteManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="Rounded Rectangle 189">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14393903" y="13487400"/>
+            <a:ext cx="2154343" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>OrderManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="Rounded Rectangle 190">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13098503" y="12903200"/>
+            <a:ext cx="2154343" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AccountManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="Rounded Rectangle 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C952AAB-5F1E-1D4B-B691-D82A53DD4979}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15067003" y="14300200"/>
+            <a:ext cx="2154343" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CancelOrderManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="196" name="Rounded Rectangle 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3250D696-7025-7B44-AE05-0BB7D5F144B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15443201" y="15240000"/>
+            <a:ext cx="2154343" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CloseShortManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="Rounded Rectangle 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EC042B-602C-BC43-9B30-AD55449FAA92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14135100" y="17475200"/>
+            <a:ext cx="2154343" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ExecutionManager</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>638623</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>316466</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="Rounded Rectangle 188">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13021123" y="14897100"/>
-          <a:ext cx="2154343" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>QueryServer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>716003</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>393846</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="Rounded Rectangle 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13098503" y="12585700"/>
-          <a:ext cx="2154343" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OrderManager</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>716003</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>393846</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="Rounded Rectangle 190">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13098503" y="11887200"/>
-          <a:ext cx="2154343" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AccountManager</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>690603</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>368446</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="Rounded Rectangle 193">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C952AAB-5F1E-1D4B-B691-D82A53DD4979}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13073103" y="13322300"/>
-          <a:ext cx="2154343" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CancelOrderManager</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>660401</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>338244</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="Rounded Rectangle 195">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3250D696-7025-7B44-AE05-0BB7D5F144B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13042901" y="14084300"/>
-          <a:ext cx="2154343" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CloseShortManager</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>223943</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="Rounded Rectangle 198">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EC042B-602C-BC43-9B30-AD55449FAA92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12928600" y="16154400"/>
-          <a:ext cx="2154343" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ExecutionManager</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>163960</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10490,8 +10577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16357600" y="9017000"/>
-          <a:ext cx="10274300" cy="10793860"/>
+          <a:off x="18834100" y="10414000"/>
+          <a:ext cx="10807700" cy="10793860"/>
           <a:chOff x="16844551" y="9612295"/>
           <a:chExt cx="9220200" cy="9220200"/>
         </a:xfrm>
@@ -10606,15 +10693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10632,8 +10719,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5626100" y="12020550"/>
-          <a:ext cx="3162300" cy="1498600"/>
+          <a:off x="5689600" y="13036550"/>
+          <a:ext cx="3098800" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10663,15 +10750,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10689,8 +10776,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5626100" y="12515850"/>
-          <a:ext cx="3149600" cy="1003300"/>
+          <a:off x="5689600" y="13531850"/>
+          <a:ext cx="3086100" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10720,14 +10807,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10746,8 +10833,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5626100" y="13519150"/>
-          <a:ext cx="3149600" cy="63500"/>
+          <a:off x="5689600" y="14293850"/>
+          <a:ext cx="3086100" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10777,15 +10864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10803,8 +10890,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5613400" y="12020550"/>
-          <a:ext cx="3175000" cy="2247900"/>
+          <a:off x="5676900" y="13036550"/>
+          <a:ext cx="3111500" cy="2006600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10834,15 +10921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10860,8 +10947,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5588000" y="13582650"/>
-          <a:ext cx="3187700" cy="1409700"/>
+          <a:off x="5651500" y="14598650"/>
+          <a:ext cx="3124200" cy="1168400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10891,15 +10978,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10917,8 +11004,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5613400" y="12515850"/>
-          <a:ext cx="3162300" cy="1752600"/>
+          <a:off x="5676900" y="13531850"/>
+          <a:ext cx="3098800" cy="1511300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10948,15 +11035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10974,8 +11061,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5588000" y="12515850"/>
-          <a:ext cx="3187700" cy="2476500"/>
+          <a:off x="5651500" y="13531850"/>
+          <a:ext cx="3124200" cy="2235200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11005,15 +11092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11031,8 +11118,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5588000" y="12020550"/>
-          <a:ext cx="3200400" cy="2971800"/>
+          <a:off x="5651500" y="13036550"/>
+          <a:ext cx="3136900" cy="2730500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11062,15 +11149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11088,8 +11175,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5626100" y="13061950"/>
-          <a:ext cx="3167753" cy="457200"/>
+          <a:off x="5689600" y="14077950"/>
+          <a:ext cx="3104253" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11119,15 +11206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11145,8 +11232,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5588000" y="13582650"/>
-          <a:ext cx="3187700" cy="1409700"/>
+          <a:off x="5651500" y="14598650"/>
+          <a:ext cx="3124200" cy="1168400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11176,15 +11263,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11202,8 +11289,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5588000" y="13061950"/>
-          <a:ext cx="3205853" cy="1930400"/>
+          <a:off x="5651500" y="14077950"/>
+          <a:ext cx="3142353" cy="1689100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11233,15 +11320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11259,8 +11346,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5613400" y="13061950"/>
-          <a:ext cx="3180453" cy="1206500"/>
+          <a:off x="5676900" y="14077950"/>
+          <a:ext cx="3116953" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11290,15 +11377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11316,8 +11403,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5613400" y="13582650"/>
-          <a:ext cx="3162300" cy="685800"/>
+          <a:off x="5676900" y="14598650"/>
+          <a:ext cx="3098800" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11348,14 +11435,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>716003</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>550903</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11373,8 +11460,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11163300" y="12020550"/>
-          <a:ext cx="1935203" cy="762000"/>
+          <a:off x="11163300" y="13036550"/>
+          <a:ext cx="3421103" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11405,14 +11492,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>716003</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81003</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11430,236 +11517,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11163300" y="12020550"/>
-          <a:ext cx="1935203" cy="63500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>690603</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="268" name="Straight Arrow Connector 267">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E24346-F1AA-214B-912C-111790E4CDE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="174" idx="3"/>
-          <a:endCxn id="194" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11150600" y="12515850"/>
-          <a:ext cx="1922503" cy="1003300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>716003</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="271" name="Straight Arrow Connector 270">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC2345-5143-F444-86BB-58FB87DEEE9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="174" idx="3"/>
-          <a:endCxn id="191" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11150600" y="12084050"/>
-          <a:ext cx="1947903" cy="431800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437253</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>660401</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="275" name="Straight Arrow Connector 274">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018239AC-8CCB-9C49-892E-6F52A27F52E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="176" idx="3"/>
-          <a:endCxn id="196" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11168753" y="13061950"/>
-          <a:ext cx="1874148" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437253</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>716003</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="277" name="Straight Arrow Connector 276">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D27669-F802-7D4D-9CF6-0B4EAD48E548}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="176" idx="3"/>
-          <a:endCxn id="191" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11168753" y="12084050"/>
-          <a:ext cx="1929750" cy="977900"/>
+          <a:off x="11163300" y="13036550"/>
+          <a:ext cx="2125703" cy="50800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11691,32 +11550,32 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>638623</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>398503</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="280" name="Straight Arrow Connector 279">
+        <xdr:cNvPr id="268" name="Straight Arrow Connector 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7B1650-7DF6-EB4F-A65C-C9D88F25215A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E24346-F1AA-214B-912C-111790E4CDE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="175" idx="3"/>
-          <a:endCxn id="189" idx="1"/>
+          <a:stCxn id="174" idx="3"/>
+          <a:endCxn id="194" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11150600" y="13582650"/>
-          <a:ext cx="1870523" cy="1511300"/>
+          <a:off x="11150600" y="13531850"/>
+          <a:ext cx="4106903" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11741,6 +11600,3043 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81003</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="Straight Arrow Connector 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC2345-5143-F444-86BB-58FB87DEEE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11150600" y="13087350"/>
+          <a:ext cx="2138403" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437253</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>774701</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="275" name="Straight Arrow Connector 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018239AC-8CCB-9C49-892E-6F52A27F52E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="3"/>
+          <a:endCxn id="196" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11168753" y="14077950"/>
+          <a:ext cx="4464948" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437253</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81003</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="Straight Arrow Connector 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D27669-F802-7D4D-9CF6-0B4EAD48E548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11168753" y="13087350"/>
+          <a:ext cx="2120250" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257623</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="Straight Arrow Connector 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7B1650-7DF6-EB4F-A65C-C9D88F25215A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="3"/>
+          <a:endCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11150600" y="14598650"/>
+          <a:ext cx="3140523" cy="2387600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>337447</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>802575</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="285" name="Straight Arrow Connector 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B942567-F14C-E24C-80C8-ECEA31F1D13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="190" idx="2"/>
+          <a:endCxn id="179" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11068947" y="13868400"/>
+          <a:ext cx="4592628" cy="2940050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426347</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="Straight Arrow Connector 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336E7CD6-5418-6242-AC0A-CBB573B38753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="1"/>
+          <a:endCxn id="180" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11157847" y="17659350"/>
+          <a:ext cx="3167753" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>362847</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="300" name="Straight Arrow Connector 299">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE184485-5149-574C-976B-506911474977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="1"/>
+          <a:endCxn id="184" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11094347" y="17405350"/>
+          <a:ext cx="3231253" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257623</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="331" name="Straight Arrow Connector 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566F5B8C-26C0-8D44-B401-91DD8085D17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="189" idx="1"/>
+          <a:endCxn id="186" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11176000" y="16186150"/>
+          <a:ext cx="3115123" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>337447</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="344" name="Straight Arrow Connector 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B60ABA-2D65-204F-B57F-7E58424BF8B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="1"/>
+          <a:endCxn id="179" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11068947" y="16808450"/>
+          <a:ext cx="3256653" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500753</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292101</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="381" name="Group 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216C2C1D-9CA2-B747-9944-BB151C8340A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8755753" y="19824700"/>
+          <a:ext cx="2267848" cy="3632200"/>
+          <a:chOff x="7028553" y="2298700"/>
+          <a:chExt cx="2267848" cy="3632200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="391" name="Rectangle 390">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40C6BAD-0D4B-D24F-9543-CF1FA4A6F2A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7416801" y="2298700"/>
+            <a:ext cx="1879600" cy="3632200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>KAFKA CLUSTER</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MESSAGE BROKER</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="392" name="Picture 391" descr="Running Apache Kafka on Windows 10 | by Bivás Biswas | Towards ...">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB212C5-9AF2-5D4A-A8DF-BB2D594C5364}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="5400000">
+            <a:off x="6524932" y="3310330"/>
+            <a:ext cx="2621794" cy="1614551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>64397</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="393" name="Straight Arrow Connector 392">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D32DBA-747F-7143-A2BA-5A71ECAA21DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="180" idx="2"/>
+          <a:endCxn id="391" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9970397" y="18199100"/>
+          <a:ext cx="113404" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1076" name="Group 1075">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276888AF-FC1A-7F45-A47D-B9F2088B3DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3771900" y="18465800"/>
+          <a:ext cx="2476500" cy="2336800"/>
+          <a:chOff x="4292600" y="18211800"/>
+          <a:chExt cx="2476500" cy="2336800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="397" name="Rectangle 396">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D1A9EE-ABC7-F24C-86C3-96814C434478}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4889500" y="18211800"/>
+            <a:ext cx="1879600" cy="2336800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>REDIS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SESSION STORE</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="379" name="Picture 378" descr="Redis icon">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895EA87C-B408-C34E-8492-97CE753FE9DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="4292600" y="18681700"/>
+            <a:ext cx="1422400" cy="1422400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>308423</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="399" name="Straight Arrow Connector 398">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381F09F6-1A6C-6E4E-9E1D-4F1D18DF7489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="310" idx="2"/>
+          <a:endCxn id="397" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5261423" y="17767300"/>
+          <a:ext cx="47177" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1079" name="Group 1078">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6D2B37-33CD-9C44-96EF-E8E81F872E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10172700" y="8928100"/>
+          <a:ext cx="11277600" cy="1892300"/>
+          <a:chOff x="10172700" y="8928100"/>
+          <a:chExt cx="11277600" cy="1892300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="402" name="Magnetic Disk 401">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB588F2E-844B-C94A-BE2D-8EC6FFABAC95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10655300" y="9715500"/>
+            <a:ext cx="1739900" cy="770527"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ACCOUNT</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="403" name="Magnetic Disk 402">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6AFDB4-6E26-9547-AD8D-6DA7D4A0ECF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12788900" y="9715500"/>
+            <a:ext cx="1739900" cy="770527"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ORDER</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="404" name="Magnetic Disk 403">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97493D29-2BDD-4540-BD84-596AAABA08B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14947900" y="9702800"/>
+            <a:ext cx="1739900" cy="770527"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BID Container</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="405" name="Magnetic Disk 404">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B47D21A-5F2E-D947-88A7-692072F8B60A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17018000" y="9702800"/>
+            <a:ext cx="1739900" cy="770527"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ASK Container</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="406" name="Magnetic Disk 405">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF81425-EE45-0B4F-8771-102551EC3B73}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19240500" y="9677400"/>
+            <a:ext cx="1739900" cy="770527"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SYMBOLS Container</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="407" name="Rounded Rectangle 406">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FA4414-C833-2646-8504-DD5491A13904}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10172700" y="8928100"/>
+            <a:ext cx="11277600" cy="1892300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> MEMORY DATA STORE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="417" name="Group 416">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D732CC6-D034-CA44-AF03-0D5737823720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="30721301" y="10414000"/>
+          <a:ext cx="2806700" cy="2336800"/>
+          <a:chOff x="8336654" y="12268200"/>
+          <a:chExt cx="2806700" cy="2336800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="418" name="Rounded Rectangle 417">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965699A9-7CA0-544B-B852-39E2B86A079E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8336654" y="12268200"/>
+            <a:ext cx="2806700" cy="2336800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>RANDOM BEHAVIOR</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="419" name="Rounded Rectangle 418">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C99564-4FA2-DE4E-8642-0808E51FDAC9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8712200" y="13157200"/>
+            <a:ext cx="2062853" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AccountServer x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="421" name="Rounded Rectangle 420">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3E2370-0D0A-124E-9E11-166F3FABEDF1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8724900" y="13868400"/>
+            <a:ext cx="2062853" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MkMakerServer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="423" name="Group 422">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70FC5E6-C3BF-814C-A738-41ABBB07A69F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="30238700" y="18580100"/>
+          <a:ext cx="2806700" cy="2336800"/>
+          <a:chOff x="8336654" y="12268200"/>
+          <a:chExt cx="2806700" cy="2336800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="424" name="Rounded Rectangle 423">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77E6446-0CB9-734D-A4D8-96073390F59D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8336654" y="12268200"/>
+            <a:ext cx="2806700" cy="2336800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>SHUT DOWN HOOK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="425" name="Rounded Rectangle 424">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A93A6B-0F6D-394B-9AA1-2470B4B71E9D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8712200" y="13157200"/>
+            <a:ext cx="2062853" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BalanceCalculator</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="426" name="Rounded Rectangle 425">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64139CAF-464B-D04B-9A44-62949819A1D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8724900" y="13868400"/>
+            <a:ext cx="2062853" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ExecutionStatistics</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="427" name="Group 426">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C7571A-6FE0-9D40-A8D9-111F4AAA492D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="31013400" y="14528800"/>
+          <a:ext cx="2806700" cy="1257300"/>
+          <a:chOff x="8336654" y="12268200"/>
+          <a:chExt cx="2806700" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="428" name="Rounded Rectangle 427">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43DC537-3A33-3A4D-A2A9-0C04BAF89CFA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8336654" y="12268200"/>
+            <a:ext cx="2806700" cy="1257300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>INITIATOR</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="429" name="Rounded Rectangle 428">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91718858-7895-9749-97EB-A1098D3A045D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8737600" y="12890500"/>
+            <a:ext cx="2062853" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>initiator</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DFEC0C-64CC-A544-AAEC-2706741FF457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3302000" y="7924800"/>
+          <a:ext cx="2476500" cy="2336800"/>
+          <a:chOff x="4292600" y="18211800"/>
+          <a:chExt cx="2476500" cy="2336800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7CD4D4-4197-7243-8D19-18F2A73E2D5B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4889500" y="18211800"/>
+            <a:ext cx="1879600" cy="2336800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>REDIS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SESSION STORE</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3" descr="Redis icon">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9856B0-7D7C-EB4F-8DA7-BF6E2F59CF41}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="4292600" y="18681700"/>
+            <a:ext cx="1422400" cy="1422400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>616848</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C26D63-3EAC-5343-B5C0-7465F755E9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7429500" y="7518400"/>
+          <a:ext cx="2267848" cy="3632200"/>
+          <a:chOff x="7028553" y="2298700"/>
+          <a:chExt cx="2267848" cy="3632200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA2E11C-FD3D-EA4F-AD69-B75E2B896D8B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7416801" y="2298700"/>
+            <a:ext cx="1879600" cy="3632200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>KAFKA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> CLUSTER</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MESSAGE BROKER</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Picture 6" descr="Running Apache Kafka on Windows 10 | by Bivás Biswas | Towards ...">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA7BD74-C1D3-AD49-83D7-DC1EC4A2C440}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="5400000">
+            <a:off x="6524932" y="3310330"/>
+            <a:ext cx="2621794" cy="1614551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12043,19 +14939,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
-  <dimension ref="A1:AR114"/>
+  <dimension ref="A1:AT128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I47" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" topLeftCell="H41" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="28" max="28" width="7" customWidth="1"/>
+    <col min="27" max="27" width="8" customWidth="1"/>
+    <col min="30" max="30" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12102,8 +14998,10 @@
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -12148,8 +15046,10 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
     </row>
-    <row r="3" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12194,8 +15094,10 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
     </row>
-    <row r="4" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -12240,8 +15142,10 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
     </row>
-    <row r="5" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -12286,8 +15190,10 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12332,8 +15238,10 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -12378,8 +15286,10 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -12424,8 +15334,10 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -12470,8 +15382,10 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -12516,8 +15430,10 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -12562,8 +15478,10 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -12608,8 +15526,10 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -12654,8 +15574,10 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12700,8 +15622,10 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -12746,8 +15670,10 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -12792,8 +15718,10 @@
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -12838,8 +15766,10 @@
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -12884,8 +15814,10 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12930,8 +15862,10 @@
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -12976,8 +15910,10 @@
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13022,8 +15958,10 @@
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -13068,8 +16006,10 @@
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -13114,8 +16054,10 @@
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -13160,8 +16102,10 @@
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -13206,8 +16150,10 @@
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -13252,8 +16198,10 @@
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -13298,8 +16246,10 @@
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -13344,8 +16294,10 @@
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -13390,8 +16342,10 @@
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -13436,8 +16390,10 @@
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -13482,8 +16438,10 @@
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13528,8 +16486,10 @@
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13574,8 +16534,10 @@
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13620,8 +16582,10 @@
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -13666,8 +16630,10 @@
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -13712,8 +16678,10 @@
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -13758,8 +16726,10 @@
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -13804,8 +16774,10 @@
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -13850,8 +16822,10 @@
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -13896,8 +16870,10 @@
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -13942,8 +16918,10 @@
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -13988,8 +16966,10 @@
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -14034,8 +17014,10 @@
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -14080,8 +17062,10 @@
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
     </row>
-    <row r="45" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -14126,484 +17110,501 @@
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
     </row>
-    <row r="54" spans="5:30" x14ac:dyDescent="0.2">
-      <c r="W54" s="7" t="s">
+    <row r="60" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="AA61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
     </row>
-    <row r="55" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="W55" s="7" t="s">
+    <row r="62" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="AA62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
     </row>
-    <row r="56" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E56" s="4"/>
-      <c r="L56" s="4"/>
+    <row r="63" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
-    <row r="57" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="X57" s="10" t="s">
+    <row r="64" spans="5:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="E64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="AB64" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
     </row>
-    <row r="58" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="X58" s="8" t="s">
+    <row r="65" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="AB65" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y58" s="8" t="s">
+      <c r="AC65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Z58" s="8" t="s">
+      <c r="AD65" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="X59" s="9" t="s">
+    <row r="66" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E66" s="4"/>
+      <c r="AB66" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y59" s="9">
+      <c r="AC66" s="9">
         <v>72</v>
       </c>
-      <c r="Z59" s="9">
+      <c r="AD66" s="9">
         <v>1300</v>
       </c>
     </row>
-    <row r="60" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="X60" s="9" t="s">
+    <row r="67" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E67" s="4"/>
+      <c r="AB67" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y60" s="9">
+      <c r="AC67" s="9">
         <v>71</v>
       </c>
-      <c r="Z60" s="9">
+      <c r="AD67" s="9">
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E61" s="4"/>
-      <c r="X61" s="9" t="s">
+    <row r="68" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E68" s="4"/>
+      <c r="AB68" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y61" s="9">
+      <c r="AC68" s="9">
         <v>68</v>
       </c>
-      <c r="Z61" s="9">
+      <c r="AD68" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E62" s="4"/>
-      <c r="X62" s="9" t="s">
+    <row r="69" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E69" s="4"/>
+      <c r="AB69" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y62" s="9">
+      <c r="AC69" s="9">
         <v>64</v>
       </c>
-      <c r="Z62" s="9">
+      <c r="AD69" s="9">
         <v>1600</v>
       </c>
     </row>
-    <row r="63" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E63" s="4"/>
-      <c r="X63" s="9" t="s">
+    <row r="70" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E70" s="4"/>
+      <c r="AB70" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y63" s="9">
+      <c r="AC70" s="9">
         <v>51</v>
       </c>
-      <c r="Z63" s="9">
+      <c r="AD70" s="9">
         <v>9100</v>
       </c>
     </row>
-    <row r="64" spans="5:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="E64" s="4"/>
-      <c r="X64" s="9" t="s">
+    <row r="71" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E71" s="4"/>
+      <c r="AB71" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y64" s="9">
+      <c r="AC71" s="9">
         <v>50</v>
       </c>
-      <c r="Z64" s="9">
+      <c r="AD71" s="9">
         <v>25900</v>
       </c>
     </row>
-    <row r="65" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E65" s="4"/>
-      <c r="X65" s="9" t="s">
+    <row r="72" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E72" s="4"/>
+      <c r="AB72" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y65" s="9">
+      <c r="AC72" s="9">
         <v>46</v>
       </c>
-      <c r="Z65" s="9">
+      <c r="AD72" s="9">
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E66" s="4"/>
-      <c r="X66" s="9" t="s">
+    <row r="73" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E73" s="4"/>
+      <c r="AB73" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y66" s="9">
+      <c r="AC73" s="9">
         <v>40</v>
       </c>
-      <c r="Z66" s="9">
+      <c r="AD73" s="9">
         <v>7670</v>
       </c>
     </row>
-    <row r="67" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E67" s="4"/>
-      <c r="X67" s="9" t="s">
+    <row r="74" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E74" s="4"/>
+      <c r="AB74" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y67" s="9">
+      <c r="AC74" s="9">
         <v>36</v>
       </c>
-      <c r="Z67" s="9">
+      <c r="AD74" s="9">
         <v>2420</v>
       </c>
     </row>
-    <row r="68" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E68" s="4"/>
-      <c r="X68" s="9" t="s">
+    <row r="75" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E75" s="4"/>
+      <c r="AB75" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y68" s="9">
+      <c r="AC75" s="9">
         <v>33</v>
       </c>
-      <c r="Z68" s="9">
+      <c r="AD75" s="9">
         <v>780</v>
       </c>
     </row>
-    <row r="69" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E69" s="4"/>
-      <c r="X69" s="9" t="s">
+    <row r="76" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E76" s="4"/>
+      <c r="AB76" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y69" s="9">
+      <c r="AC76" s="9">
         <v>25</v>
       </c>
-      <c r="Z69" s="9">
+      <c r="AD76" s="9">
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E70" s="4"/>
-      <c r="X70" s="9" t="s">
+    <row r="77" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AB77" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y70" s="9">
+      <c r="AC77" s="9">
         <v>22</v>
       </c>
-      <c r="Z70" s="9">
+      <c r="AD77" s="9">
         <v>1030</v>
       </c>
     </row>
-    <row r="71" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E71" s="4"/>
-      <c r="X71" s="9" t="s">
+    <row r="78" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AB78" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y71" s="9">
+      <c r="AC78" s="9">
         <v>17</v>
       </c>
-      <c r="Z71" s="9">
+      <c r="AD78" s="9">
         <v>1480</v>
       </c>
     </row>
-    <row r="72" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="X72" s="9" t="s">
+    <row r="79" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AB79" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y72" s="9">
+      <c r="AC79" s="9">
         <v>16</v>
       </c>
-      <c r="Z72" s="9">
+      <c r="AD79" s="9">
         <v>1500</v>
       </c>
     </row>
-    <row r="73" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-      <c r="AA73" s="11" t="s">
+    <row r="80" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E80" s="4"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB73" s="11">
+      <c r="AF80" s="10">
         <v>15</v>
       </c>
-      <c r="AC73" s="11">
+      <c r="AG80" s="10">
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-      <c r="AA74" s="11" t="s">
+    <row r="81" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E81" s="4"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB74" s="11">
+      <c r="AF81" s="10">
         <v>14</v>
       </c>
-      <c r="AC74" s="11">
+      <c r="AG81" s="10">
         <v>3090</v>
       </c>
     </row>
-    <row r="75" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E75" s="4"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-      <c r="AA75" s="11" t="s">
+    <row r="82" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E82" s="4"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB75" s="11">
+      <c r="AF82" s="10">
         <v>13</v>
       </c>
-      <c r="AC75" s="11">
+      <c r="AG82" s="10">
         <v>1440</v>
       </c>
     </row>
-    <row r="76" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E76" s="4"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-      <c r="AA76" s="11" t="s">
+    <row r="83" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E83" s="4"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB76" s="11">
+      <c r="AF83" s="10">
         <v>12</v>
       </c>
-      <c r="AC76" s="11">
+      <c r="AG83" s="10">
         <v>10320</v>
       </c>
     </row>
-    <row r="77" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E77" s="4"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="11" t="s">
+    <row r="84" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E84" s="4"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB77" s="11">
+      <c r="AF84" s="10">
         <v>11</v>
       </c>
-      <c r="AC77" s="11">
+      <c r="AG84" s="10">
         <v>115160</v>
       </c>
     </row>
-    <row r="78" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E78" s="4"/>
-      <c r="AA78" s="11" t="s">
+    <row r="85" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E85" s="4"/>
+      <c r="AE85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB78" s="11">
+      <c r="AF85" s="10">
         <v>10</v>
       </c>
-      <c r="AC78" s="11">
+      <c r="AG85" s="10">
         <v>153440</v>
       </c>
     </row>
-    <row r="79" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E79" s="4"/>
-      <c r="AA79" s="11" t="s">
+    <row r="86" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E86" s="4"/>
+      <c r="AE86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB79" s="11">
+      <c r="AF86" s="10">
         <v>9</v>
       </c>
-      <c r="AC79" s="11">
+      <c r="AG86" s="10">
         <v>75960</v>
       </c>
     </row>
-    <row r="80" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E80" s="4"/>
-      <c r="AA80" s="11" t="s">
+    <row r="87" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E87" s="4"/>
+      <c r="AE87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB80" s="11">
+      <c r="AF87" s="10">
         <v>8</v>
       </c>
-      <c r="AC80" s="11">
+      <c r="AG87" s="10">
         <v>15300</v>
       </c>
     </row>
-    <row r="81" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E81" s="4"/>
-      <c r="AA81" s="11" t="s">
+    <row r="88" spans="5:33" ht="17" x14ac:dyDescent="0.2">
+      <c r="E88" s="4"/>
+      <c r="AE88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB81" s="11">
+      <c r="AF88" s="10">
         <v>7</v>
       </c>
-      <c r="AC81" s="11">
+      <c r="AG88" s="10">
         <v>3100</v>
       </c>
     </row>
-    <row r="82" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E82" s="4"/>
-      <c r="AA82" s="11" t="s">
+    <row r="89" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AE89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB82" s="11">
+      <c r="AF89" s="10">
         <v>6</v>
       </c>
-      <c r="AC82" s="11">
+      <c r="AG89" s="10">
         <v>590</v>
       </c>
     </row>
-    <row r="83" spans="5:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="E83" s="4"/>
-      <c r="AA83" s="11" t="s">
+    <row r="90" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AE90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB83" s="11">
+      <c r="AF90" s="10">
         <v>5</v>
       </c>
-      <c r="AC83" s="11">
+      <c r="AG90" s="10">
         <v>920</v>
       </c>
     </row>
-    <row r="84" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="AA84" s="11" t="s">
+    <row r="91" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AE91" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB84" s="11">
+      <c r="AF91" s="10">
         <v>4</v>
       </c>
-      <c r="AC84" s="11">
+      <c r="AG91" s="10">
         <v>530</v>
       </c>
     </row>
-    <row r="85" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="AA85" s="11" t="s">
+    <row r="92" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AE92" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB85" s="11">
+      <c r="AF92" s="10">
         <v>3</v>
       </c>
-      <c r="AC85" s="11">
+      <c r="AG92" s="10">
         <v>1040</v>
       </c>
     </row>
-    <row r="86" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="AA86" s="11" t="s">
+    <row r="93" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AE93" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB86" s="11">
+      <c r="AF93" s="10">
         <v>2</v>
       </c>
-      <c r="AC86" s="11">
+      <c r="AG93" s="10">
         <v>690</v>
       </c>
     </row>
-    <row r="87" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="AA87" s="12" t="s">
+    <row r="94" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AE94" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB87" s="12" t="s">
+      <c r="AF94" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC87" s="12" t="s">
+      <c r="AG94" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="5:29" x14ac:dyDescent="0.2">
-      <c r="AA88" s="13" t="s">
+    <row r="95" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="AE95" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AB88" s="13"/>
-      <c r="AC88" s="13"/>
+      <c r="AF95" s="13"/>
+      <c r="AG95" s="13"/>
     </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
+    <row r="118" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O118" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q105" t="s">
+    <row r="119" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q106" t="s">
+    <row r="120" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O120" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q107" t="s">
+    <row r="121" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O121" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q109" t="s">
+    <row r="123" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O123" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q110" t="s">
+    <row r="124" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O124" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q111" t="s">
+    <row r="125" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O125" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q112" t="s">
+    <row r="126" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O126" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q113" t="s">
+    <row r="127" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O127" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q114" t="s">
+    <row r="128" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O128" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="AA88:AC88"/>
-    <mergeCell ref="W55:AD55"/>
-    <mergeCell ref="W54:AD54"/>
+    <mergeCell ref="AA62:AH62"/>
+    <mergeCell ref="AA61:AH61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC890A72-171A-F84D-839D-C1D91BD00799}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548CACB-B3D6-7D4F-A9BA-3F4AFAEA89CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0E57F-0559-254C-A7E1-78288D0B393F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
@@ -262,16 +262,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>322953</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -286,10 +286,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3653175" y="6503811"/>
-          <a:ext cx="3388269" cy="5135033"/>
-          <a:chOff x="3653175" y="6503811"/>
-          <a:chExt cx="3388269" cy="5135033"/>
+          <a:off x="4437753" y="6672579"/>
+          <a:ext cx="3349887" cy="6940692"/>
+          <a:chOff x="3653175" y="6503810"/>
+          <a:chExt cx="3388269" cy="6845301"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -305,8 +305,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3653175" y="6503811"/>
-            <a:ext cx="3388269" cy="5135033"/>
+            <a:off x="3653175" y="6503810"/>
+            <a:ext cx="3388269" cy="6845301"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -400,6 +400,307 @@
               <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Websocket/SocketIO server used to: </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>TLS termination</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Authenticate/Authorize clients.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Bind client connection with an account.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Receive</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> messages from clients.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Stream data to the clients.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:grpSp>
@@ -415,10 +716,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="4093135" y="7702137"/>
-            <a:ext cx="1639598" cy="2032867"/>
-            <a:chOff x="4762500" y="15455900"/>
-            <a:chExt cx="1625600" cy="2070100"/>
+            <a:off x="4104233" y="7259913"/>
+            <a:ext cx="1639598" cy="2032873"/>
+            <a:chOff x="4773503" y="15005576"/>
+            <a:chExt cx="1625600" cy="2070106"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -434,7 +735,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="15455900"/>
+              <a:off x="4811603" y="15005576"/>
               <a:ext cx="1587500" cy="596900"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -500,7 +801,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4787900" y="16205200"/>
+              <a:off x="4798903" y="15754876"/>
               <a:ext cx="1587500" cy="596900"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -569,7 +870,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4762500" y="16929100"/>
+              <a:off x="4773503" y="16478782"/>
               <a:ext cx="1587500" cy="596900"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -639,7 +940,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4074944" y="9980621"/>
+            <a:off x="4086041" y="9538399"/>
             <a:ext cx="2553947" cy="382169"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -698,7 +999,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4024038" y="11020249"/>
+            <a:off x="4035136" y="10578026"/>
             <a:ext cx="2553947" cy="382170"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -757,7 +1058,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4036764" y="10505290"/>
+            <a:off x="4047862" y="10063067"/>
             <a:ext cx="2566673" cy="382169"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -808,13 +1109,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>550334</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>194733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>252589</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
@@ -832,8 +1133,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18866556" y="589844"/>
-          <a:ext cx="5840589" cy="1357489"/>
+          <a:off x="19478414" y="601133"/>
+          <a:ext cx="5788095" cy="1397000"/>
           <a:chOff x="2730500" y="635000"/>
           <a:chExt cx="5791200" cy="1397000"/>
         </a:xfrm>
@@ -1389,13 +1690,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>81653</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1413,8 +1714,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8407209" y="6016978"/>
-          <a:ext cx="3388269" cy="2713566"/>
+          <a:off x="9134213" y="6182360"/>
+          <a:ext cx="3349887" cy="2735580"/>
           <a:chOff x="8407209" y="6016978"/>
           <a:chExt cx="3388269" cy="2713566"/>
         </a:xfrm>
@@ -1770,13 +2071,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>134247</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1794,8 +2095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8401756" y="9230078"/>
-          <a:ext cx="3388269" cy="2709333"/>
+          <a:off x="9128760" y="9420860"/>
+          <a:ext cx="3349887" cy="2743200"/>
           <a:chOff x="8331200" y="15544800"/>
           <a:chExt cx="3360047" cy="2768600"/>
         </a:xfrm>
@@ -2151,13 +2452,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>745066</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>306211</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2175,8 +2476,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13233399" y="5966178"/>
-          <a:ext cx="5389034" cy="5973233"/>
+          <a:off x="13912426" y="6131560"/>
+          <a:ext cx="5321865" cy="6032500"/>
           <a:chOff x="12894733" y="5966178"/>
           <a:chExt cx="5389034" cy="5973233"/>
         </a:xfrm>
@@ -2650,13 +2951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>346863</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>105562</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>163961</xdr:rowOff>
@@ -2674,8 +2975,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19495641" y="4212168"/>
-          <a:ext cx="10892365" cy="10542682"/>
+          <a:off x="20097903" y="4330701"/>
+          <a:ext cx="10782299" cy="10727820"/>
           <a:chOff x="16844551" y="9612295"/>
           <a:chExt cx="9220200" cy="9220200"/>
         </a:xfrm>
@@ -2736,8 +3037,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="20567650" y="10121900"/>
-            <a:ext cx="1765300" cy="723900"/>
+            <a:off x="20567650" y="9926990"/>
+            <a:ext cx="1765300" cy="918810"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2784,6 +3085,28 @@
               </a:rPr>
               <a:t> CORE</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ORDER MATCHING</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MECHANIC</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
@@ -2797,16 +3120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>743147</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>204821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528229</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>135825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2824,8 +3147,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5689600" y="13036550"/>
-          <a:ext cx="3098800" cy="1257300"/>
+          <a:off x="5669871" y="7113183"/>
+          <a:ext cx="3069565" cy="806866"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2854,16 +3177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>743147</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>43577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515674</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>135825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2881,8 +3204,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5689600" y="13531850"/>
-          <a:ext cx="3086100" cy="762000"/>
+          <a:off x="5669871" y="7608836"/>
+          <a:ext cx="3057010" cy="311213"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2911,16 +3234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>743147</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>135825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515674</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>30998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2938,8 +3261,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5689600" y="14293850"/>
-          <a:ext cx="3086100" cy="304800"/>
+          <a:off x="5669871" y="7920049"/>
+          <a:ext cx="3057010" cy="771035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2968,16 +3291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730511</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>204821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528229</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2995,8 +3318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5676900" y="13036550"/>
-          <a:ext cx="3111500" cy="2006600"/>
+          <a:off x="5657235" y="7113183"/>
+          <a:ext cx="3082201" cy="1571980"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3025,16 +3348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>705237</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>30998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515674</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107361</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3052,8 +3375,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5651500" y="14598650"/>
-          <a:ext cx="3124200" cy="1168400"/>
+          <a:off x="5631961" y="8691084"/>
+          <a:ext cx="3094920" cy="733260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3082,16 +3405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730511</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>43577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515674</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3109,8 +3432,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5676900" y="13531850"/>
-          <a:ext cx="3098800" cy="1511300"/>
+          <a:off x="5657235" y="7608836"/>
+          <a:ext cx="3069646" cy="1076327"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3139,16 +3462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>705237</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>43577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515674</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107361</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3166,8 +3489,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5651500" y="13531850"/>
-          <a:ext cx="3124200" cy="2235200"/>
+          <a:off x="5631961" y="7608836"/>
+          <a:ext cx="3094920" cy="1815508"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3196,16 +3519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>705237</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>204821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528229</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107361</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3223,8 +3546,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5651500" y="13036550"/>
-          <a:ext cx="3136900" cy="2730500"/>
+          <a:off x="5631961" y="7113183"/>
+          <a:ext cx="3107475" cy="2311161"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3253,16 +3576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>743147</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>135825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533619</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165276</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3279,9 +3602,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5689600" y="14077950"/>
-          <a:ext cx="3104253" cy="215900"/>
+        <a:xfrm>
+          <a:off x="5669871" y="7920049"/>
+          <a:ext cx="3074955" cy="248417"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3310,16 +3633,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>705237</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>30998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515674</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107361</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3337,8 +3660,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5651500" y="14598650"/>
-          <a:ext cx="3124200" cy="1168400"/>
+          <a:off x="5631961" y="8691084"/>
+          <a:ext cx="3094920" cy="733260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3367,16 +3690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>705237</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>165276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533619</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107361</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3394,8 +3717,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5651500" y="14077950"/>
-          <a:ext cx="3142353" cy="1689100"/>
+          <a:off x="5631961" y="8168466"/>
+          <a:ext cx="3112865" cy="1255878"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3424,16 +3747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730511</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>165276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>538853</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533619</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3451,8 +3774,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5676900" y="14077950"/>
-          <a:ext cx="3116953" cy="965200"/>
+          <a:off x="5657235" y="8168466"/>
+          <a:ext cx="3087591" cy="516697"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3481,16 +3804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730511</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>25077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515674</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3507,9 +3830,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5676900" y="14598650"/>
-          <a:ext cx="3098800" cy="444500"/>
+        <a:xfrm>
+          <a:off x="5657235" y="8685163"/>
+          <a:ext cx="3069646" cy="5921"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3538,13 +3861,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>432438</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>200178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>57039</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>180281</xdr:rowOff>
@@ -3595,13 +3918,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>432438</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>200178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>418903</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>27189</xdr:rowOff>
@@ -3652,13 +3975,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>419711</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>44086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>736767</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>123781</xdr:rowOff>
@@ -3709,13 +4032,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>419711</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>27189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>418903</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>44086</xdr:rowOff>
@@ -3766,13 +4089,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>437902</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>161475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>281147</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>196811</xdr:rowOff>
@@ -3823,13 +4146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>437902</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>27189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>418903</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>161475</xdr:rowOff>
@@ -3880,13 +4203,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>419711</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>31436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>595740</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>88950</xdr:rowOff>
@@ -3937,13 +4260,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>339276</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>159679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>311729</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>123233</xdr:rowOff>
@@ -3997,13 +4320,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>428922</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>111339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>630285</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>21478</xdr:rowOff>
@@ -4057,13 +4380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>364889</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>72355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>630285</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>111339</xdr:rowOff>
@@ -4117,13 +4440,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>447228</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>135143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>595740</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>88950</xdr:rowOff>
@@ -4177,13 +4500,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>339276</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>123233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>630285</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>111339</xdr:rowOff>
@@ -4237,16 +4560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>328854</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>183445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>235657</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>107244</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>86102</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4261,10 +4584,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8654410" y="18527889"/>
-          <a:ext cx="2404469" cy="3536244"/>
+          <a:off x="9381414" y="18938805"/>
+          <a:ext cx="2375683" cy="3407857"/>
           <a:chOff x="6914835" y="2298700"/>
-          <a:chExt cx="2381566" cy="3632200"/>
+          <a:chExt cx="2381566" cy="3407641"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4281,7 +4604,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7416801" y="2298700"/>
-            <a:ext cx="1879600" cy="3632200"/>
+            <a:ext cx="1879600" cy="3407641"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4401,74 +4724,8 @@
           </a:p>
           <a:p>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="2800">
+              <a:rPr lang="en-US" sz="1600" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -4476,55 +4733,8 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>MESSAGE BROKER</a:t>
+              <a:t>SYSTEM BUS</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
             <a:endParaRPr lang="en-US" sz="2800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4594,16 +4804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>441677</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>441677</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>193322</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>107627</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4618,10 +4828,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3771899" y="18492611"/>
-          <a:ext cx="2497667" cy="2274711"/>
+          <a:off x="4556477" y="18903527"/>
+          <a:ext cx="2468880" cy="2448660"/>
           <a:chOff x="4292600" y="18211800"/>
-          <a:chExt cx="2476500" cy="2336800"/>
+          <a:chExt cx="2476500" cy="2449465"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4638,7 +4848,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4889500" y="18211800"/>
-            <a:ext cx="1879600" cy="2336800"/>
+            <a:ext cx="1879600" cy="2449465"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4775,33 +4985,6 @@
               </a:rPr>
               <a:t>SESSION STORE</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
             <a:endParaRPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4868,13 +5051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>145344</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>119944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>183444</xdr:rowOff>
@@ -4892,8 +5075,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31260344" y="4268611"/>
-          <a:ext cx="2834923" cy="2278944"/>
+          <a:off x="31742944" y="4387144"/>
+          <a:ext cx="2806136" cy="2329180"/>
           <a:chOff x="8336654" y="12268200"/>
           <a:chExt cx="2806700" cy="2336800"/>
         </a:xfrm>
@@ -5178,7 +5361,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>MkMakerServer</a:t>
+              <a:t>MkMakerServer x 1</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5188,13 +5371,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>8467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>90310</xdr:rowOff>
@@ -5212,8 +5395,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31267400" y="11621911"/>
-          <a:ext cx="2827867" cy="2269066"/>
+          <a:off x="31750000" y="11844867"/>
+          <a:ext cx="2799080" cy="2327203"/>
           <a:chOff x="30485644" y="12200467"/>
           <a:chExt cx="2827867" cy="2269066"/>
         </a:xfrm>
@@ -5495,13 +5678,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>199672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>175683</xdr:rowOff>
@@ -5519,8 +5702,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31267400" y="8468783"/>
-          <a:ext cx="2827867" cy="1231900"/>
+          <a:off x="31750000" y="8652792"/>
+          <a:ext cx="2799080" cy="1246011"/>
           <a:chOff x="31267400" y="8235244"/>
           <a:chExt cx="2827867" cy="1231900"/>
         </a:xfrm>
@@ -5743,14 +5926,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>64054</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>64763</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>2447</xdr:rowOff>
+      <xdr:rowOff>1439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119374</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122057</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>183445</xdr:rowOff>
     </xdr:to>
@@ -5770,8 +5953,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10054721" y="11827558"/>
-          <a:ext cx="55320" cy="6700331"/>
+          <a:off x="10698322" y="11797371"/>
+          <a:ext cx="57294" cy="6575057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5800,13 +5983,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>296334</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>191911</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>91723</xdr:rowOff>
@@ -5824,8 +6007,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3626556" y="3781778"/>
-          <a:ext cx="16546688" cy="1643945"/>
+          <a:off x="4411134" y="3889022"/>
+          <a:ext cx="16354777" cy="1689101"/>
           <a:chOff x="5080000" y="2963333"/>
           <a:chExt cx="16546688" cy="1643945"/>
         </a:xfrm>
@@ -6374,14 +6557,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>305679</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>641</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317383</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>169127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>326401</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328420</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
@@ -6401,8 +6584,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5301012" y="11402419"/>
-          <a:ext cx="20722" cy="7090192"/>
+          <a:off x="6043146" y="10888788"/>
+          <a:ext cx="11037" cy="7448362"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6431,16 +6614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>235657</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:rowOff>5621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>469965</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>117122</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6457,9 +6640,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11058879" y="20284722"/>
-          <a:ext cx="3564530" cy="11289"/>
+        <a:xfrm>
+          <a:off x="11687182" y="20002740"/>
+          <a:ext cx="3506173" cy="100212"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6488,13 +6671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>197557</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>282222</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>112889</xdr:rowOff>
@@ -6575,14 +6758,17 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="2800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DEPOSITARY</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -6653,7 +6839,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1600" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6667,7 +6853,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1600" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6678,7 +6864,7 @@
             <a:t>EXECUTION</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6686,9 +6872,710 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> STORE</a:t>
+            <a:t> SERVER</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>469965</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>574610</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="324" name="Picture 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D95467-D978-924F-9F6B-BA66D635B33B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14623409" y="19120555"/>
+          <a:ext cx="3434869" cy="2328334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="787400">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>574610</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>84140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>599364</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="461" name="Straight Arrow Connector 460">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6CB371-C2BE-CF4A-9724-0D9F04D628B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="324" idx="3"/>
+          <a:endCxn id="460" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18569864" y="20081259"/>
+          <a:ext cx="2478653" cy="21693"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>564417</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>187503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>722586</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="483" name="Straight Arrow Connector 482">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B68623-A322-1C4C-B15A-083CD6C4F55C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="190" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16986831" y="7752762"/>
+          <a:ext cx="4263772" cy="841635"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>303731</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>175172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>711638</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>110395</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="486" name="Straight Arrow Connector 485">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8BCCA6-02CA-214E-88B9-3EAE1C4B737D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="199" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16726145" y="10992069"/>
+          <a:ext cx="4513510" cy="811085"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>269699</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>733535</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>86366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="489" name="Straight Arrow Connector 488">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBF1DFF-7848-674B-BB38-7D6CE2B505B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="189" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16692113" y="10981121"/>
+          <a:ext cx="4569439" cy="141107"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423274</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175837</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>72888</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="362" name="Group 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89196DA3-1495-6046-97E2-411F2B58C448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="423274" y="8524647"/>
+          <a:ext cx="2221443" cy="2317841"/>
+          <a:chOff x="208019" y="9388510"/>
+          <a:chExt cx="2212770" cy="2377138"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="496" name="Rectangle 495">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF98590C-71EE-A948-AC63-0759C864B308}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="551160" y="9388510"/>
+            <a:ext cx="1869629" cy="2377138"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="37000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>BROWSER</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CLIENT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="495" name="Graphic 494">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC1E48-7DF7-AC4C-B2F6-4CFACC7F52AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="208019" y="10685519"/>
+            <a:ext cx="1773620" cy="656896"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:glow rad="76200">
+              <a:schemeClr val="bg1"/>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="497" name="Graphic 496">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA70258C-B10E-5043-9CC3-07CBC037F577}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="262759" y="10039568"/>
+            <a:ext cx="1774526" cy="481725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>344407</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>86102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>106191</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>71989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="502" name="Rectangle 501">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2109533F-EC23-B84C-87A7-6BE6B7B7F541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22429492" y="18275085"/>
+          <a:ext cx="2538563" cy="3925040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="37000">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DATABASE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6733,7 +7620,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2800">
+            <a:rPr lang="en-US" sz="1600" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6741,8 +7628,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>MESSAGE BROKER</a:t>
+            <a:t>PERMANENT</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> DATA STORAGE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -6805,23 +7711,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>469965</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>599364</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>99495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>574611</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>746118</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133362</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="324" name="Picture 323">
+        <xdr:cNvPr id="460" name="Picture 459">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D95467-D978-924F-9F6B-BA66D635B33B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8644C2C-AE85-544D-A6A4-031731659E61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6830,23 +7736,30 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:duotone>
+            <a:schemeClr val="bg2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14623409" y="19120555"/>
-          <a:ext cx="3434869" cy="2328334"/>
+          <a:off x="21048517" y="18482207"/>
+          <a:ext cx="3203364" cy="3198104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:effectLst>
-          <a:glow rad="787400">
-            <a:schemeClr val="accent1">
+          <a:glow rad="228600">
+            <a:schemeClr val="tx1">
               <a:alpha val="40000"/>
             </a:schemeClr>
           </a:glow>
@@ -6855,70 +7768,103 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>32520</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>70554</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>301356</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>179276</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>104421</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>129152</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>193727</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="329" name="Picture 328">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="504" name="Rounded Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BCD529-6060-7544-8DCD-596A1B998A6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394D5C0E-76FF-4B4A-821B-CC63CAC282D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer>
-                  <a14:imgEffect>
-                    <a14:colorTemperature colorTemp="11200"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:saturation sat="400000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19181298" y="18810110"/>
-          <a:ext cx="3251200" cy="3251200"/>
+          <a:off x="3573220" y="2626101"/>
+          <a:ext cx="32051356" cy="14206779"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8031"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="00B050">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="228600">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>POTOK - EXHCANGE APPLICATION ANATOMY</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7443,6 +8389,165 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22ABB78E-4400-3C49-AC6F-B60B3F57ECD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:duotone>
+            <a:schemeClr val="bg2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4826000" y="2451100"/>
+          <a:ext cx="3251200" cy="3251200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>585470</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEE3CF2-D900-AF41-BFAF-475EBCCD840C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11709400" y="3479800"/>
+          <a:ext cx="4560570" cy="1689100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="228600">
+            <a:schemeClr val="bg1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADCD72C-9A14-3946-8EDF-2DCEF2433BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="6350000"/>
+          <a:ext cx="2628900" cy="713659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7745,22 +8850,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
-  <dimension ref="A1:AZ118"/>
+  <dimension ref="A1:BA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z117" sqref="Z117"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="10.83203125" style="4"/>
-    <col min="27" max="27" width="8" style="4" customWidth="1"/>
-    <col min="28" max="29" width="10.83203125" style="4"/>
-    <col min="30" max="30" width="7" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="27" width="10.83203125" style="4"/>
+    <col min="28" max="28" width="8" style="4" customWidth="1"/>
+    <col min="29" max="30" width="10.83203125" style="4"/>
+    <col min="31" max="31" width="7" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7773,16 +8878,17 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7793,126 +8899,129 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G6" s="14"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G7" s="14"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G8" s="14"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G9" s="14"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G10" s="14"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G11" s="14"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G12" s="14"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G13" s="14"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G14" s="14"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
-    <row r="27" spans="5:36" x14ac:dyDescent="0.2">
-      <c r="Y27" s="14"/>
+    <row r="27" spans="6:37" x14ac:dyDescent="0.2">
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
@@ -7924,9 +9033,9 @@
       <c r="AH27" s="14"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
     </row>
-    <row r="28" spans="5:36" x14ac:dyDescent="0.2">
-      <c r="Y28" s="14"/>
+    <row r="28" spans="6:37" x14ac:dyDescent="0.2">
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
@@ -7938,9 +9047,9 @@
       <c r="AH28" s="14"/>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
     </row>
-    <row r="29" spans="5:36" x14ac:dyDescent="0.2">
-      <c r="Y29" s="14"/>
+    <row r="29" spans="6:37" x14ac:dyDescent="0.2">
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
@@ -7952,11 +9061,11 @@
       <c r="AH29" s="14"/>
       <c r="AI29" s="14"/>
       <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
     </row>
-    <row r="30" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="Y30" s="14"/>
+    <row r="30" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
@@ -7968,47 +9077,47 @@
       <c r="AH30" s="14"/>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
     </row>
-    <row r="31" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="Y31" s="14"/>
+    <row r="31" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="Z31" s="14"/>
-      <c r="AA31" s="15" t="s">
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
       <c r="AH31" s="15"/>
-      <c r="AI31" s="14"/>
+      <c r="AI31" s="15"/>
       <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
     </row>
-    <row r="32" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="Y32" s="14"/>
+    <row r="32" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F32" s="5"/>
+      <c r="M32" s="5"/>
       <c r="Z32" s="14"/>
-      <c r="AA32" s="15" t="s">
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
-      <c r="AI32" s="14"/>
+      <c r="AI32" s="15"/>
       <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
     </row>
-    <row r="33" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="Y33" s="14"/>
+    <row r="33" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
@@ -8020,474 +9129,474 @@
       <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
     </row>
-    <row r="34" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="AB34" s="6" t="s">
+    <row r="34" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="AC34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
     </row>
-    <row r="35" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="AB35" s="7" t="s">
+    <row r="35" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="AC35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AC35" s="7" t="s">
+      <c r="AD35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AD35" s="7" t="s">
+      <c r="AE35" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E36" s="5"/>
-      <c r="AB36" s="8" t="s">
+    <row r="36" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F36" s="5"/>
+      <c r="AC36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AD36" s="8">
         <v>72</v>
       </c>
-      <c r="AD36" s="8">
+      <c r="AE36" s="8">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E37" s="5"/>
-      <c r="AB37" s="8" t="s">
+    <row r="37" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F37" s="5"/>
+      <c r="AC37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC37" s="8">
+      <c r="AD37" s="8">
         <v>71</v>
       </c>
-      <c r="AD37" s="8">
+      <c r="AE37" s="8">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E38" s="5"/>
-      <c r="AB38" s="8" t="s">
+    <row r="38" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F38" s="5"/>
+      <c r="AC38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC38" s="8">
+      <c r="AD38" s="8">
         <v>68</v>
       </c>
-      <c r="AD38" s="8">
+      <c r="AE38" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E39" s="5"/>
-      <c r="AB39" s="8" t="s">
+    <row r="39" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F39" s="5"/>
+      <c r="AC39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC39" s="8">
+      <c r="AD39" s="8">
         <v>64</v>
       </c>
-      <c r="AD39" s="8">
+      <c r="AE39" s="8">
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E40" s="5"/>
-      <c r="AB40" s="8" t="s">
+    <row r="40" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F40" s="5"/>
+      <c r="AC40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AD40" s="8">
         <v>51</v>
       </c>
-      <c r="AD40" s="8">
+      <c r="AE40" s="8">
         <v>9100</v>
       </c>
     </row>
-    <row r="41" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E41" s="5"/>
-      <c r="AB41" s="8" t="s">
+    <row r="41" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F41" s="5"/>
+      <c r="AC41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AD41" s="8">
         <v>50</v>
       </c>
-      <c r="AD41" s="8">
+      <c r="AE41" s="8">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E42" s="5"/>
-      <c r="AB42" s="8" t="s">
+    <row r="42" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F42" s="5"/>
+      <c r="AC42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AD42" s="8">
         <v>46</v>
       </c>
-      <c r="AD42" s="8">
+      <c r="AE42" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E43" s="5"/>
-      <c r="AB43" s="8" t="s">
+    <row r="43" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F43" s="5"/>
+      <c r="AC43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC43" s="8">
+      <c r="AD43" s="8">
         <v>40</v>
       </c>
-      <c r="AD43" s="8">
+      <c r="AE43" s="8">
         <v>7670</v>
       </c>
     </row>
-    <row r="44" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E44" s="5"/>
-      <c r="AB44" s="8" t="s">
+    <row r="44" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F44" s="5"/>
+      <c r="AC44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AD44" s="8">
         <v>36</v>
       </c>
-      <c r="AD44" s="8">
+      <c r="AE44" s="8">
         <v>2420</v>
       </c>
     </row>
-    <row r="45" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E45" s="5"/>
-      <c r="AB45" s="8" t="s">
+    <row r="45" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F45" s="5"/>
+      <c r="AC45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AD45" s="8">
         <v>33</v>
       </c>
-      <c r="AD45" s="8">
+      <c r="AE45" s="8">
         <v>780</v>
       </c>
     </row>
-    <row r="46" spans="5:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="E46" s="5"/>
-      <c r="AB46" s="8" t="s">
+    <row r="46" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F46" s="5"/>
+      <c r="AC46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC46" s="8">
+      <c r="AD46" s="8">
         <v>25</v>
       </c>
-      <c r="AD46" s="8">
+      <c r="AE46" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="5:36" x14ac:dyDescent="0.2">
-      <c r="AB47" s="8" t="s">
+    <row r="47" spans="6:37" x14ac:dyDescent="0.2">
+      <c r="AC47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC47" s="8">
+      <c r="AD47" s="8">
         <v>22</v>
       </c>
-      <c r="AD47" s="8">
+      <c r="AE47" s="8">
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="5:36" x14ac:dyDescent="0.2">
-      <c r="AB48" s="8" t="s">
+    <row r="48" spans="6:37" x14ac:dyDescent="0.2">
+      <c r="AC48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC48" s="8">
+      <c r="AD48" s="8">
         <v>17</v>
       </c>
-      <c r="AD48" s="8">
+      <c r="AE48" s="8">
         <v>1480</v>
       </c>
     </row>
-    <row r="49" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="AB49" s="8" t="s">
+    <row r="49" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AC49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC49" s="8">
+      <c r="AD49" s="8">
         <v>16</v>
       </c>
-      <c r="AD49" s="8">
+      <c r="AE49" s="8">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E50" s="5"/>
-      <c r="AB50" s="9"/>
+    <row r="50" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F50" s="5"/>
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
-      <c r="AE50" s="10" t="s">
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF50" s="10">
+      <c r="AG50" s="10">
         <v>15</v>
       </c>
-      <c r="AG50" s="10">
+      <c r="AH50" s="10">
         <v>760</v>
       </c>
     </row>
-    <row r="51" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E51" s="5"/>
-      <c r="AB51" s="9"/>
+    <row r="51" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F51" s="5"/>
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
-      <c r="AE51" s="10" t="s">
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF51" s="10">
+      <c r="AG51" s="10">
         <v>14</v>
       </c>
-      <c r="AG51" s="10">
+      <c r="AH51" s="10">
         <v>3090</v>
       </c>
     </row>
-    <row r="52" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E52" s="5"/>
-      <c r="AB52" s="9"/>
+    <row r="52" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F52" s="5"/>
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
-      <c r="AE52" s="10" t="s">
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF52" s="10">
+      <c r="AG52" s="10">
         <v>13</v>
       </c>
-      <c r="AG52" s="10">
+      <c r="AH52" s="10">
         <v>1440</v>
       </c>
     </row>
-    <row r="53" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E53" s="5"/>
-      <c r="AB53" s="9"/>
+    <row r="53" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F53" s="5"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
-      <c r="AE53" s="10" t="s">
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF53" s="10">
+      <c r="AG53" s="10">
         <v>12</v>
       </c>
-      <c r="AG53" s="10">
+      <c r="AH53" s="10">
         <v>10320</v>
       </c>
     </row>
-    <row r="54" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E54" s="5"/>
-      <c r="AB54" s="9"/>
+    <row r="54" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F54" s="5"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
-      <c r="AE54" s="10" t="s">
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF54" s="10">
+      <c r="AG54" s="10">
         <v>11</v>
       </c>
-      <c r="AG54" s="10">
+      <c r="AH54" s="10">
         <v>115160</v>
       </c>
     </row>
-    <row r="55" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E55" s="5"/>
-      <c r="AE55" s="10" t="s">
+    <row r="55" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F55" s="5"/>
+      <c r="AF55" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF55" s="10">
+      <c r="AG55" s="10">
         <v>10</v>
       </c>
-      <c r="AG55" s="10">
+      <c r="AH55" s="10">
         <v>153440</v>
       </c>
     </row>
-    <row r="56" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E56" s="5"/>
-      <c r="AE56" s="10" t="s">
+    <row r="56" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F56" s="5"/>
+      <c r="AF56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF56" s="10">
+      <c r="AG56" s="10">
         <v>9</v>
       </c>
-      <c r="AG56" s="10">
+      <c r="AH56" s="10">
         <v>75960</v>
       </c>
     </row>
-    <row r="57" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E57" s="5"/>
-      <c r="AE57" s="10" t="s">
+    <row r="57" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F57" s="5"/>
+      <c r="AF57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF57" s="10">
+      <c r="AG57" s="10">
         <v>8</v>
       </c>
-      <c r="AG57" s="10">
+      <c r="AH57" s="10">
         <v>15300</v>
       </c>
     </row>
-    <row r="58" spans="5:33" ht="17" x14ac:dyDescent="0.2">
-      <c r="E58" s="5"/>
-      <c r="AE58" s="10" t="s">
+    <row r="58" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F58" s="5"/>
+      <c r="AF58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF58" s="10">
+      <c r="AG58" s="10">
         <v>7</v>
       </c>
-      <c r="AG58" s="10">
+      <c r="AH58" s="10">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="AE59" s="10" t="s">
+    <row r="59" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF59" s="10">
+      <c r="AG59" s="10">
         <v>6</v>
       </c>
-      <c r="AG59" s="10">
+      <c r="AH59" s="10">
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="AE60" s="10" t="s">
+    <row r="60" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF60" s="10">
+      <c r="AG60" s="10">
         <v>5</v>
       </c>
-      <c r="AG60" s="10">
+      <c r="AH60" s="10">
         <v>920</v>
       </c>
     </row>
-    <row r="61" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="AE61" s="10" t="s">
+    <row r="61" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF61" s="10">
+      <c r="AG61" s="10">
         <v>4</v>
       </c>
-      <c r="AG61" s="10">
+      <c r="AH61" s="10">
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="AE62" s="10" t="s">
+    <row r="62" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF62" s="10">
+      <c r="AG62" s="10">
         <v>3</v>
       </c>
-      <c r="AG62" s="10">
+      <c r="AH62" s="10">
         <v>1040</v>
       </c>
     </row>
-    <row r="63" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="AE63" s="10" t="s">
+    <row r="63" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF63" s="10">
+      <c r="AG63" s="10">
         <v>2</v>
       </c>
-      <c r="AG63" s="10">
+      <c r="AH63" s="10">
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="AE64" s="11" t="s">
+    <row r="64" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF64" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AF64" s="11" t="s">
+      <c r="AG64" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AG64" s="11" t="s">
+      <c r="AH64" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="16:33" x14ac:dyDescent="0.2">
-      <c r="AE65" s="12" t="s">
+    <row r="65" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="AF65" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AF65" s="12"/>
       <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
     </row>
-    <row r="67" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P68" s="14" t="s">
+    <row r="67" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P69" s="14" t="s">
+    <row r="69" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P70" s="14" t="s">
+    <row r="70" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P71" s="14" t="s">
+    <row r="71" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P73" s="14" t="s">
+    <row r="72" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P74" s="14" t="s">
+    <row r="74" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P75" s="14" t="s">
+    <row r="75" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q75" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P76" s="14" t="s">
+    <row r="76" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P77" s="14" t="s">
+    <row r="77" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q77" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="P78" s="14" t="s">
+    <row r="78" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q78" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="16:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="46:46" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="AT94" s="16"/>
+    <row r="79" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="47:47" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="AU94" s="16"/>
     </row>
-    <row r="95" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="46:46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="23:52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W107" s="14"/>
+    <row r="95" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X107" s="14"/>
       <c r="Y107" s="14"/>
       <c r="Z107" s="14"/>
@@ -8495,7 +9604,7 @@
       <c r="AB107" s="14"/>
       <c r="AC107" s="14"/>
       <c r="AD107" s="14"/>
-      <c r="AF107" s="14"/>
+      <c r="AE107" s="14"/>
       <c r="AG107" s="14"/>
       <c r="AH107" s="14"/>
       <c r="AI107" s="14"/>
@@ -8516,9 +9625,9 @@
       <c r="AX107" s="14"/>
       <c r="AY107" s="14"/>
       <c r="AZ107" s="14"/>
+      <c r="BA107" s="14"/>
     </row>
-    <row r="108" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W108" s="14"/>
+    <row r="108" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
       <c r="Z108" s="14"/>
@@ -8548,9 +9657,9 @@
       <c r="AX108" s="14"/>
       <c r="AY108" s="14"/>
       <c r="AZ108" s="14"/>
+      <c r="BA108" s="14"/>
     </row>
-    <row r="109" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W109" s="14"/>
+    <row r="109" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X109" s="14"/>
       <c r="Y109" s="14"/>
       <c r="Z109" s="14"/>
@@ -8580,9 +9689,9 @@
       <c r="AX109" s="14"/>
       <c r="AY109" s="14"/>
       <c r="AZ109" s="14"/>
+      <c r="BA109" s="14"/>
     </row>
-    <row r="110" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W110" s="14"/>
+    <row r="110" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X110" s="14"/>
       <c r="Y110" s="14"/>
       <c r="Z110" s="14"/>
@@ -8612,9 +9721,9 @@
       <c r="AX110" s="14"/>
       <c r="AY110" s="14"/>
       <c r="AZ110" s="14"/>
+      <c r="BA110" s="14"/>
     </row>
-    <row r="111" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W111" s="14"/>
+    <row r="111" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X111" s="14"/>
       <c r="Y111" s="14"/>
       <c r="Z111" s="14"/>
@@ -8644,9 +9753,9 @@
       <c r="AX111" s="14"/>
       <c r="AY111" s="14"/>
       <c r="AZ111" s="14"/>
+      <c r="BA111" s="14"/>
     </row>
-    <row r="112" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W112" s="14"/>
+    <row r="112" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X112" s="14"/>
       <c r="Y112" s="14"/>
       <c r="Z112" s="14"/>
@@ -8676,9 +9785,9 @@
       <c r="AX112" s="14"/>
       <c r="AY112" s="14"/>
       <c r="AZ112" s="14"/>
+      <c r="BA112" s="14"/>
     </row>
-    <row r="113" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W113" s="14"/>
+    <row r="113" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X113" s="14"/>
       <c r="Y113" s="14"/>
       <c r="Z113" s="14"/>
@@ -8708,9 +9817,9 @@
       <c r="AX113" s="14"/>
       <c r="AY113" s="14"/>
       <c r="AZ113" s="14"/>
+      <c r="BA113" s="14"/>
     </row>
-    <row r="114" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W114" s="14"/>
+    <row r="114" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
       <c r="Z114" s="14"/>
@@ -8740,9 +9849,9 @@
       <c r="AX114" s="14"/>
       <c r="AY114" s="14"/>
       <c r="AZ114" s="14"/>
+      <c r="BA114" s="14"/>
     </row>
-    <row r="115" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="W115" s="14"/>
+    <row r="115" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
       <c r="Z115" s="14"/>
@@ -8772,9 +9881,9 @@
       <c r="AX115" s="14"/>
       <c r="AY115" s="14"/>
       <c r="AZ115" s="14"/>
+      <c r="BA115" s="14"/>
     </row>
-    <row r="116" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="AO116" s="14"/>
+    <row r="116" spans="24:53" x14ac:dyDescent="0.2">
       <c r="AP116" s="14"/>
       <c r="AQ116" s="14"/>
       <c r="AR116" s="14"/>
@@ -8786,9 +9895,9 @@
       <c r="AX116" s="14"/>
       <c r="AY116" s="14"/>
       <c r="AZ116" s="14"/>
+      <c r="BA116" s="14"/>
     </row>
-    <row r="117" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="AO117" s="14"/>
+    <row r="117" spans="24:53" x14ac:dyDescent="0.2">
       <c r="AP117" s="14"/>
       <c r="AQ117" s="14"/>
       <c r="AR117" s="14"/>
@@ -8800,9 +9909,9 @@
       <c r="AX117" s="14"/>
       <c r="AY117" s="14"/>
       <c r="AZ117" s="14"/>
+      <c r="BA117" s="14"/>
     </row>
-    <row r="118" spans="23:52" x14ac:dyDescent="0.2">
-      <c r="AO118" s="14"/>
+    <row r="118" spans="24:53" x14ac:dyDescent="0.2">
       <c r="AP118" s="14"/>
       <c r="AQ118" s="14"/>
       <c r="AR118" s="14"/>
@@ -8814,12 +9923,13 @@
       <c r="AX118" s="14"/>
       <c r="AY118" s="14"/>
       <c r="AZ118" s="14"/>
+      <c r="BA118" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA32:AH32"/>
-    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="AB32:AI32"/>
+    <mergeCell ref="AB31:AI31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8832,7 +9942,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0E57F-0559-254C-A7E1-78288D0B393F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFF560-1C78-3B40-A3B1-29401C2FDA2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,8 +270,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -286,10 +286,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4437753" y="6672579"/>
-          <a:ext cx="3349887" cy="6940692"/>
+          <a:off x="4513953" y="6718299"/>
+          <a:ext cx="3410847" cy="7536181"/>
           <a:chOff x="3653175" y="6503810"/>
-          <a:chExt cx="3388269" cy="6845301"/>
+          <a:chExt cx="3388269" cy="7086903"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -306,7 +306,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3653175" y="6503810"/>
-            <a:ext cx="3388269" cy="6845301"/>
+            <a:ext cx="3388269" cy="7086903"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -556,17 +556,6 @@
           </a:p>
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
@@ -576,11 +565,14 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Websocket/SocketIO server used to: </a:t>
+              <a:t>WebSocket/SocketIO server used to: </a:t>
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:pPr marL="285750" indent="-285750" algn="l">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
@@ -594,7 +586,10 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:pPr marL="285750" indent="-285750" algn="l">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
@@ -608,7 +603,10 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:pPr marL="285750" indent="-285750" algn="l">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
@@ -622,7 +620,10 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:pPr marL="285750" indent="-285750" algn="l">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
@@ -655,7 +656,10 @@
             </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:pPr marL="285750" indent="-285750" algn="l">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0">
                 <a:solidFill>
@@ -667,6 +671,42 @@
               </a:rPr>
               <a:t>Stream data to the clients.</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="285750" indent="-285750" algn="l">
+              <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:buChar char="•"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Initialize clients</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> UI with orders, balance and positions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
@@ -1133,8 +1173,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19478414" y="601133"/>
-          <a:ext cx="5788095" cy="1397000"/>
+          <a:off x="19828934" y="601133"/>
+          <a:ext cx="5874455" cy="1397000"/>
           <a:chOff x="2730500" y="635000"/>
           <a:chExt cx="5791200" cy="1397000"/>
         </a:xfrm>
@@ -1698,8 +1738,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1714,10 +1754,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9134213" y="6182360"/>
-          <a:ext cx="3349887" cy="2735580"/>
+          <a:off x="9301853" y="6197600"/>
+          <a:ext cx="3410847" cy="3754120"/>
           <a:chOff x="8407209" y="6016978"/>
-          <a:chExt cx="3388269" cy="2713566"/>
+          <a:chExt cx="3388269" cy="3482032"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1734,7 +1774,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="8407209" y="6016978"/>
-            <a:ext cx="3388269" cy="2713566"/>
+            <a:ext cx="3388269" cy="3482032"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1828,6 +1868,105 @@
               <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Listeners are used to preprocess incomming</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> requests  route them to approriate managers and return acknowledgements to the clients.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -2072,15 +2211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>134247</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>113927</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2095,10 +2234,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9128760" y="9420860"/>
-          <a:ext cx="3349887" cy="2743200"/>
+          <a:off x="9276080" y="10629900"/>
+          <a:ext cx="3410847" cy="4127498"/>
           <a:chOff x="8331200" y="15544800"/>
-          <a:chExt cx="3360047" cy="2768600"/>
+          <a:chExt cx="3360047" cy="3988451"/>
         </a:xfrm>
         <a:effectLst>
           <a:glow rad="228600">
@@ -2123,7 +2262,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="8331200" y="15544800"/>
-            <a:ext cx="3360047" cy="2768600"/>
+            <a:ext cx="3360047" cy="3988451"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2209,6 +2348,116 @@
               <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Assynchroniously distribute data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> to the clients and Kafka system bus.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -2476,8 +2725,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13912426" y="6131560"/>
-          <a:ext cx="5321865" cy="6032500"/>
+          <a:off x="14156266" y="6146800"/>
+          <a:ext cx="5428545" cy="6413500"/>
           <a:chOff x="12894733" y="5966178"/>
           <a:chExt cx="5389034" cy="5973233"/>
         </a:xfrm>
@@ -2975,8 +3224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20097903" y="4330701"/>
-          <a:ext cx="10782299" cy="10727820"/>
+          <a:off x="20463663" y="4330701"/>
+          <a:ext cx="10960099" cy="11124060"/>
           <a:chOff x="16844551" y="9612295"/>
           <a:chExt cx="9220200" cy="9220200"/>
         </a:xfrm>
@@ -4261,15 +4510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>339276</xdr:colOff>
+      <xdr:colOff>316469</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>159679</xdr:rowOff>
+      <xdr:rowOff>163859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>311729</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123233</xdr:rowOff>
+      <xdr:colOff>314006</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>197957</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4287,8 +4536,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11162498" y="7582123"/>
-          <a:ext cx="4967787" cy="2884554"/>
+          <a:off x="11837909" y="7763539"/>
+          <a:ext cx="4935297" cy="3844098"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4321,15 +4570,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>428922</xdr:colOff>
+      <xdr:colOff>405100</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>111339</xdr:rowOff>
+      <xdr:rowOff>110089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>630285</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>21478</xdr:rowOff>
+      <xdr:colOff>630153</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>131125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4347,8 +4596,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11252144" y="11301450"/>
-          <a:ext cx="3531585" cy="333472"/>
+          <a:off x="11926540" y="11519769"/>
+          <a:ext cx="3516893" cy="1270716"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4381,15 +4630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>364889</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>72355</xdr:rowOff>
+      <xdr:colOff>341792</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>110089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>630285</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>111339</xdr:rowOff>
+      <xdr:colOff>630153</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4406,9 +4655,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11188111" y="11050799"/>
-          <a:ext cx="3595618" cy="250651"/>
+        <a:xfrm flipH="1">
+          <a:off x="11863232" y="11519769"/>
+          <a:ext cx="3580201" cy="679292"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4441,15 +4690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>447228</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>135143</xdr:rowOff>
+      <xdr:colOff>423198</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>86258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>595740</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>88950</xdr:rowOff>
+      <xdr:colOff>596038</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>8086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4466,9 +4715,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11270450" y="9857699"/>
-          <a:ext cx="3478734" cy="786362"/>
+        <a:xfrm flipH="1">
+          <a:off x="11944638" y="10855858"/>
+          <a:ext cx="3464680" cy="135188"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4501,15 +4750,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>339276</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123233</xdr:rowOff>
+      <xdr:colOff>316469</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>110089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>630285</xdr:colOff>
+      <xdr:colOff>630153</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>111339</xdr:rowOff>
+      <xdr:rowOff>197957</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4526,9 +4775,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11162498" y="10466677"/>
-          <a:ext cx="3621231" cy="834773"/>
+        <a:xfrm flipH="1">
+          <a:off x="11837909" y="11519769"/>
+          <a:ext cx="3605524" cy="87868"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4584,8 +4833,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9381414" y="18938805"/>
-          <a:ext cx="2375683" cy="3407857"/>
+          <a:off x="9549054" y="19335045"/>
+          <a:ext cx="2421403" cy="3407857"/>
           <a:chOff x="6914835" y="2298700"/>
           <a:chExt cx="2381566" cy="3407641"/>
         </a:xfrm>
@@ -4828,8 +5077,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4556477" y="18903527"/>
-          <a:ext cx="2468880" cy="2448660"/>
+          <a:off x="4632677" y="19299767"/>
+          <a:ext cx="2514600" cy="2448660"/>
           <a:chOff x="4292600" y="18211800"/>
           <a:chExt cx="2476500" cy="2449465"/>
         </a:xfrm>
@@ -5075,8 +5324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31742944" y="4387144"/>
-          <a:ext cx="2806136" cy="2329180"/>
+          <a:off x="32301744" y="4387144"/>
+          <a:ext cx="2851856" cy="2374900"/>
           <a:chOff x="8336654" y="12268200"/>
           <a:chExt cx="2806700" cy="2336800"/>
         </a:xfrm>
@@ -5395,8 +5644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31750000" y="11844867"/>
-          <a:ext cx="2799080" cy="2327203"/>
+          <a:off x="32308800" y="12225867"/>
+          <a:ext cx="2844800" cy="2342443"/>
           <a:chOff x="30485644" y="12200467"/>
           <a:chExt cx="2827867" cy="2269066"/>
         </a:xfrm>
@@ -5702,8 +5951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31750000" y="8652792"/>
-          <a:ext cx="2799080" cy="1246011"/>
+          <a:off x="32308800" y="8835672"/>
+          <a:ext cx="2844800" cy="1322211"/>
           <a:chOff x="31267400" y="8235244"/>
           <a:chExt cx="2827867" cy="1231900"/>
         </a:xfrm>
@@ -5927,13 +6176,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>64763</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>1439</xdr:rowOff>
+      <xdr:colOff>44201</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>122969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>122057</xdr:colOff>
+      <xdr:colOff>121139</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>183445</xdr:rowOff>
     </xdr:to>
@@ -5953,8 +6202,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10698322" y="11797371"/>
-          <a:ext cx="57294" cy="6575057"/>
+          <a:off x="10742681" y="12985529"/>
+          <a:ext cx="76938" cy="5953276"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6007,8 +6256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4411134" y="3889022"/>
-          <a:ext cx="16354777" cy="1689101"/>
+          <a:off x="4487334" y="3889022"/>
+          <a:ext cx="16659577" cy="1689101"/>
           <a:chOff x="5080000" y="2963333"/>
           <a:chExt cx="16546688" cy="1643945"/>
         </a:xfrm>
@@ -7196,8 +7445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="423274" y="8524647"/>
-          <a:ext cx="2221443" cy="2317841"/>
+          <a:off x="423274" y="8707527"/>
+          <a:ext cx="2267163" cy="2439761"/>
           <a:chOff x="208019" y="9388510"/>
           <a:chExt cx="2212770" cy="2377138"/>
         </a:xfrm>
@@ -8852,11 +9101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
   <dimension ref="A1:BA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="27" width="10.83203125" style="4"/>
     <col min="28" max="28" width="8" style="4" customWidth="1"/>
@@ -8865,7 +9114,7 @@
     <col min="32" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8888,7 +9137,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8909,7 +9158,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8930,7 +9179,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="16" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8944,7 +9193,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8958,70 +9207,70 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="27" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:37">
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
@@ -9035,7 +9284,7 @@
       <c r="AJ27" s="14"/>
       <c r="AK27" s="14"/>
     </row>
-    <row r="28" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:37">
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
@@ -9049,7 +9298,7 @@
       <c r="AJ28" s="14"/>
       <c r="AK28" s="14"/>
     </row>
-    <row r="29" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:37">
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
@@ -9063,7 +9312,7 @@
       <c r="AJ29" s="14"/>
       <c r="AK29" s="14"/>
     </row>
-    <row r="30" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:37" ht="17">
       <c r="F30" s="5"/>
       <c r="M30" s="5"/>
       <c r="Z30" s="14"/>
@@ -9079,7 +9328,7 @@
       <c r="AJ30" s="14"/>
       <c r="AK30" s="14"/>
     </row>
-    <row r="31" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:37" ht="17">
       <c r="F31" s="5"/>
       <c r="M31" s="5"/>
       <c r="Z31" s="14"/>
@@ -9097,7 +9346,7 @@
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
     </row>
-    <row r="32" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:37" ht="17">
       <c r="F32" s="5"/>
       <c r="M32" s="5"/>
       <c r="Z32" s="14"/>
@@ -9115,7 +9364,7 @@
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
     </row>
-    <row r="33" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:37" ht="17">
       <c r="F33" s="5"/>
       <c r="M33" s="5"/>
       <c r="Z33" s="14"/>
@@ -9131,7 +9380,7 @@
       <c r="AJ33" s="14"/>
       <c r="AK33" s="14"/>
     </row>
-    <row r="34" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:37" ht="17">
       <c r="F34" s="5"/>
       <c r="M34" s="5"/>
       <c r="AC34" s="6" t="s">
@@ -9140,7 +9389,7 @@
       <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
     </row>
-    <row r="35" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:37" ht="17">
       <c r="F35" s="5"/>
       <c r="M35" s="5"/>
       <c r="AC35" s="7" t="s">
@@ -9153,7 +9402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:37" ht="17">
       <c r="F36" s="5"/>
       <c r="AC36" s="8" t="s">
         <v>13</v>
@@ -9165,7 +9414,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:37" ht="17">
       <c r="F37" s="5"/>
       <c r="AC37" s="8" t="s">
         <v>13</v>
@@ -9177,7 +9426,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:37" ht="17">
       <c r="F38" s="5"/>
       <c r="AC38" s="8" t="s">
         <v>13</v>
@@ -9189,7 +9438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:37" ht="17">
       <c r="F39" s="5"/>
       <c r="AC39" s="8" t="s">
         <v>13</v>
@@ -9201,7 +9450,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:37" ht="17">
       <c r="F40" s="5"/>
       <c r="AC40" s="8" t="s">
         <v>13</v>
@@ -9213,7 +9462,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="41" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:37" ht="17">
       <c r="F41" s="5"/>
       <c r="AC41" s="8" t="s">
         <v>13</v>
@@ -9225,7 +9474,7 @@
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:37" ht="17">
       <c r="F42" s="5"/>
       <c r="AC42" s="8" t="s">
         <v>13</v>
@@ -9237,7 +9486,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:37" ht="17">
       <c r="F43" s="5"/>
       <c r="AC43" s="8" t="s">
         <v>13</v>
@@ -9249,7 +9498,7 @@
         <v>7670</v>
       </c>
     </row>
-    <row r="44" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:37" ht="17">
       <c r="F44" s="5"/>
       <c r="AC44" s="8" t="s">
         <v>13</v>
@@ -9261,7 +9510,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="45" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:37" ht="17">
       <c r="F45" s="5"/>
       <c r="AC45" s="8" t="s">
         <v>13</v>
@@ -9273,7 +9522,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="46" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:37" ht="17">
       <c r="F46" s="5"/>
       <c r="AC46" s="8" t="s">
         <v>13</v>
@@ -9285,7 +9534,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:37">
       <c r="AC47" s="8" t="s">
         <v>13</v>
       </c>
@@ -9296,7 +9545,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:37">
       <c r="AC48" s="8" t="s">
         <v>13</v>
       </c>
@@ -9307,7 +9556,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="49" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:34">
       <c r="AC49" s="8" t="s">
         <v>13</v>
       </c>
@@ -9318,7 +9567,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:34" ht="17">
       <c r="F50" s="5"/>
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
@@ -9333,7 +9582,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="51" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:34" ht="17">
       <c r="F51" s="5"/>
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
@@ -9348,7 +9597,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="52" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:34" ht="17">
       <c r="F52" s="5"/>
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
@@ -9363,7 +9612,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="53" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:34" ht="17">
       <c r="F53" s="5"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
@@ -9378,7 +9627,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="54" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:34" ht="17">
       <c r="F54" s="5"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
@@ -9393,7 +9642,7 @@
         <v>115160</v>
       </c>
     </row>
-    <row r="55" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:34" ht="17">
       <c r="F55" s="5"/>
       <c r="AF55" s="10" t="s">
         <v>13</v>
@@ -9405,7 +9654,7 @@
         <v>153440</v>
       </c>
     </row>
-    <row r="56" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:34" ht="17">
       <c r="F56" s="5"/>
       <c r="AF56" s="10" t="s">
         <v>13</v>
@@ -9417,7 +9666,7 @@
         <v>75960</v>
       </c>
     </row>
-    <row r="57" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:34" ht="17">
       <c r="F57" s="5"/>
       <c r="AF57" s="10" t="s">
         <v>13</v>
@@ -9429,7 +9678,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="58" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:34" ht="17">
       <c r="F58" s="5"/>
       <c r="AF58" s="10" t="s">
         <v>13</v>
@@ -9441,7 +9690,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:34">
       <c r="AF59" s="10" t="s">
         <v>13</v>
       </c>
@@ -9452,7 +9701,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:34">
       <c r="AF60" s="10" t="s">
         <v>13</v>
       </c>
@@ -9463,7 +9712,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="61" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:34">
       <c r="AF61" s="10" t="s">
         <v>13</v>
       </c>
@@ -9474,7 +9723,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:34">
       <c r="AF62" s="10" t="s">
         <v>13</v>
       </c>
@@ -9485,7 +9734,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="63" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:34">
       <c r="AF63" s="10" t="s">
         <v>13</v>
       </c>
@@ -9496,7 +9745,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:34">
       <c r="AF64" s="11" t="s">
         <v>1</v>
       </c>
@@ -9507,96 +9756,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="17:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="17:34">
       <c r="AF65" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AG65" s="12"/>
       <c r="AH65" s="12"/>
     </row>
-    <row r="67" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="17:34" s="14" customFormat="1"/>
+    <row r="68" spans="17:34" s="14" customFormat="1">
       <c r="Q68" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="17:34" s="14" customFormat="1">
       <c r="Q69" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="17:34" s="14" customFormat="1">
       <c r="Q70" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="17:34" s="14" customFormat="1">
       <c r="Q71" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="17:34" s="14" customFormat="1"/>
+    <row r="73" spans="17:34" s="14" customFormat="1">
       <c r="Q73" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="17:34" s="14" customFormat="1">
       <c r="Q74" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="17:34" s="14" customFormat="1">
       <c r="Q75" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="17:34" s="14" customFormat="1">
       <c r="Q76" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="17:34" s="14" customFormat="1">
       <c r="Q77" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="17:34" s="14" customFormat="1">
       <c r="Q78" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="17:34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="47:47" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="79" spans="17:34" s="14" customFormat="1"/>
+    <row r="80" spans="17:34" s="14" customFormat="1"/>
+    <row r="81" spans="47:47" s="14" customFormat="1"/>
+    <row r="82" spans="47:47" s="14" customFormat="1"/>
+    <row r="83" spans="47:47" s="14" customFormat="1"/>
+    <row r="84" spans="47:47" s="14" customFormat="1"/>
+    <row r="85" spans="47:47" s="14" customFormat="1"/>
+    <row r="86" spans="47:47" s="14" customFormat="1"/>
+    <row r="87" spans="47:47" s="14" customFormat="1"/>
+    <row r="88" spans="47:47" s="14" customFormat="1"/>
+    <row r="89" spans="47:47" s="14" customFormat="1"/>
+    <row r="90" spans="47:47" s="14" customFormat="1"/>
+    <row r="91" spans="47:47" s="14" customFormat="1"/>
+    <row r="92" spans="47:47" s="14" customFormat="1"/>
+    <row r="93" spans="47:47" s="14" customFormat="1"/>
+    <row r="94" spans="47:47" s="14" customFormat="1" ht="20">
       <c r="AU94" s="16"/>
     </row>
-    <row r="95" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="47:47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="24:53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="95" spans="47:47" s="14" customFormat="1"/>
+    <row r="96" spans="47:47" s="14" customFormat="1"/>
+    <row r="97" spans="24:53" s="14" customFormat="1"/>
+    <row r="98" spans="24:53" s="14" customFormat="1"/>
+    <row r="99" spans="24:53" s="14" customFormat="1"/>
+    <row r="100" spans="24:53" s="14" customFormat="1"/>
+    <row r="101" spans="24:53" s="14" customFormat="1"/>
+    <row r="102" spans="24:53" s="14" customFormat="1"/>
+    <row r="103" spans="24:53" s="14" customFormat="1"/>
+    <row r="104" spans="24:53" s="14" customFormat="1"/>
+    <row r="105" spans="24:53" s="14" customFormat="1"/>
+    <row r="106" spans="24:53" s="14" customFormat="1"/>
+    <row r="107" spans="24:53">
       <c r="X107" s="14"/>
       <c r="Y107" s="14"/>
       <c r="Z107" s="14"/>
@@ -9627,7 +9876,7 @@
       <c r="AZ107" s="14"/>
       <c r="BA107" s="14"/>
     </row>
-    <row r="108" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="108" spans="24:53">
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
       <c r="Z108" s="14"/>
@@ -9659,7 +9908,7 @@
       <c r="AZ108" s="14"/>
       <c r="BA108" s="14"/>
     </row>
-    <row r="109" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="109" spans="24:53">
       <c r="X109" s="14"/>
       <c r="Y109" s="14"/>
       <c r="Z109" s="14"/>
@@ -9691,7 +9940,7 @@
       <c r="AZ109" s="14"/>
       <c r="BA109" s="14"/>
     </row>
-    <row r="110" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="110" spans="24:53">
       <c r="X110" s="14"/>
       <c r="Y110" s="14"/>
       <c r="Z110" s="14"/>
@@ -9723,7 +9972,7 @@
       <c r="AZ110" s="14"/>
       <c r="BA110" s="14"/>
     </row>
-    <row r="111" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="111" spans="24:53">
       <c r="X111" s="14"/>
       <c r="Y111" s="14"/>
       <c r="Z111" s="14"/>
@@ -9755,7 +10004,7 @@
       <c r="AZ111" s="14"/>
       <c r="BA111" s="14"/>
     </row>
-    <row r="112" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="112" spans="24:53">
       <c r="X112" s="14"/>
       <c r="Y112" s="14"/>
       <c r="Z112" s="14"/>
@@ -9787,7 +10036,7 @@
       <c r="AZ112" s="14"/>
       <c r="BA112" s="14"/>
     </row>
-    <row r="113" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="113" spans="24:53">
       <c r="X113" s="14"/>
       <c r="Y113" s="14"/>
       <c r="Z113" s="14"/>
@@ -9819,7 +10068,7 @@
       <c r="AZ113" s="14"/>
       <c r="BA113" s="14"/>
     </row>
-    <row r="114" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="114" spans="24:53">
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
       <c r="Z114" s="14"/>
@@ -9851,7 +10100,7 @@
       <c r="AZ114" s="14"/>
       <c r="BA114" s="14"/>
     </row>
-    <row r="115" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="115" spans="24:53">
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
       <c r="Z115" s="14"/>
@@ -9883,7 +10132,7 @@
       <c r="AZ115" s="14"/>
       <c r="BA115" s="14"/>
     </row>
-    <row r="116" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="116" spans="24:53">
       <c r="AP116" s="14"/>
       <c r="AQ116" s="14"/>
       <c r="AR116" s="14"/>
@@ -9897,7 +10146,7 @@
       <c r="AZ116" s="14"/>
       <c r="BA116" s="14"/>
     </row>
-    <row r="117" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="117" spans="24:53">
       <c r="AP117" s="14"/>
       <c r="AQ117" s="14"/>
       <c r="AR117" s="14"/>
@@ -9911,7 +10160,7 @@
       <c r="AZ117" s="14"/>
       <c r="BA117" s="14"/>
     </row>
-    <row r="118" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="118" spans="24:53">
       <c r="AP118" s="14"/>
       <c r="AQ118" s="14"/>
       <c r="AR118" s="14"/>
@@ -9945,7 +10194,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFF560-1C78-3B40-A3B1-29401C2FDA2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1269BC-988C-CB4B-912A-0D725BE0E11A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
-  <si>
-    <t>[R SYSTEM] CLOUD DESIGN DIAGRAM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>symbol</t>
   </si>
@@ -84,29 +81,38 @@
   <si>
     <t xml:space="preserve"> @17 with quantity 400, 800, 100, 100, 80 tier total 1480</t>
   </si>
+  <si>
+    <t>Potok key principles:</t>
+  </si>
+  <si>
+    <t>Transaction free persistence via fastest assynchronious IO Kafka</t>
+  </si>
+  <si>
+    <t>Concurrent non blocking calculations achived by Concurent in memory Data Structures, Queues, Atomics, CAS operations.</t>
+  </si>
+  <si>
+    <t>General information:</t>
+  </si>
+  <si>
+    <t>Potok is a real stock trading exchange application with a build in real time trade symulation and post trade validation.</t>
+  </si>
+  <si>
+    <t>Potok supports stock with respect to account balance and available long/short position.</t>
+  </si>
+  <si>
+    <t>As of now potok supports DAY, GTC, LIMIT orders only. Matching is taken from persited order (in BID/ASK container), not from the ncoming one.</t>
+  </si>
+  <si>
+    <t>Easy horizontal and vertical scalability. There are 2 dimensions for horizontal scalability account and symbol. Split line is Queue.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -186,6 +192,29 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -213,34 +242,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,8 +321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4513953" y="6718299"/>
-          <a:ext cx="3410847" cy="7536181"/>
+          <a:off x="4480691" y="7003747"/>
+          <a:ext cx="3384238" cy="7073538"/>
           <a:chOff x="3653175" y="6503810"/>
           <a:chExt cx="3388269" cy="7086903"/>
         </a:xfrm>
@@ -1149,587 +1184,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>550334</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>194733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>252589</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35970470-7B99-6C40-89CD-FD98F5050CAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="19828934" y="601133"/>
-          <a:ext cx="5874455" cy="1397000"/>
-          <a:chOff x="2730500" y="635000"/>
-          <a:chExt cx="5791200" cy="1397000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="237" name="Rectangle 236">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98267C00-73E8-1E45-BCAE-CEF834B8B02D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2730500" y="635000"/>
-            <a:ext cx="5791200" cy="1397000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Legend</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>REST or other integration protocol</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Replication</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Cloud cluster or embeded network              External system or service</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Logical group of microservices                       3rd party software.  </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Microservice</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="Group 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF9E6A6-60A1-CA47-89EB-54F5DE325922}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="5359400" y="1009650"/>
-            <a:ext cx="2882900" cy="933450"/>
-            <a:chOff x="5359400" y="1009650"/>
-            <a:chExt cx="2882900" cy="933450"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="235" name="Straight Arrow Connector 234">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8476D0A-A78F-AF48-984F-635A176ED904}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5359400" y="1009650"/>
-              <a:ext cx="863600" cy="6350"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="239" name="Straight Arrow Connector 238">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9152A9E-3B2E-C643-AA1B-5CE1C1DA523A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5359400" y="1257300"/>
-              <a:ext cx="1651000" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="244" name="Straight Arrow Connector 243">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031E56DB-C4D5-2B44-B64E-64EFC2AD996C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6299200" y="1028700"/>
-              <a:ext cx="800100" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="50800">
-              <a:prstDash val="sysDot"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="143" name="Rectangle 142">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94E9A8D-1805-B34B-85E1-FC63DB5AFB76}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5397501" y="1358900"/>
-              <a:ext cx="241300" cy="177800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="Rounded Rectangle 144">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7111EACC-B543-EC4E-97F1-7DEA6BE7CD72}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5384800" y="1612900"/>
-              <a:ext cx="279400" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="146" name="Rounded Rectangle 145">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8125D67-656F-7544-99CD-C2EE66A811D5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5372100" y="1803400"/>
-              <a:ext cx="266700" cy="139700"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 50000"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>#</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="150" name="Cloud 149">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211F3E6B-A148-AD40-A8FB-3A3BFB7524D8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7874000" y="1346200"/>
-              <a:ext cx="368300" cy="228600"/>
-            </a:xfrm>
-            <a:prstGeom prst="cloud">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>#</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="151" name="Rectangle 150">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8EAAAE-BC4F-DF40-8607-C557DC32AE2F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7924800" y="1600200"/>
-              <a:ext cx="241300" cy="177800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81653</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -1754,8 +1208,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9301853" y="6197600"/>
-          <a:ext cx="3410847" cy="3754120"/>
+          <a:off x="9228677" y="6516914"/>
+          <a:ext cx="3384237" cy="3483187"/>
           <a:chOff x="8407209" y="6016978"/>
           <a:chExt cx="3388269" cy="3482032"/>
         </a:xfrm>
@@ -2234,8 +1688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9276080" y="10629900"/>
-          <a:ext cx="3410847" cy="4127498"/>
+          <a:off x="9202904" y="10641390"/>
+          <a:ext cx="3384237" cy="3918856"/>
           <a:chOff x="8331200" y="15544800"/>
           <a:chExt cx="3360047" cy="3988451"/>
         </a:xfrm>
@@ -2473,7 +1927,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8694047" y="16611600"/>
+            <a:off x="8694047" y="16688537"/>
             <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -2532,7 +1986,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8782947" y="17805400"/>
+            <a:off x="8782947" y="17882337"/>
             <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -2591,7 +2045,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8719447" y="17208500"/>
+            <a:off x="8719447" y="17285438"/>
             <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -2650,7 +2104,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8801100" y="15989300"/>
+            <a:off x="8801100" y="16066238"/>
             <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -2709,8 +2163,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>306211</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>30238</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2725,10 +2179,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14156266" y="6146800"/>
-          <a:ext cx="5428545" cy="6413500"/>
+          <a:off x="14049828" y="6466114"/>
+          <a:ext cx="5381978" cy="7065434"/>
           <a:chOff x="12894733" y="5966178"/>
-          <a:chExt cx="5389034" cy="5973233"/>
+          <a:chExt cx="5389034" cy="7035590"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2745,7 +2199,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="12894733" y="5966178"/>
-            <a:ext cx="5389034" cy="5973233"/>
+            <a:ext cx="5389034" cy="7035590"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2839,6 +2293,226 @@
               <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Managers have</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> hybrid origin Synchronious and Assynchronious. They perform every other calculation/check/logic asided from order matching.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -3224,8 +2898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20463663" y="4330701"/>
-          <a:ext cx="10960099" cy="11124060"/>
+          <a:off x="20304006" y="4720168"/>
+          <a:ext cx="10871199" cy="10517483"/>
           <a:chOff x="16844551" y="9612295"/>
           <a:chExt cx="9220200" cy="9220200"/>
         </a:xfrm>
@@ -4510,15 +4184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>316469</xdr:colOff>
+      <xdr:colOff>318694</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>163859</xdr:rowOff>
+      <xdr:rowOff>166533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>314006</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>197957</xdr:rowOff>
+      <xdr:colOff>311970</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59895</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4536,8 +4210,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11837909" y="7763539"/>
-          <a:ext cx="4935297" cy="3844098"/>
+          <a:off x="11960361" y="8088914"/>
+          <a:ext cx="4982561" cy="3869671"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4570,15 +4244,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>405100</xdr:colOff>
+      <xdr:colOff>408234</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>110089</xdr:rowOff>
+      <xdr:rowOff>136994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>630153</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>131125</xdr:rowOff>
+      <xdr:colOff>630271</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>23340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4596,8 +4270,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11926540" y="11519769"/>
-          <a:ext cx="3516893" cy="1270716"/>
+          <a:off x="12049901" y="11824018"/>
+          <a:ext cx="3548227" cy="1307536"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4630,15 +4304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>341792</xdr:colOff>
+      <xdr:colOff>344277</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>110089</xdr:rowOff>
+      <xdr:rowOff>136994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>630153</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149301</xdr:rowOff>
+      <xdr:colOff>630271</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>26499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4656,8 +4330,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11863232" y="11519769"/>
-          <a:ext cx="3580201" cy="679292"/>
+          <a:off x="11985944" y="11824018"/>
+          <a:ext cx="3612184" cy="721052"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4690,15 +4364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>423198</xdr:colOff>
+      <xdr:colOff>426518</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>86258</xdr:rowOff>
+      <xdr:rowOff>111815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>596038</xdr:colOff>
+      <xdr:colOff>595771</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>8086</xdr:rowOff>
+      <xdr:rowOff>83454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4716,8 +4390,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11944638" y="10855858"/>
-          <a:ext cx="3464680" cy="135188"/>
+          <a:off x="12068185" y="11163839"/>
+          <a:ext cx="3495443" cy="183305"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4750,15 +4424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>316469</xdr:colOff>
+      <xdr:colOff>318694</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>110089</xdr:rowOff>
+      <xdr:rowOff>136994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>630153</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>197957</xdr:rowOff>
+      <xdr:colOff>630271</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59895</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4776,8 +4450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11837909" y="11519769"/>
-          <a:ext cx="3605524" cy="87868"/>
+          <a:off x="11960361" y="11824018"/>
+          <a:ext cx="3637767" cy="134567"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4833,8 +4507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9549054" y="19335045"/>
-          <a:ext cx="2421403" cy="3407857"/>
+          <a:off x="9475878" y="18991540"/>
+          <a:ext cx="2401446" cy="3304443"/>
           <a:chOff x="6914835" y="2298700"/>
           <a:chExt cx="2381566" cy="3407641"/>
         </a:xfrm>
@@ -5077,8 +4751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4632677" y="19299767"/>
-          <a:ext cx="2514600" cy="2448660"/>
+          <a:off x="4599415" y="18956262"/>
+          <a:ext cx="2494643" cy="2378508"/>
           <a:chOff x="4292600" y="18211800"/>
           <a:chExt cx="2476500" cy="2449465"/>
         </a:xfrm>
@@ -5303,13 +4977,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>145344</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
+      <xdr:rowOff>119942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>183444</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>196546</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5324,10 +4998,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32301744" y="4387144"/>
-          <a:ext cx="2851856" cy="2374900"/>
-          <a:chOff x="8336654" y="12268200"/>
-          <a:chExt cx="2806700" cy="2336800"/>
+          <a:off x="32046534" y="4776609"/>
+          <a:ext cx="2831899" cy="3553985"/>
+          <a:chOff x="8336654" y="12268199"/>
+          <a:chExt cx="2806700" cy="3657150"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5343,8 +5017,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8336654" y="12268200"/>
-            <a:ext cx="2806700" cy="2336800"/>
+            <a:off x="8336654" y="12268199"/>
+            <a:ext cx="2806700" cy="3657150"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -5413,7 +5087,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>RANDOM BEHAVIOR</a:t>
+              <a:t>SYMULATOR</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -5473,7 +5147,51 @@
           </a:p>
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Multythreaded exchange behavior symulator. Symulates clients activities.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Use gaussian random price distributio.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Supports</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> various speed conditions.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5497,7 +5215,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8712200" y="13157200"/>
+            <a:off x="8712200" y="12908274"/>
             <a:ext cx="2062853" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -5569,7 +5287,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8724900" y="13868400"/>
+            <a:off x="8724900" y="13619474"/>
             <a:ext cx="2062853" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -5622,14 +5340,14 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>8464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>90310</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>136069</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5644,10 +5362,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32308800" y="12225867"/>
-          <a:ext cx="2844800" cy="2342443"/>
-          <a:chOff x="30485644" y="12200467"/>
-          <a:chExt cx="2827867" cy="2269066"/>
+          <a:off x="32053590" y="12330488"/>
+          <a:ext cx="2824843" cy="3272367"/>
+          <a:chOff x="30485644" y="12200466"/>
+          <a:chExt cx="2827867" cy="3286969"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5663,8 +5381,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="30485644" y="12200467"/>
-            <a:ext cx="2827867" cy="2269066"/>
+            <a:off x="30485644" y="12200466"/>
+            <a:ext cx="2827867" cy="3286969"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -5733,7 +5451,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>SHUT DOWN HOOK</a:t>
+              <a:t>VALIDATOR</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -5770,8 +5488,8 @@
             </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5782,7 +5500,7 @@
           </a:p>
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:endParaRPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5793,7 +5511,29 @@
           </a:p>
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Post trade session one threaded</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> validation in shut down hook. Validates that all accounts orders and executions and positions are in consitence. Generates intraday statistics.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5817,7 +5557,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="30861892" y="13063473"/>
+            <a:off x="30861892" y="12744557"/>
             <a:ext cx="2082630" cy="382300"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -5876,7 +5616,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="30874615" y="13754397"/>
+            <a:off x="30874615" y="13435481"/>
             <a:ext cx="2082630" cy="382299"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -5930,13 +5670,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>199672</xdr:rowOff>
+      <xdr:rowOff>199665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>175683</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>105831</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5951,10 +5691,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32308800" y="8835672"/>
-          <a:ext cx="2844800" cy="1322211"/>
-          <a:chOff x="31267400" y="8235244"/>
-          <a:chExt cx="2827867" cy="1231900"/>
+          <a:off x="32053590" y="8968713"/>
+          <a:ext cx="2824843" cy="2612475"/>
+          <a:chOff x="31267400" y="8235242"/>
+          <a:chExt cx="2827867" cy="2614616"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5970,8 +5710,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="31267400" y="8235244"/>
-            <a:ext cx="2827867" cy="1231900"/>
+            <a:off x="31267400" y="8235242"/>
+            <a:ext cx="2827867" cy="2614616"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -6066,8 +5806,30 @@
             </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Intiates</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> exchanges BID/ASK container, Accounts and rest in memory data structures with relevant consistent values. In future to be replaced withinitiation from depositary </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6124,7 +5886,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="31669095" y="8844679"/>
+            <a:off x="31669095" y="8738759"/>
             <a:ext cx="2082630" cy="384570"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -6176,13 +5938,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>44201</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>122969</xdr:rowOff>
+      <xdr:colOff>43783</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>20207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>121139</xdr:colOff>
+      <xdr:colOff>119560</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>183445</xdr:rowOff>
     </xdr:to>
@@ -6202,8 +5964,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10742681" y="12985529"/>
-          <a:ext cx="76938" cy="5953276"/>
+          <a:off x="10853902" y="13324969"/>
+          <a:ext cx="75777" cy="5666571"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6256,8 +6018,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4487334" y="3889022"/>
-          <a:ext cx="16659577" cy="1689101"/>
+          <a:off x="4454072" y="4291793"/>
+          <a:ext cx="16526529" cy="1635882"/>
           <a:chOff x="5080000" y="2963333"/>
           <a:chExt cx="16546688" cy="1643945"/>
         </a:xfrm>
@@ -7422,15 +7184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>423274</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>71527</xdr:rowOff>
+      <xdr:colOff>474074</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175837</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>72888</xdr:rowOff>
+      <xdr:colOff>226637</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47488</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7445,8 +7207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="423274" y="8707527"/>
-          <a:ext cx="2267163" cy="2439761"/>
+          <a:off x="474074" y="7608675"/>
+          <a:ext cx="2247206" cy="2266194"/>
           <a:chOff x="208019" y="9388510"/>
           <a:chExt cx="2212770" cy="2377138"/>
         </a:xfrm>
@@ -8116,6 +7878,770 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>226637</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>192858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>802806</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>209069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Arrow Connector 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A02B88-451B-4A4C-A535-F754F8319BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="496" idx="3"/>
+          <a:endCxn id="169" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2741237" y="9057458"/>
+          <a:ext cx="2252569" cy="16211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>478367</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130024</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="124" name="Group 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F16429-9B31-A74F-A4A8-B7629F6D2B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13622262" y="680357"/>
+          <a:ext cx="10744200" cy="2730500"/>
+          <a:chOff x="7416800" y="825500"/>
+          <a:chExt cx="10744200" cy="2730500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="Rectangle 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4154B796-B707-1643-B865-775F2E833820}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7416800" y="825500"/>
+            <a:ext cx="10744200" cy="2730500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Legend</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Direct reference internal.                                  Module package                                     Class/service </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Conucrrent Queue internal                               In memory data structure</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>External in cloud reference                               External component</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Potok ws external connection                          Potok boundaries</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="126" name="Group 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF6239D-7BD0-6A4F-BFA8-2061A98D2368}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9626600" y="1257300"/>
+            <a:ext cx="1025151" cy="749300"/>
+            <a:chOff x="9626600" y="1257300"/>
+            <a:chExt cx="1025151" cy="749300"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECDC9EA-9288-2F49-80AD-3B860AF094FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9626600" y="1257300"/>
+              <a:ext cx="1025151" cy="1076"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:prstDash val="sysDot"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4801EB1B-B7C9-0644-B47D-D37EDD029155}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9774859" y="1485900"/>
+              <a:ext cx="867741" cy="3917"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48799B7-B2B0-3141-B344-D6DDDBA42CD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9776749" y="1752600"/>
+              <a:ext cx="865851" cy="4692"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="50800">
+              <a:prstDash val="sysDot"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="136" name="Straight Arrow Connector 135">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2588D54D-3F90-D04A-9243-9DE6E6C26B2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10033000" y="2006600"/>
+              <a:ext cx="584200" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="127" name="Group 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16113A0F-C460-FF4D-9145-B9F3AB427B5B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13431337" y="1168400"/>
+            <a:ext cx="403516" cy="901900"/>
+            <a:chOff x="13431337" y="1168400"/>
+            <a:chExt cx="403516" cy="901900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="129" name="Rectangle 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A65C566-0E4A-8349-BF17-9552A92D0296}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13446919" y="1168400"/>
+              <a:ext cx="242007" cy="174184"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="bg1"/>
+                </a:gs>
+                <a:gs pos="37000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:glow rad="228600">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="130" name="Rounded Rectangle 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AF0BDB-45CD-2D4B-AF23-AF065E93C78C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13462000" y="1921000"/>
+              <a:ext cx="280218" cy="149300"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:srgbClr val="00B050">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr lang="en-US" sz="3200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="131" name="Rectangle 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265B21B5-5BB9-B049-A885-6BC7FBCC60F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13431337" y="1679959"/>
+              <a:ext cx="242007" cy="174184"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="37000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="132" name="Magnetic Disk 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B017D6-AE59-2045-916C-B558EEBC73FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13437205" y="1430193"/>
+              <a:ext cx="397648" cy="151190"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartMagneticDisk">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="228600">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="Rounded Rectangle 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088D29CB-DFD8-8549-9298-2515219F2121}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="15364420" y="1181100"/>
+            <a:ext cx="472479" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8147,7 +8673,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3302000" y="7924800"/>
+          <a:off x="3327400" y="7924800"/>
           <a:ext cx="2476500" cy="2336800"/>
           <a:chOff x="4292600" y="18211800"/>
           <a:chExt cx="2476500" cy="2336800"/>
@@ -8385,7 +8911,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7429500" y="7518400"/>
+          <a:off x="7454900" y="7518400"/>
           <a:ext cx="2267848" cy="3632200"/>
           <a:chOff x="7028553" y="2298700"/>
           <a:chExt cx="2267848" cy="3632200"/>
@@ -8797,6 +9323,710 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DD0467-14A4-A049-9972-F30EB711C9FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7416800" y="825500"/>
+          <a:ext cx="10744200" cy="2730500"/>
+          <a:chOff x="7416800" y="825500"/>
+          <a:chExt cx="10744200" cy="2730500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0D20BF-8DB8-5B43-8AC1-9E866E21B1C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7416800" y="825500"/>
+            <a:ext cx="10744200" cy="2730500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Legend</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Direct reference internal.                                  Module package                                     Class/service </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Conucrrent Queue internal                               In memory data structure</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>External in cloud reference                               External component</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Potok ws external connection                          Potok boundaries</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="36" name="Group 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE3DD64-49C8-1141-9EC3-611B28AA9777}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9626600" y="1257300"/>
+            <a:ext cx="1025151" cy="749300"/>
+            <a:chOff x="9626600" y="1257300"/>
+            <a:chExt cx="1025151" cy="749300"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358DA170-A732-F847-8AC7-213D2341E60A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9626600" y="1257300"/>
+              <a:ext cx="1025151" cy="1076"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:prstDash val="sysDot"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F238C8E-955F-F04D-A251-027FDFA32935}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9774859" y="1485900"/>
+              <a:ext cx="867741" cy="3917"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3F42AF-3D36-404B-9D9C-4563A0B20916}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9776749" y="1752600"/>
+              <a:ext cx="865851" cy="4692"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="50800">
+              <a:prstDash val="sysDot"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1831F6AB-97BC-384F-A13A-B119E9EA682C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10033000" y="2006600"/>
+              <a:ext cx="584200" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="37" name="Group 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2671E30C-8F33-F94F-8B1F-B8991FC94693}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13431337" y="1168400"/>
+            <a:ext cx="403516" cy="901900"/>
+            <a:chOff x="13431337" y="1168400"/>
+            <a:chExt cx="403516" cy="901900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Rectangle 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2EAD9B-C362-D04D-8D39-CE930A01C0EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13446919" y="1168400"/>
+              <a:ext cx="242007" cy="174184"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="bg1"/>
+                </a:gs>
+                <a:gs pos="37000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:glow rad="228600">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Rounded Rectangle 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BACC33-BA03-1D43-82AF-0EA38CD4B08A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13462000" y="1921000"/>
+              <a:ext cx="280218" cy="149300"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:srgbClr val="00B050">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr lang="en-US" sz="3200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Rectangle 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF207838-520B-1F4D-A17C-0FCE2A2F4C4C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13431337" y="1679959"/>
+              <a:ext cx="242007" cy="174184"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="37000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Magnetic Disk 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7458DF-8C19-1042-A8D9-37B309E80897}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13437205" y="1430193"/>
+              <a:ext cx="397648" cy="151190"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartMagneticDisk">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="228600">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rounded Rectangle 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2326A89F-2C69-C741-ABE7-5B43854DD48C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="15364420" y="1181100"/>
+            <a:ext cx="472479" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9101,1078 +10331,1053 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
   <dimension ref="A1:BA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="AT61" sqref="AT61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="10.83203125" style="4"/>
-    <col min="28" max="28" width="8" style="4" customWidth="1"/>
-    <col min="29" max="30" width="10.83203125" style="4"/>
-    <col min="31" max="31" width="7" style="4" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="27" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="8" style="1" customWidth="1"/>
+    <col min="29" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="7" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="27" spans="6:37" x14ac:dyDescent="0.2">
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+    </row>
+    <row r="28" spans="6:37" x14ac:dyDescent="0.2">
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+    </row>
+    <row r="29" spans="6:37" x14ac:dyDescent="0.2">
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+    </row>
+    <row r="30" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+    </row>
+    <row r="31" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+    </row>
+    <row r="32" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+    </row>
+    <row r="33" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+    </row>
+    <row r="34" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="AC34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="AC35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="16" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="16" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="16" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" ht="16" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="27" spans="6:37">
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-    </row>
-    <row r="28" spans="6:37">
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-    </row>
-    <row r="29" spans="6:37">
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-    </row>
-    <row r="30" spans="6:37" ht="17">
-      <c r="F30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-    </row>
-    <row r="31" spans="6:37" ht="17">
-      <c r="F31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-    </row>
-    <row r="32" spans="6:37" ht="17">
-      <c r="F32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-    </row>
-    <row r="33" spans="6:37" ht="17">
-      <c r="F33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-    </row>
-    <row r="34" spans="6:37" ht="17">
-      <c r="F34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="AC34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-    </row>
-    <row r="35" spans="6:37" ht="17">
-      <c r="F35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="AC35" s="7" t="s">
+      <c r="AD35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AD35" s="7" t="s">
+      <c r="AE35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AE35" s="7" t="s">
-        <v>3</v>
+    </row>
+    <row r="36" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F36" s="2"/>
+      <c r="AC36" s="5" t="s">
+        <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="6:37" ht="17">
-      <c r="F36" s="5"/>
-      <c r="AC36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD36" s="8">
+      <c r="AD36" s="5">
         <v>72</v>
       </c>
-      <c r="AE36" s="8">
+      <c r="AE36" s="5">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="6:37" ht="17">
-      <c r="F37" s="5"/>
-      <c r="AC37" s="8" t="s">
-        <v>13</v>
+    <row r="37" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F37" s="2"/>
+      <c r="AC37" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD37" s="8">
+      <c r="AD37" s="5">
         <v>71</v>
       </c>
-      <c r="AE37" s="8">
+      <c r="AE37" s="5">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="6:37" ht="17">
-      <c r="F38" s="5"/>
-      <c r="AC38" s="8" t="s">
-        <v>13</v>
+    <row r="38" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+      <c r="AC38" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD38" s="8">
+      <c r="AD38" s="5">
         <v>68</v>
       </c>
-      <c r="AE38" s="8">
+      <c r="AE38" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="6:37" ht="17">
-      <c r="F39" s="5"/>
-      <c r="AC39" s="8" t="s">
-        <v>13</v>
+    <row r="39" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F39" s="2"/>
+      <c r="AC39" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD39" s="8">
+      <c r="AD39" s="5">
         <v>64</v>
       </c>
-      <c r="AE39" s="8">
+      <c r="AE39" s="5">
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="6:37" ht="17">
-      <c r="F40" s="5"/>
-      <c r="AC40" s="8" t="s">
-        <v>13</v>
+    <row r="40" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F40" s="2"/>
+      <c r="AC40" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD40" s="8">
+      <c r="AD40" s="5">
         <v>51</v>
       </c>
-      <c r="AE40" s="8">
+      <c r="AE40" s="5">
         <v>9100</v>
       </c>
     </row>
-    <row r="41" spans="6:37" ht="17">
-      <c r="F41" s="5"/>
-      <c r="AC41" s="8" t="s">
-        <v>13</v>
+    <row r="41" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+      <c r="AC41" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD41" s="8">
+      <c r="AD41" s="5">
         <v>50</v>
       </c>
-      <c r="AE41" s="8">
+      <c r="AE41" s="5">
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="6:37" ht="17">
-      <c r="F42" s="5"/>
-      <c r="AC42" s="8" t="s">
-        <v>13</v>
+    <row r="42" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F42" s="2"/>
+      <c r="AC42" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD42" s="8">
+      <c r="AD42" s="5">
         <v>46</v>
       </c>
-      <c r="AE42" s="8">
+      <c r="AE42" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="6:37" ht="17">
-      <c r="F43" s="5"/>
-      <c r="AC43" s="8" t="s">
-        <v>13</v>
+    <row r="43" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F43" s="2"/>
+      <c r="AC43" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD43" s="8">
+      <c r="AD43" s="5">
         <v>40</v>
       </c>
-      <c r="AE43" s="8">
+      <c r="AE43" s="5">
         <v>7670</v>
       </c>
     </row>
-    <row r="44" spans="6:37" ht="17">
-      <c r="F44" s="5"/>
-      <c r="AC44" s="8" t="s">
-        <v>13</v>
+    <row r="44" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F44" s="2"/>
+      <c r="AC44" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD44" s="8">
+      <c r="AD44" s="5">
         <v>36</v>
       </c>
-      <c r="AE44" s="8">
+      <c r="AE44" s="5">
         <v>2420</v>
       </c>
     </row>
-    <row r="45" spans="6:37" ht="17">
-      <c r="F45" s="5"/>
-      <c r="AC45" s="8" t="s">
-        <v>13</v>
+    <row r="45" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F45" s="2"/>
+      <c r="AC45" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD45" s="8">
+      <c r="AD45" s="5">
         <v>33</v>
       </c>
-      <c r="AE45" s="8">
+      <c r="AE45" s="5">
         <v>780</v>
       </c>
     </row>
-    <row r="46" spans="6:37" ht="17">
-      <c r="F46" s="5"/>
-      <c r="AC46" s="8" t="s">
-        <v>13</v>
+    <row r="46" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="F46" s="2"/>
+      <c r="AC46" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD46" s="8">
+      <c r="AD46" s="5">
         <v>25</v>
       </c>
-      <c r="AE46" s="8">
+      <c r="AE46" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="6:37">
-      <c r="AC47" s="8" t="s">
-        <v>13</v>
+    <row r="47" spans="6:37" x14ac:dyDescent="0.2">
+      <c r="AC47" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD47" s="8">
+      <c r="AD47" s="5">
         <v>22</v>
       </c>
-      <c r="AE47" s="8">
+      <c r="AE47" s="5">
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="6:37">
-      <c r="AC48" s="8" t="s">
-        <v>13</v>
+    <row r="48" spans="6:37" x14ac:dyDescent="0.2">
+      <c r="AC48" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD48" s="8">
+      <c r="AD48" s="5">
         <v>17</v>
       </c>
-      <c r="AE48" s="8">
+      <c r="AE48" s="5">
         <v>1480</v>
       </c>
     </row>
-    <row r="49" spans="6:34">
-      <c r="AC49" s="8" t="s">
-        <v>13</v>
+    <row r="49" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AC49" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="AD49" s="8">
+      <c r="AD49" s="5">
         <v>16</v>
       </c>
-      <c r="AE49" s="8">
+      <c r="AE49" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="6:34" ht="17">
-      <c r="F50" s="5"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="10" t="s">
-        <v>13</v>
+    <row r="50" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG50" s="10">
+      <c r="AG50" s="7">
         <v>15</v>
       </c>
-      <c r="AH50" s="10">
+      <c r="AH50" s="7">
         <v>760</v>
       </c>
     </row>
-    <row r="51" spans="6:34" ht="17">
-      <c r="F51" s="5"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="10" t="s">
-        <v>13</v>
+    <row r="51" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG51" s="10">
+      <c r="AG51" s="7">
         <v>14</v>
       </c>
-      <c r="AH51" s="10">
+      <c r="AH51" s="7">
         <v>3090</v>
       </c>
     </row>
-    <row r="52" spans="6:34" ht="17">
-      <c r="F52" s="5"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="10" t="s">
+    <row r="52" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG52" s="7">
         <v>13</v>
       </c>
-      <c r="AG52" s="10">
-        <v>13</v>
-      </c>
-      <c r="AH52" s="10">
+      <c r="AH52" s="7">
         <v>1440</v>
       </c>
     </row>
-    <row r="53" spans="6:34" ht="17">
-      <c r="F53" s="5"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG53" s="10">
+    <row r="53" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F53" s="2"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AH53" s="10">
+      <c r="AG53" s="7">
+        <v>12</v>
+      </c>
+      <c r="AH53" s="7">
         <v>10320</v>
       </c>
     </row>
-    <row r="54" spans="6:34" ht="17">
-      <c r="F54" s="5"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="10" t="s">
-        <v>13</v>
+    <row r="54" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F54" s="2"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG54" s="10">
+      <c r="AG54" s="7">
         <v>11</v>
       </c>
-      <c r="AH54" s="10">
+      <c r="AH54" s="7">
         <v>115160</v>
       </c>
     </row>
-    <row r="55" spans="6:34" ht="17">
-      <c r="F55" s="5"/>
-      <c r="AF55" s="10" t="s">
-        <v>13</v>
+    <row r="55" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F55" s="2"/>
+      <c r="AF55" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG55" s="10">
+      <c r="AG55" s="7">
         <v>10</v>
       </c>
-      <c r="AH55" s="10">
+      <c r="AH55" s="7">
         <v>153440</v>
       </c>
     </row>
-    <row r="56" spans="6:34" ht="17">
-      <c r="F56" s="5"/>
-      <c r="AF56" s="10" t="s">
-        <v>13</v>
+    <row r="56" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F56" s="2"/>
+      <c r="AF56" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG56" s="10">
+      <c r="AG56" s="7">
         <v>9</v>
       </c>
-      <c r="AH56" s="10">
+      <c r="AH56" s="7">
         <v>75960</v>
       </c>
     </row>
-    <row r="57" spans="6:34" ht="17">
-      <c r="F57" s="5"/>
-      <c r="AF57" s="10" t="s">
-        <v>13</v>
+    <row r="57" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F57" s="2"/>
+      <c r="AF57" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG57" s="10">
+      <c r="AG57" s="7">
         <v>8</v>
       </c>
-      <c r="AH57" s="10">
+      <c r="AH57" s="7">
         <v>15300</v>
       </c>
     </row>
-    <row r="58" spans="6:34" ht="17">
-      <c r="F58" s="5"/>
-      <c r="AF58" s="10" t="s">
-        <v>13</v>
+    <row r="58" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+      <c r="F58" s="2"/>
+      <c r="AF58" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG58" s="10">
+      <c r="AG58" s="7">
         <v>7</v>
       </c>
-      <c r="AH58" s="10">
+      <c r="AH58" s="7">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="6:34">
-      <c r="AF59" s="10" t="s">
-        <v>13</v>
+    <row r="59" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF59" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG59" s="10">
+      <c r="AG59" s="7">
         <v>6</v>
       </c>
-      <c r="AH59" s="10">
+      <c r="AH59" s="7">
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="6:34">
-      <c r="AF60" s="10" t="s">
-        <v>13</v>
+    <row r="60" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF60" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG60" s="10">
+      <c r="AG60" s="7">
         <v>5</v>
       </c>
-      <c r="AH60" s="10">
+      <c r="AH60" s="7">
         <v>920</v>
       </c>
     </row>
-    <row r="61" spans="6:34">
-      <c r="AF61" s="10" t="s">
-        <v>13</v>
+    <row r="61" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF61" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG61" s="10">
+      <c r="AG61" s="7">
         <v>4</v>
       </c>
-      <c r="AH61" s="10">
+      <c r="AH61" s="7">
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="6:34">
-      <c r="AF62" s="10" t="s">
-        <v>13</v>
+    <row r="62" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF62" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG62" s="10">
+      <c r="AG62" s="7">
         <v>3</v>
       </c>
-      <c r="AH62" s="10">
+      <c r="AH62" s="7">
         <v>1040</v>
       </c>
     </row>
-    <row r="63" spans="6:34">
-      <c r="AF63" s="10" t="s">
-        <v>13</v>
+    <row r="63" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF63" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="AG63" s="10">
+      <c r="AG63" s="7">
         <v>2</v>
       </c>
-      <c r="AH63" s="10">
+      <c r="AH63" s="7">
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="6:34">
-      <c r="AF64" s="11" t="s">
+    <row r="64" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AF64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AG64" s="11" t="s">
+      <c r="AH64" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AH64" s="11" t="s">
-        <v>3</v>
+    </row>
+    <row r="65" spans="17:34" x14ac:dyDescent="0.2">
+      <c r="AF65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+    </row>
+    <row r="67" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="65" spans="17:34">
-      <c r="AF65" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-    </row>
-    <row r="67" spans="17:34" s="14" customFormat="1"/>
-    <row r="68" spans="17:34" s="14" customFormat="1">
-      <c r="Q68" s="14" t="s">
+    <row r="69" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="17:34" s="14" customFormat="1">
-      <c r="Q69" s="14" t="s">
+    <row r="70" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="17:34" s="14" customFormat="1">
-      <c r="Q70" s="14" t="s">
-        <v>9</v>
+    <row r="71" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="71" spans="17:34" s="14" customFormat="1">
-      <c r="Q71" s="14" t="s">
+    <row r="72" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="17:34" s="14" customFormat="1"/>
-    <row r="73" spans="17:34" s="14" customFormat="1">
-      <c r="Q73" s="14" t="s">
-        <v>12</v>
+    <row r="74" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="74" spans="17:34" s="14" customFormat="1">
-      <c r="Q74" s="14" t="s">
+    <row r="75" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q75" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="17:34" s="14" customFormat="1">
-      <c r="Q75" s="14" t="s">
+    <row r="76" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="17:34" s="14" customFormat="1">
-      <c r="Q76" s="14" t="s">
+    <row r="77" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q77" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="17:34" s="14" customFormat="1">
-      <c r="Q77" s="14" t="s">
+    <row r="78" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q78" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="17:34" s="14" customFormat="1">
-      <c r="Q78" s="14" t="s">
-        <v>18</v>
-      </c>
+    <row r="79" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="47:47" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="AU94" s="12"/>
     </row>
-    <row r="79" spans="17:34" s="14" customFormat="1"/>
-    <row r="80" spans="17:34" s="14" customFormat="1"/>
-    <row r="81" spans="47:47" s="14" customFormat="1"/>
-    <row r="82" spans="47:47" s="14" customFormat="1"/>
-    <row r="83" spans="47:47" s="14" customFormat="1"/>
-    <row r="84" spans="47:47" s="14" customFormat="1"/>
-    <row r="85" spans="47:47" s="14" customFormat="1"/>
-    <row r="86" spans="47:47" s="14" customFormat="1"/>
-    <row r="87" spans="47:47" s="14" customFormat="1"/>
-    <row r="88" spans="47:47" s="14" customFormat="1"/>
-    <row r="89" spans="47:47" s="14" customFormat="1"/>
-    <row r="90" spans="47:47" s="14" customFormat="1"/>
-    <row r="91" spans="47:47" s="14" customFormat="1"/>
-    <row r="92" spans="47:47" s="14" customFormat="1"/>
-    <row r="93" spans="47:47" s="14" customFormat="1"/>
-    <row r="94" spans="47:47" s="14" customFormat="1" ht="20">
-      <c r="AU94" s="16"/>
+    <row r="95" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X107" s="11"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="11"/>
+      <c r="AA107" s="11"/>
+      <c r="AB107" s="11"/>
+      <c r="AC107" s="11"/>
+      <c r="AD107" s="11"/>
+      <c r="AE107" s="11"/>
+      <c r="AG107" s="11"/>
+      <c r="AH107" s="11"/>
+      <c r="AI107" s="11"/>
+      <c r="AJ107" s="11"/>
+      <c r="AK107" s="11"/>
+      <c r="AL107" s="11"/>
+      <c r="AM107" s="11"/>
+      <c r="AN107" s="11"/>
+      <c r="AO107" s="11"/>
+      <c r="AP107" s="11"/>
+      <c r="AQ107" s="11"/>
+      <c r="AR107" s="11"/>
+      <c r="AS107" s="11"/>
+      <c r="AT107" s="11"/>
+      <c r="AU107" s="11"/>
+      <c r="AV107" s="11"/>
+      <c r="AW107" s="11"/>
+      <c r="AX107" s="11"/>
+      <c r="AY107" s="11"/>
+      <c r="AZ107" s="11"/>
+      <c r="BA107" s="11"/>
     </row>
-    <row r="95" spans="47:47" s="14" customFormat="1"/>
-    <row r="96" spans="47:47" s="14" customFormat="1"/>
-    <row r="97" spans="24:53" s="14" customFormat="1"/>
-    <row r="98" spans="24:53" s="14" customFormat="1"/>
-    <row r="99" spans="24:53" s="14" customFormat="1"/>
-    <row r="100" spans="24:53" s="14" customFormat="1"/>
-    <row r="101" spans="24:53" s="14" customFormat="1"/>
-    <row r="102" spans="24:53" s="14" customFormat="1"/>
-    <row r="103" spans="24:53" s="14" customFormat="1"/>
-    <row r="104" spans="24:53" s="14" customFormat="1"/>
-    <row r="105" spans="24:53" s="14" customFormat="1"/>
-    <row r="106" spans="24:53" s="14" customFormat="1"/>
-    <row r="107" spans="24:53">
-      <c r="X107" s="14"/>
-      <c r="Y107" s="14"/>
-      <c r="Z107" s="14"/>
-      <c r="AA107" s="14"/>
-      <c r="AB107" s="14"/>
-      <c r="AC107" s="14"/>
-      <c r="AD107" s="14"/>
-      <c r="AE107" s="14"/>
-      <c r="AG107" s="14"/>
-      <c r="AH107" s="14"/>
-      <c r="AI107" s="14"/>
-      <c r="AJ107" s="14"/>
-      <c r="AK107" s="14"/>
-      <c r="AL107" s="14"/>
-      <c r="AM107" s="14"/>
-      <c r="AN107" s="14"/>
-      <c r="AO107" s="14"/>
-      <c r="AP107" s="14"/>
-      <c r="AQ107" s="14"/>
-      <c r="AR107" s="14"/>
-      <c r="AS107" s="14"/>
-      <c r="AT107" s="14"/>
-      <c r="AU107" s="14"/>
-      <c r="AV107" s="14"/>
-      <c r="AW107" s="14"/>
-      <c r="AX107" s="14"/>
-      <c r="AY107" s="14"/>
-      <c r="AZ107" s="14"/>
-      <c r="BA107" s="14"/>
+    <row r="108" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="11"/>
+      <c r="AA108" s="11"/>
+      <c r="AB108" s="11"/>
+      <c r="AC108" s="11"/>
+      <c r="AD108" s="11"/>
+      <c r="AE108" s="11"/>
+      <c r="AF108" s="11"/>
+      <c r="AG108" s="11"/>
+      <c r="AH108" s="11"/>
+      <c r="AI108" s="11"/>
+      <c r="AJ108" s="11"/>
+      <c r="AK108" s="11"/>
+      <c r="AL108" s="11"/>
+      <c r="AM108" s="11"/>
+      <c r="AN108" s="11"/>
+      <c r="AO108" s="11"/>
+      <c r="AP108" s="11"/>
+      <c r="AQ108" s="11"/>
+      <c r="AR108" s="11"/>
+      <c r="AS108" s="11"/>
+      <c r="AT108" s="11"/>
+      <c r="AU108" s="11"/>
+      <c r="AV108" s="11"/>
+      <c r="AW108" s="11"/>
+      <c r="AX108" s="11"/>
+      <c r="AY108" s="11"/>
+      <c r="AZ108" s="11"/>
+      <c r="BA108" s="11"/>
     </row>
-    <row r="108" spans="24:53">
-      <c r="X108" s="14"/>
-      <c r="Y108" s="14"/>
-      <c r="Z108" s="14"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="14"/>
-      <c r="AC108" s="14"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="14"/>
-      <c r="AF108" s="14"/>
-      <c r="AG108" s="14"/>
-      <c r="AH108" s="14"/>
-      <c r="AI108" s="14"/>
-      <c r="AJ108" s="14"/>
-      <c r="AK108" s="14"/>
-      <c r="AL108" s="14"/>
-      <c r="AM108" s="14"/>
-      <c r="AN108" s="14"/>
-      <c r="AO108" s="14"/>
-      <c r="AP108" s="14"/>
-      <c r="AQ108" s="14"/>
-      <c r="AR108" s="14"/>
-      <c r="AS108" s="14"/>
-      <c r="AT108" s="14"/>
-      <c r="AU108" s="14"/>
-      <c r="AV108" s="14"/>
-      <c r="AW108" s="14"/>
-      <c r="AX108" s="14"/>
-      <c r="AY108" s="14"/>
-      <c r="AZ108" s="14"/>
-      <c r="BA108" s="14"/>
+    <row r="109" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X109" s="11"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="11"/>
+      <c r="AA109" s="11"/>
+      <c r="AB109" s="11"/>
+      <c r="AC109" s="11"/>
+      <c r="AD109" s="11"/>
+      <c r="AE109" s="11"/>
+      <c r="AF109" s="11"/>
+      <c r="AG109" s="11"/>
+      <c r="AH109" s="11"/>
+      <c r="AI109" s="11"/>
+      <c r="AJ109" s="11"/>
+      <c r="AK109" s="11"/>
+      <c r="AL109" s="11"/>
+      <c r="AM109" s="11"/>
+      <c r="AN109" s="11"/>
+      <c r="AO109" s="11"/>
+      <c r="AP109" s="11"/>
+      <c r="AQ109" s="11"/>
+      <c r="AR109" s="11"/>
+      <c r="AS109" s="11"/>
+      <c r="AT109" s="11"/>
+      <c r="AU109" s="11"/>
+      <c r="AV109" s="11"/>
+      <c r="AW109" s="11"/>
+      <c r="AX109" s="11"/>
+      <c r="AY109" s="11"/>
+      <c r="AZ109" s="11"/>
+      <c r="BA109" s="11"/>
     </row>
-    <row r="109" spans="24:53">
-      <c r="X109" s="14"/>
-      <c r="Y109" s="14"/>
-      <c r="Z109" s="14"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
-      <c r="AD109" s="14"/>
-      <c r="AE109" s="14"/>
-      <c r="AF109" s="14"/>
-      <c r="AG109" s="14"/>
-      <c r="AH109" s="14"/>
-      <c r="AI109" s="14"/>
-      <c r="AJ109" s="14"/>
-      <c r="AK109" s="14"/>
-      <c r="AL109" s="14"/>
-      <c r="AM109" s="14"/>
-      <c r="AN109" s="14"/>
-      <c r="AO109" s="14"/>
-      <c r="AP109" s="14"/>
-      <c r="AQ109" s="14"/>
-      <c r="AR109" s="14"/>
-      <c r="AS109" s="14"/>
-      <c r="AT109" s="14"/>
-      <c r="AU109" s="14"/>
-      <c r="AV109" s="14"/>
-      <c r="AW109" s="14"/>
-      <c r="AX109" s="14"/>
-      <c r="AY109" s="14"/>
-      <c r="AZ109" s="14"/>
-      <c r="BA109" s="14"/>
+    <row r="110" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X110" s="11"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="11"/>
+      <c r="AA110" s="11"/>
+      <c r="AB110" s="11"/>
+      <c r="AC110" s="11"/>
+      <c r="AD110" s="11"/>
+      <c r="AE110" s="11"/>
+      <c r="AF110" s="11"/>
+      <c r="AG110" s="11"/>
+      <c r="AH110" s="11"/>
+      <c r="AI110" s="11"/>
+      <c r="AJ110" s="11"/>
+      <c r="AK110" s="11"/>
+      <c r="AL110" s="11"/>
+      <c r="AM110" s="11"/>
+      <c r="AN110" s="11"/>
+      <c r="AO110" s="11"/>
+      <c r="AP110" s="11"/>
+      <c r="AQ110" s="11"/>
+      <c r="AR110" s="11"/>
+      <c r="AS110" s="11"/>
+      <c r="AT110" s="11"/>
+      <c r="AU110" s="11"/>
+      <c r="AV110" s="11"/>
+      <c r="AW110" s="11"/>
+      <c r="AX110" s="11"/>
+      <c r="AY110" s="11"/>
+      <c r="AZ110" s="11"/>
+      <c r="BA110" s="11"/>
     </row>
-    <row r="110" spans="24:53">
-      <c r="X110" s="14"/>
-      <c r="Y110" s="14"/>
-      <c r="Z110" s="14"/>
-      <c r="AA110" s="14"/>
-      <c r="AB110" s="14"/>
-      <c r="AC110" s="14"/>
-      <c r="AD110" s="14"/>
-      <c r="AE110" s="14"/>
-      <c r="AF110" s="14"/>
-      <c r="AG110" s="14"/>
-      <c r="AH110" s="14"/>
-      <c r="AI110" s="14"/>
-      <c r="AJ110" s="14"/>
-      <c r="AK110" s="14"/>
-      <c r="AL110" s="14"/>
-      <c r="AM110" s="14"/>
-      <c r="AN110" s="14"/>
-      <c r="AO110" s="14"/>
-      <c r="AP110" s="14"/>
-      <c r="AQ110" s="14"/>
-      <c r="AR110" s="14"/>
-      <c r="AS110" s="14"/>
-      <c r="AT110" s="14"/>
-      <c r="AU110" s="14"/>
-      <c r="AV110" s="14"/>
-      <c r="AW110" s="14"/>
-      <c r="AX110" s="14"/>
-      <c r="AY110" s="14"/>
-      <c r="AZ110" s="14"/>
-      <c r="BA110" s="14"/>
+    <row r="111" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X111" s="11"/>
+      <c r="Y111" s="11"/>
+      <c r="Z111" s="11"/>
+      <c r="AA111" s="11"/>
+      <c r="AB111" s="11"/>
+      <c r="AC111" s="11"/>
+      <c r="AD111" s="11"/>
+      <c r="AE111" s="11"/>
+      <c r="AF111" s="11"/>
+      <c r="AG111" s="11"/>
+      <c r="AH111" s="11"/>
+      <c r="AI111" s="11"/>
+      <c r="AJ111" s="11"/>
+      <c r="AK111" s="11"/>
+      <c r="AL111" s="11"/>
+      <c r="AM111" s="11"/>
+      <c r="AN111" s="11"/>
+      <c r="AO111" s="11"/>
+      <c r="AP111" s="11"/>
+      <c r="AQ111" s="11"/>
+      <c r="AR111" s="11"/>
+      <c r="AS111" s="11"/>
+      <c r="AT111" s="11"/>
+      <c r="AU111" s="11"/>
+      <c r="AV111" s="11"/>
+      <c r="AW111" s="11"/>
+      <c r="AX111" s="11"/>
+      <c r="AY111" s="11"/>
+      <c r="AZ111" s="11"/>
+      <c r="BA111" s="11"/>
     </row>
-    <row r="111" spans="24:53">
-      <c r="X111" s="14"/>
-      <c r="Y111" s="14"/>
-      <c r="Z111" s="14"/>
-      <c r="AA111" s="14"/>
-      <c r="AB111" s="14"/>
-      <c r="AC111" s="14"/>
-      <c r="AD111" s="14"/>
-      <c r="AE111" s="14"/>
-      <c r="AF111" s="14"/>
-      <c r="AG111" s="14"/>
-      <c r="AH111" s="14"/>
-      <c r="AI111" s="14"/>
-      <c r="AJ111" s="14"/>
-      <c r="AK111" s="14"/>
-      <c r="AL111" s="14"/>
-      <c r="AM111" s="14"/>
-      <c r="AN111" s="14"/>
-      <c r="AO111" s="14"/>
-      <c r="AP111" s="14"/>
-      <c r="AQ111" s="14"/>
-      <c r="AR111" s="14"/>
-      <c r="AS111" s="14"/>
-      <c r="AT111" s="14"/>
-      <c r="AU111" s="14"/>
-      <c r="AV111" s="14"/>
-      <c r="AW111" s="14"/>
-      <c r="AX111" s="14"/>
-      <c r="AY111" s="14"/>
-      <c r="AZ111" s="14"/>
-      <c r="BA111" s="14"/>
+    <row r="112" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X112" s="11"/>
+      <c r="Y112" s="11"/>
+      <c r="Z112" s="11"/>
+      <c r="AA112" s="11"/>
+      <c r="AB112" s="11"/>
+      <c r="AC112" s="11"/>
+      <c r="AD112" s="11"/>
+      <c r="AE112" s="11"/>
+      <c r="AF112" s="11"/>
+      <c r="AG112" s="11"/>
+      <c r="AH112" s="11"/>
+      <c r="AI112" s="11"/>
+      <c r="AJ112" s="11"/>
+      <c r="AK112" s="11"/>
+      <c r="AL112" s="11"/>
+      <c r="AM112" s="11"/>
+      <c r="AN112" s="11"/>
+      <c r="AO112" s="11"/>
+      <c r="AP112" s="11"/>
+      <c r="AQ112" s="11"/>
+      <c r="AR112" s="11"/>
+      <c r="AS112" s="11"/>
+      <c r="AT112" s="11"/>
+      <c r="AU112" s="11"/>
+      <c r="AV112" s="11"/>
+      <c r="AW112" s="11"/>
+      <c r="AX112" s="11"/>
+      <c r="AY112" s="11"/>
+      <c r="AZ112" s="11"/>
+      <c r="BA112" s="11"/>
     </row>
-    <row r="112" spans="24:53">
-      <c r="X112" s="14"/>
-      <c r="Y112" s="14"/>
-      <c r="Z112" s="14"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="14"/>
-      <c r="AC112" s="14"/>
-      <c r="AD112" s="14"/>
-      <c r="AE112" s="14"/>
-      <c r="AF112" s="14"/>
-      <c r="AG112" s="14"/>
-      <c r="AH112" s="14"/>
-      <c r="AI112" s="14"/>
-      <c r="AJ112" s="14"/>
-      <c r="AK112" s="14"/>
-      <c r="AL112" s="14"/>
-      <c r="AM112" s="14"/>
-      <c r="AN112" s="14"/>
-      <c r="AO112" s="14"/>
-      <c r="AP112" s="14"/>
-      <c r="AQ112" s="14"/>
-      <c r="AR112" s="14"/>
-      <c r="AS112" s="14"/>
-      <c r="AT112" s="14"/>
-      <c r="AU112" s="14"/>
-      <c r="AV112" s="14"/>
-      <c r="AW112" s="14"/>
-      <c r="AX112" s="14"/>
-      <c r="AY112" s="14"/>
-      <c r="AZ112" s="14"/>
-      <c r="BA112" s="14"/>
+    <row r="113" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X113" s="11"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="11"/>
+      <c r="AA113" s="11"/>
+      <c r="AB113" s="11"/>
+      <c r="AC113" s="11"/>
+      <c r="AD113" s="11"/>
+      <c r="AE113" s="11"/>
+      <c r="AF113" s="11"/>
+      <c r="AG113" s="11"/>
+      <c r="AH113" s="11"/>
+      <c r="AI113" s="11"/>
+      <c r="AJ113" s="11"/>
+      <c r="AK113" s="11"/>
+      <c r="AL113" s="11"/>
+      <c r="AM113" s="11"/>
+      <c r="AN113" s="11"/>
+      <c r="AO113" s="11"/>
+      <c r="AP113" s="11"/>
+      <c r="AQ113" s="11"/>
+      <c r="AR113" s="11"/>
+      <c r="AS113" s="11"/>
+      <c r="AT113" s="11"/>
+      <c r="AU113" s="11"/>
+      <c r="AV113" s="11"/>
+      <c r="AW113" s="11"/>
+      <c r="AX113" s="11"/>
+      <c r="AY113" s="11"/>
+      <c r="AZ113" s="11"/>
+      <c r="BA113" s="11"/>
     </row>
-    <row r="113" spans="24:53">
-      <c r="X113" s="14"/>
-      <c r="Y113" s="14"/>
-      <c r="Z113" s="14"/>
-      <c r="AA113" s="14"/>
-      <c r="AB113" s="14"/>
-      <c r="AC113" s="14"/>
-      <c r="AD113" s="14"/>
-      <c r="AE113" s="14"/>
-      <c r="AF113" s="14"/>
-      <c r="AG113" s="14"/>
-      <c r="AH113" s="14"/>
-      <c r="AI113" s="14"/>
-      <c r="AJ113" s="14"/>
-      <c r="AK113" s="14"/>
-      <c r="AL113" s="14"/>
-      <c r="AM113" s="14"/>
-      <c r="AN113" s="14"/>
-      <c r="AO113" s="14"/>
-      <c r="AP113" s="14"/>
-      <c r="AQ113" s="14"/>
-      <c r="AR113" s="14"/>
-      <c r="AS113" s="14"/>
-      <c r="AT113" s="14"/>
-      <c r="AU113" s="14"/>
-      <c r="AV113" s="14"/>
-      <c r="AW113" s="14"/>
-      <c r="AX113" s="14"/>
-      <c r="AY113" s="14"/>
-      <c r="AZ113" s="14"/>
-      <c r="BA113" s="14"/>
+    <row r="114" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X114" s="11"/>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="11"/>
+      <c r="AA114" s="11"/>
+      <c r="AB114" s="11"/>
+      <c r="AC114" s="11"/>
+      <c r="AD114" s="11"/>
+      <c r="AE114" s="11"/>
+      <c r="AF114" s="11"/>
+      <c r="AG114" s="11"/>
+      <c r="AH114" s="11"/>
+      <c r="AI114" s="11"/>
+      <c r="AJ114" s="11"/>
+      <c r="AK114" s="11"/>
+      <c r="AL114" s="11"/>
+      <c r="AM114" s="11"/>
+      <c r="AN114" s="11"/>
+      <c r="AO114" s="11"/>
+      <c r="AP114" s="11"/>
+      <c r="AQ114" s="11"/>
+      <c r="AR114" s="11"/>
+      <c r="AS114" s="11"/>
+      <c r="AT114" s="11"/>
+      <c r="AU114" s="11"/>
+      <c r="AV114" s="11"/>
+      <c r="AW114" s="11"/>
+      <c r="AX114" s="11"/>
+      <c r="AY114" s="11"/>
+      <c r="AZ114" s="11"/>
+      <c r="BA114" s="11"/>
     </row>
-    <row r="114" spans="24:53">
-      <c r="X114" s="14"/>
-      <c r="Y114" s="14"/>
-      <c r="Z114" s="14"/>
-      <c r="AA114" s="14"/>
-      <c r="AB114" s="14"/>
-      <c r="AC114" s="14"/>
-      <c r="AD114" s="14"/>
-      <c r="AE114" s="14"/>
-      <c r="AF114" s="14"/>
-      <c r="AG114" s="14"/>
-      <c r="AH114" s="14"/>
-      <c r="AI114" s="14"/>
-      <c r="AJ114" s="14"/>
-      <c r="AK114" s="14"/>
-      <c r="AL114" s="14"/>
-      <c r="AM114" s="14"/>
-      <c r="AN114" s="14"/>
-      <c r="AO114" s="14"/>
-      <c r="AP114" s="14"/>
-      <c r="AQ114" s="14"/>
-      <c r="AR114" s="14"/>
-      <c r="AS114" s="14"/>
-      <c r="AT114" s="14"/>
-      <c r="AU114" s="14"/>
-      <c r="AV114" s="14"/>
-      <c r="AW114" s="14"/>
-      <c r="AX114" s="14"/>
-      <c r="AY114" s="14"/>
-      <c r="AZ114" s="14"/>
-      <c r="BA114" s="14"/>
+    <row r="115" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="X115" s="11"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="11"/>
+      <c r="AA115" s="11"/>
+      <c r="AB115" s="11"/>
+      <c r="AC115" s="11"/>
+      <c r="AD115" s="11"/>
+      <c r="AE115" s="11"/>
+      <c r="AF115" s="11"/>
+      <c r="AG115" s="11"/>
+      <c r="AH115" s="11"/>
+      <c r="AI115" s="11"/>
+      <c r="AJ115" s="11"/>
+      <c r="AK115" s="11"/>
+      <c r="AL115" s="11"/>
+      <c r="AM115" s="11"/>
+      <c r="AN115" s="11"/>
+      <c r="AO115" s="11"/>
+      <c r="AP115" s="11"/>
+      <c r="AQ115" s="11"/>
+      <c r="AR115" s="11"/>
+      <c r="AS115" s="11"/>
+      <c r="AT115" s="11"/>
+      <c r="AU115" s="11"/>
+      <c r="AV115" s="11"/>
+      <c r="AW115" s="11"/>
+      <c r="AX115" s="11"/>
+      <c r="AY115" s="11"/>
+      <c r="AZ115" s="11"/>
+      <c r="BA115" s="11"/>
     </row>
-    <row r="115" spans="24:53">
-      <c r="X115" s="14"/>
-      <c r="Y115" s="14"/>
-      <c r="Z115" s="14"/>
-      <c r="AA115" s="14"/>
-      <c r="AB115" s="14"/>
-      <c r="AC115" s="14"/>
-      <c r="AD115" s="14"/>
-      <c r="AE115" s="14"/>
-      <c r="AF115" s="14"/>
-      <c r="AG115" s="14"/>
-      <c r="AH115" s="14"/>
-      <c r="AI115" s="14"/>
-      <c r="AJ115" s="14"/>
-      <c r="AK115" s="14"/>
-      <c r="AL115" s="14"/>
-      <c r="AM115" s="14"/>
-      <c r="AN115" s="14"/>
-      <c r="AO115" s="14"/>
-      <c r="AP115" s="14"/>
-      <c r="AQ115" s="14"/>
-      <c r="AR115" s="14"/>
-      <c r="AS115" s="14"/>
-      <c r="AT115" s="14"/>
-      <c r="AU115" s="14"/>
-      <c r="AV115" s="14"/>
-      <c r="AW115" s="14"/>
-      <c r="AX115" s="14"/>
-      <c r="AY115" s="14"/>
-      <c r="AZ115" s="14"/>
-      <c r="BA115" s="14"/>
+    <row r="116" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="AP116" s="11"/>
+      <c r="AQ116" s="11"/>
+      <c r="AR116" s="11"/>
+      <c r="AS116" s="11"/>
+      <c r="AT116" s="11"/>
+      <c r="AU116" s="11"/>
+      <c r="AV116" s="11"/>
+      <c r="AW116" s="11"/>
+      <c r="AX116" s="11"/>
+      <c r="AY116" s="11"/>
+      <c r="AZ116" s="11"/>
+      <c r="BA116" s="11"/>
     </row>
-    <row r="116" spans="24:53">
-      <c r="AP116" s="14"/>
-      <c r="AQ116" s="14"/>
-      <c r="AR116" s="14"/>
-      <c r="AS116" s="14"/>
-      <c r="AT116" s="14"/>
-      <c r="AU116" s="14"/>
-      <c r="AV116" s="14"/>
-      <c r="AW116" s="14"/>
-      <c r="AX116" s="14"/>
-      <c r="AY116" s="14"/>
-      <c r="AZ116" s="14"/>
-      <c r="BA116" s="14"/>
+    <row r="117" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="AP117" s="11"/>
+      <c r="AQ117" s="11"/>
+      <c r="AR117" s="11"/>
+      <c r="AS117" s="11"/>
+      <c r="AT117" s="11"/>
+      <c r="AU117" s="11"/>
+      <c r="AV117" s="11"/>
+      <c r="AW117" s="11"/>
+      <c r="AX117" s="11"/>
+      <c r="AY117" s="11"/>
+      <c r="AZ117" s="11"/>
+      <c r="BA117" s="11"/>
     </row>
-    <row r="117" spans="24:53">
-      <c r="AP117" s="14"/>
-      <c r="AQ117" s="14"/>
-      <c r="AR117" s="14"/>
-      <c r="AS117" s="14"/>
-      <c r="AT117" s="14"/>
-      <c r="AU117" s="14"/>
-      <c r="AV117" s="14"/>
-      <c r="AW117" s="14"/>
-      <c r="AX117" s="14"/>
-      <c r="AY117" s="14"/>
-      <c r="AZ117" s="14"/>
-      <c r="BA117" s="14"/>
-    </row>
-    <row r="118" spans="24:53">
-      <c r="AP118" s="14"/>
-      <c r="AQ118" s="14"/>
-      <c r="AR118" s="14"/>
-      <c r="AS118" s="14"/>
-      <c r="AT118" s="14"/>
-      <c r="AU118" s="14"/>
-      <c r="AV118" s="14"/>
-      <c r="AW118" s="14"/>
-      <c r="AX118" s="14"/>
-      <c r="AY118" s="14"/>
-      <c r="AZ118" s="14"/>
-      <c r="BA118" s="14"/>
+    <row r="118" spans="24:53" x14ac:dyDescent="0.2">
+      <c r="AP118" s="11"/>
+      <c r="AQ118" s="11"/>
+      <c r="AR118" s="11"/>
+      <c r="AS118" s="11"/>
+      <c r="AT118" s="11"/>
+      <c r="AU118" s="11"/>
+      <c r="AV118" s="11"/>
+      <c r="AW118" s="11"/>
+      <c r="AX118" s="11"/>
+      <c r="AY118" s="11"/>
+      <c r="AZ118" s="11"/>
+      <c r="BA118" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10188,14 +11393,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC890A72-171A-F84D-839D-C1D91BD00799}">
-  <dimension ref="A1"/>
+  <dimension ref="D8:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f>D8/300</f>
+        <v>3333333.3333333335</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1269BC-988C-CB4B-912A-0D725BE0E11A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF186B2-7B14-3545-83DC-B5216940CEF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
@@ -88,22 +88,22 @@
     <t>Transaction free persistence via fastest assynchronious IO Kafka</t>
   </si>
   <si>
-    <t>Concurrent non blocking calculations achived by Concurent in memory Data Structures, Queues, Atomics, CAS operations.</t>
-  </si>
-  <si>
     <t>General information:</t>
   </si>
   <si>
     <t>Potok is a real stock trading exchange application with a build in real time trade symulation and post trade validation.</t>
   </si>
   <si>
-    <t>Potok supports stock with respect to account balance and available long/short position.</t>
+    <t>Easy horizontal and vertical scalability. There are 2 dimensions for horizontal scalability account and symbol. Split line is Queue.</t>
   </si>
   <si>
-    <t>As of now potok supports DAY, GTC, LIMIT orders only. Matching is taken from persited order (in BID/ASK container), not from the ncoming one.</t>
+    <t>Potok supports stock trading with respect to account balance and available long/short positions which can be treated as balances as well.</t>
   </si>
   <si>
-    <t>Easy horizontal and vertical scalability. There are 2 dimensions for horizontal scalability account and symbol. Split line is Queue.</t>
+    <t>As of now potok supports DAY, GTC, LIMIT orders only. Matching price is taken from persited order (in BID/ASK container), not from the ncoming one.</t>
+  </si>
+  <si>
+    <t>Concurrent non blocking calculations achived by: 1. Concurent in memory Data Structures 2. Queues 3. Atomics 4. CAS operations.</t>
   </si>
 </sst>
 </file>
@@ -242,30 +242,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -276,6 +268,21 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,8 +312,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>151191</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -322,9 +329,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4480691" y="7003747"/>
-          <a:ext cx="3384238" cy="7073538"/>
+          <a:ext cx="3384238" cy="7238396"/>
           <a:chOff x="3653175" y="6503810"/>
-          <a:chExt cx="3388269" cy="7086903"/>
+          <a:chExt cx="3388269" cy="7252072"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -341,7 +348,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3653175" y="6503810"/>
-            <a:ext cx="3388269" cy="7086903"/>
+            <a:ext cx="3388269" cy="7252072"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1187,13 +1194,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>81653</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>105832</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1208,10 +1215,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9228677" y="6516914"/>
-          <a:ext cx="3384237" cy="3483187"/>
+          <a:off x="9228677" y="6516913"/>
+          <a:ext cx="3384237" cy="4005943"/>
           <a:chOff x="8407209" y="6016978"/>
-          <a:chExt cx="3388269" cy="3482032"/>
+          <a:chExt cx="3388269" cy="4004615"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1228,7 +1235,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="8407209" y="6016978"/>
-            <a:ext cx="3388269" cy="3482032"/>
+            <a:ext cx="3388269" cy="4004615"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1666,14 +1673,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>55880</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>113927</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>106436</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1688,7 +1695,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9202904" y="10641390"/>
+          <a:off x="9202904" y="10868175"/>
           <a:ext cx="3384237" cy="3918856"/>
           <a:chOff x="8331200" y="15544800"/>
           <a:chExt cx="3360047" cy="3988451"/>
@@ -4191,8 +4198,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>311970</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>59895</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4211,7 +4218,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="11960361" y="8088914"/>
-          <a:ext cx="4982561" cy="3869671"/>
+          <a:ext cx="4982561" cy="4096456"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4251,8 +4258,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>630271</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>23340</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>53577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4271,7 +4278,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="12049901" y="11824018"/>
-          <a:ext cx="3548227" cy="1307536"/>
+          <a:ext cx="3548227" cy="1534321"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4311,8 +4318,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>630271</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>26499</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56736</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4331,7 +4338,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="11985944" y="11824018"/>
-          <a:ext cx="3612184" cy="721052"/>
+          <a:ext cx="3612184" cy="947837"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4371,8 +4378,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>595771</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>83454</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>98572</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4391,7 +4398,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="12068185" y="11163839"/>
-          <a:ext cx="3495443" cy="183305"/>
+          <a:ext cx="3495443" cy="410090"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4431,8 +4438,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>630271</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>59895</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4451,7 +4458,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="11960361" y="11824018"/>
-          <a:ext cx="3637767" cy="134567"/>
+          <a:ext cx="3637767" cy="361352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5167,7 +5174,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> Use gaussian random price distributio.</a:t>
+              <a:t> Uses gaussian random price distribution.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0">
@@ -5827,7 +5834,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> exchanges BID/ASK container, Accounts and rest in memory data structures with relevant consistent values. In future to be replaced withinitiation from depositary </a:t>
+              <a:t> exchanges BID/ASK container, Accounts and other in memory data structures with relevant consistent values. In future to be replaced with initiation from depositary. </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
@@ -5939,8 +5946,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>43783</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>20207</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -5964,8 +5971,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10853902" y="13324969"/>
-          <a:ext cx="75777" cy="5666571"/>
+          <a:off x="10853902" y="13551754"/>
+          <a:ext cx="75777" cy="5439786"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10331,8 +10338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
   <dimension ref="A1:BA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AT61" sqref="AT61"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="AZ51" sqref="AZ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10344,1046 +10351,1048 @@
     <col min="32" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+    <row r="2" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+    <row r="3" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+    <row r="8" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>20</v>
+    <row r="10" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>25</v>
+    <row r="12" spans="1:19" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="27" spans="6:37" x14ac:dyDescent="0.2">
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
     </row>
     <row r="28" spans="6:37" x14ac:dyDescent="0.2">
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
     </row>
     <row r="29" spans="6:37" x14ac:dyDescent="0.2">
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
     </row>
     <row r="30" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
     </row>
     <row r="31" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="13" t="s">
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
     </row>
     <row r="32" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="13" t="s">
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
     </row>
     <row r="33" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
     </row>
     <row r="34" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="AC34" s="3" t="s">
+      <c r="AC34" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
     </row>
     <row r="35" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="AC35" s="4" t="s">
+      <c r="AC35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AD35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AE35" s="4" t="s">
+      <c r="AE35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F36" s="2"/>
-      <c r="AC36" s="5" t="s">
+      <c r="AC36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD36" s="5">
+      <c r="AD36" s="4">
         <v>72</v>
       </c>
-      <c r="AE36" s="5">
+      <c r="AE36" s="4">
         <v>1300</v>
       </c>
     </row>
     <row r="37" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F37" s="2"/>
-      <c r="AC37" s="5" t="s">
+      <c r="AC37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD37" s="5">
+      <c r="AD37" s="4">
         <v>71</v>
       </c>
-      <c r="AE37" s="5">
+      <c r="AE37" s="4">
         <v>210</v>
       </c>
     </row>
     <row r="38" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F38" s="2"/>
-      <c r="AC38" s="5" t="s">
+      <c r="AC38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD38" s="5">
+      <c r="AD38" s="4">
         <v>68</v>
       </c>
-      <c r="AE38" s="5">
+      <c r="AE38" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F39" s="2"/>
-      <c r="AC39" s="5" t="s">
+      <c r="AC39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD39" s="5">
+      <c r="AD39" s="4">
         <v>64</v>
       </c>
-      <c r="AE39" s="5">
+      <c r="AE39" s="4">
         <v>1600</v>
       </c>
     </row>
     <row r="40" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F40" s="2"/>
-      <c r="AC40" s="5" t="s">
+      <c r="AC40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD40" s="5">
+      <c r="AD40" s="4">
         <v>51</v>
       </c>
-      <c r="AE40" s="5">
+      <c r="AE40" s="4">
         <v>9100</v>
       </c>
     </row>
     <row r="41" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F41" s="2"/>
-      <c r="AC41" s="5" t="s">
+      <c r="AC41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD41" s="5">
+      <c r="AD41" s="4">
         <v>50</v>
       </c>
-      <c r="AE41" s="5">
+      <c r="AE41" s="4">
         <v>25900</v>
       </c>
     </row>
     <row r="42" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F42" s="2"/>
-      <c r="AC42" s="5" t="s">
+      <c r="AC42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD42" s="5">
+      <c r="AD42" s="4">
         <v>46</v>
       </c>
-      <c r="AE42" s="5">
+      <c r="AE42" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="43" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F43" s="2"/>
-      <c r="AC43" s="5" t="s">
+      <c r="AC43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD43" s="5">
+      <c r="AD43" s="4">
         <v>40</v>
       </c>
-      <c r="AE43" s="5">
+      <c r="AE43" s="4">
         <v>7670</v>
       </c>
     </row>
     <row r="44" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F44" s="2"/>
-      <c r="AC44" s="5" t="s">
+      <c r="AC44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD44" s="5">
+      <c r="AD44" s="4">
         <v>36</v>
       </c>
-      <c r="AE44" s="5">
+      <c r="AE44" s="4">
         <v>2420</v>
       </c>
     </row>
     <row r="45" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F45" s="2"/>
-      <c r="AC45" s="5" t="s">
+      <c r="AC45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD45" s="5">
+      <c r="AD45" s="4">
         <v>33</v>
       </c>
-      <c r="AE45" s="5">
+      <c r="AE45" s="4">
         <v>780</v>
       </c>
     </row>
     <row r="46" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F46" s="2"/>
-      <c r="AC46" s="5" t="s">
+      <c r="AC46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD46" s="5">
+      <c r="AD46" s="4">
         <v>25</v>
       </c>
-      <c r="AE46" s="5">
+      <c r="AE46" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="47" spans="6:37" x14ac:dyDescent="0.2">
-      <c r="AC47" s="5" t="s">
+      <c r="AC47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD47" s="5">
+      <c r="AD47" s="4">
         <v>22</v>
       </c>
-      <c r="AE47" s="5">
+      <c r="AE47" s="4">
         <v>1030</v>
       </c>
     </row>
     <row r="48" spans="6:37" x14ac:dyDescent="0.2">
-      <c r="AC48" s="5" t="s">
+      <c r="AC48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD48" s="5">
+      <c r="AD48" s="4">
         <v>17</v>
       </c>
-      <c r="AE48" s="5">
+      <c r="AE48" s="4">
         <v>1480</v>
       </c>
     </row>
     <row r="49" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="AC49" s="5" t="s">
+      <c r="AC49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD49" s="5">
+      <c r="AD49" s="4">
         <v>16</v>
       </c>
-      <c r="AE49" s="5">
+      <c r="AE49" s="4">
         <v>1500</v>
       </c>
     </row>
     <row r="50" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F50" s="2"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="7" t="s">
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG50" s="7">
+      <c r="AG50" s="6">
         <v>15</v>
       </c>
-      <c r="AH50" s="7">
+      <c r="AH50" s="6">
         <v>760</v>
       </c>
     </row>
     <row r="51" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="7" t="s">
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG51" s="7">
+      <c r="AG51" s="6">
         <v>14</v>
       </c>
-      <c r="AH51" s="7">
+      <c r="AH51" s="6">
         <v>3090</v>
       </c>
     </row>
     <row r="52" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="7" t="s">
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG52" s="7">
+      <c r="AG52" s="6">
         <v>13</v>
       </c>
-      <c r="AH52" s="7">
+      <c r="AH52" s="6">
         <v>1440</v>
       </c>
     </row>
     <row r="53" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F53" s="2"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="7" t="s">
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG53" s="7">
+      <c r="AG53" s="6">
         <v>12</v>
       </c>
-      <c r="AH53" s="7">
+      <c r="AH53" s="6">
         <v>10320</v>
       </c>
     </row>
     <row r="54" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F54" s="2"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="7" t="s">
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG54" s="7">
+      <c r="AG54" s="6">
         <v>11</v>
       </c>
-      <c r="AH54" s="7">
+      <c r="AH54" s="6">
         <v>115160</v>
       </c>
     </row>
     <row r="55" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F55" s="2"/>
-      <c r="AF55" s="7" t="s">
+      <c r="AF55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG55" s="7">
+      <c r="AG55" s="6">
         <v>10</v>
       </c>
-      <c r="AH55" s="7">
+      <c r="AH55" s="6">
         <v>153440</v>
       </c>
     </row>
     <row r="56" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F56" s="2"/>
-      <c r="AF56" s="7" t="s">
+      <c r="AF56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG56" s="7">
+      <c r="AG56" s="6">
         <v>9</v>
       </c>
-      <c r="AH56" s="7">
+      <c r="AH56" s="6">
         <v>75960</v>
       </c>
     </row>
     <row r="57" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F57" s="2"/>
-      <c r="AF57" s="7" t="s">
+      <c r="AF57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG57" s="7">
+      <c r="AG57" s="6">
         <v>8</v>
       </c>
-      <c r="AH57" s="7">
+      <c r="AH57" s="6">
         <v>15300</v>
       </c>
     </row>
     <row r="58" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F58" s="2"/>
-      <c r="AF58" s="7" t="s">
+      <c r="AF58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG58" s="7">
+      <c r="AG58" s="6">
         <v>7</v>
       </c>
-      <c r="AH58" s="7">
+      <c r="AH58" s="6">
         <v>3100</v>
       </c>
     </row>
     <row r="59" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="AF59" s="7" t="s">
+      <c r="AF59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG59" s="7">
+      <c r="AG59" s="6">
         <v>6</v>
       </c>
-      <c r="AH59" s="7">
+      <c r="AH59" s="6">
         <v>590</v>
       </c>
     </row>
     <row r="60" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="AF60" s="7" t="s">
+      <c r="AF60" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG60" s="7">
+      <c r="AG60" s="6">
         <v>5</v>
       </c>
-      <c r="AH60" s="7">
+      <c r="AH60" s="6">
         <v>920</v>
       </c>
     </row>
     <row r="61" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="AF61" s="7" t="s">
+      <c r="AF61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG61" s="7">
+      <c r="AG61" s="6">
         <v>4</v>
       </c>
-      <c r="AH61" s="7">
+      <c r="AH61" s="6">
         <v>530</v>
       </c>
     </row>
     <row r="62" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="AF62" s="7" t="s">
+      <c r="AF62" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG62" s="7">
+      <c r="AG62" s="6">
         <v>3</v>
       </c>
-      <c r="AH62" s="7">
+      <c r="AH62" s="6">
         <v>1040</v>
       </c>
     </row>
     <row r="63" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="AF63" s="7" t="s">
+      <c r="AF63" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG63" s="7">
+      <c r="AG63" s="6">
         <v>2</v>
       </c>
-      <c r="AH63" s="7">
+      <c r="AH63" s="6">
         <v>690</v>
       </c>
     </row>
     <row r="64" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="AF64" s="8" t="s">
+      <c r="AF64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AG64" s="8" t="s">
+      <c r="AG64" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AH64" s="8" t="s">
+      <c r="AH64" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="17:34" x14ac:dyDescent="0.2">
-      <c r="AF65" s="9" t="s">
+      <c r="AF65" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="9"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
     </row>
-    <row r="67" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q68" s="11" t="s">
+    <row r="67" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q69" s="11" t="s">
+    <row r="69" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q70" s="11" t="s">
+    <row r="70" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q71" s="11" t="s">
+    <row r="71" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q73" s="11" t="s">
+    <row r="72" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q74" s="11" t="s">
+    <row r="74" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q75" s="11" t="s">
+    <row r="75" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q75" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q76" s="11" t="s">
+    <row r="76" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q77" s="11" t="s">
+    <row r="77" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q77" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q78" s="11" t="s">
+    <row r="78" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q78" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="17:34" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="47:47" s="11" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="AU94" s="12"/>
+    <row r="79" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="47:47" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="AU94" s="10"/>
     </row>
-    <row r="95" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="47:47" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="24:53" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X107" s="11"/>
-      <c r="Y107" s="11"/>
-      <c r="Z107" s="11"/>
-      <c r="AA107" s="11"/>
-      <c r="AB107" s="11"/>
-      <c r="AC107" s="11"/>
-      <c r="AD107" s="11"/>
-      <c r="AE107" s="11"/>
-      <c r="AG107" s="11"/>
-      <c r="AH107" s="11"/>
-      <c r="AI107" s="11"/>
-      <c r="AJ107" s="11"/>
-      <c r="AK107" s="11"/>
-      <c r="AL107" s="11"/>
-      <c r="AM107" s="11"/>
-      <c r="AN107" s="11"/>
-      <c r="AO107" s="11"/>
-      <c r="AP107" s="11"/>
-      <c r="AQ107" s="11"/>
-      <c r="AR107" s="11"/>
-      <c r="AS107" s="11"/>
-      <c r="AT107" s="11"/>
-      <c r="AU107" s="11"/>
-      <c r="AV107" s="11"/>
-      <c r="AW107" s="11"/>
-      <c r="AX107" s="11"/>
-      <c r="AY107" s="11"/>
-      <c r="AZ107" s="11"/>
-      <c r="BA107" s="11"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
+      <c r="AB107" s="9"/>
+      <c r="AC107" s="9"/>
+      <c r="AD107" s="9"/>
+      <c r="AE107" s="9"/>
+      <c r="AG107" s="9"/>
+      <c r="AH107" s="9"/>
+      <c r="AI107" s="9"/>
+      <c r="AJ107" s="9"/>
+      <c r="AK107" s="9"/>
+      <c r="AL107" s="9"/>
+      <c r="AM107" s="9"/>
+      <c r="AN107" s="9"/>
+      <c r="AO107" s="9"/>
+      <c r="AP107" s="9"/>
+      <c r="AQ107" s="9"/>
+      <c r="AR107" s="9"/>
+      <c r="AS107" s="9"/>
+      <c r="AT107" s="9"/>
+      <c r="AU107" s="9"/>
+      <c r="AV107" s="9"/>
+      <c r="AW107" s="9"/>
+      <c r="AX107" s="9"/>
+      <c r="AY107" s="9"/>
+      <c r="AZ107" s="9"/>
+      <c r="BA107" s="9"/>
     </row>
     <row r="108" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X108" s="11"/>
-      <c r="Y108" s="11"/>
-      <c r="Z108" s="11"/>
-      <c r="AA108" s="11"/>
-      <c r="AB108" s="11"/>
-      <c r="AC108" s="11"/>
-      <c r="AD108" s="11"/>
-      <c r="AE108" s="11"/>
-      <c r="AF108" s="11"/>
-      <c r="AG108" s="11"/>
-      <c r="AH108" s="11"/>
-      <c r="AI108" s="11"/>
-      <c r="AJ108" s="11"/>
-      <c r="AK108" s="11"/>
-      <c r="AL108" s="11"/>
-      <c r="AM108" s="11"/>
-      <c r="AN108" s="11"/>
-      <c r="AO108" s="11"/>
-      <c r="AP108" s="11"/>
-      <c r="AQ108" s="11"/>
-      <c r="AR108" s="11"/>
-      <c r="AS108" s="11"/>
-      <c r="AT108" s="11"/>
-      <c r="AU108" s="11"/>
-      <c r="AV108" s="11"/>
-      <c r="AW108" s="11"/>
-      <c r="AX108" s="11"/>
-      <c r="AY108" s="11"/>
-      <c r="AZ108" s="11"/>
-      <c r="BA108" s="11"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+      <c r="AA108" s="9"/>
+      <c r="AB108" s="9"/>
+      <c r="AC108" s="9"/>
+      <c r="AD108" s="9"/>
+      <c r="AE108" s="9"/>
+      <c r="AF108" s="9"/>
+      <c r="AG108" s="9"/>
+      <c r="AH108" s="9"/>
+      <c r="AI108" s="9"/>
+      <c r="AJ108" s="9"/>
+      <c r="AK108" s="9"/>
+      <c r="AL108" s="9"/>
+      <c r="AM108" s="9"/>
+      <c r="AN108" s="9"/>
+      <c r="AO108" s="9"/>
+      <c r="AP108" s="9"/>
+      <c r="AQ108" s="9"/>
+      <c r="AR108" s="9"/>
+      <c r="AS108" s="9"/>
+      <c r="AT108" s="9"/>
+      <c r="AU108" s="9"/>
+      <c r="AV108" s="9"/>
+      <c r="AW108" s="9"/>
+      <c r="AX108" s="9"/>
+      <c r="AY108" s="9"/>
+      <c r="AZ108" s="9"/>
+      <c r="BA108" s="9"/>
     </row>
     <row r="109" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X109" s="11"/>
-      <c r="Y109" s="11"/>
-      <c r="Z109" s="11"/>
-      <c r="AA109" s="11"/>
-      <c r="AB109" s="11"/>
-      <c r="AC109" s="11"/>
-      <c r="AD109" s="11"/>
-      <c r="AE109" s="11"/>
-      <c r="AF109" s="11"/>
-      <c r="AG109" s="11"/>
-      <c r="AH109" s="11"/>
-      <c r="AI109" s="11"/>
-      <c r="AJ109" s="11"/>
-      <c r="AK109" s="11"/>
-      <c r="AL109" s="11"/>
-      <c r="AM109" s="11"/>
-      <c r="AN109" s="11"/>
-      <c r="AO109" s="11"/>
-      <c r="AP109" s="11"/>
-      <c r="AQ109" s="11"/>
-      <c r="AR109" s="11"/>
-      <c r="AS109" s="11"/>
-      <c r="AT109" s="11"/>
-      <c r="AU109" s="11"/>
-      <c r="AV109" s="11"/>
-      <c r="AW109" s="11"/>
-      <c r="AX109" s="11"/>
-      <c r="AY109" s="11"/>
-      <c r="AZ109" s="11"/>
-      <c r="BA109" s="11"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="9"/>
+      <c r="AC109" s="9"/>
+      <c r="AD109" s="9"/>
+      <c r="AE109" s="9"/>
+      <c r="AF109" s="9"/>
+      <c r="AG109" s="9"/>
+      <c r="AH109" s="9"/>
+      <c r="AI109" s="9"/>
+      <c r="AJ109" s="9"/>
+      <c r="AK109" s="9"/>
+      <c r="AL109" s="9"/>
+      <c r="AM109" s="9"/>
+      <c r="AN109" s="9"/>
+      <c r="AO109" s="9"/>
+      <c r="AP109" s="9"/>
+      <c r="AQ109" s="9"/>
+      <c r="AR109" s="9"/>
+      <c r="AS109" s="9"/>
+      <c r="AT109" s="9"/>
+      <c r="AU109" s="9"/>
+      <c r="AV109" s="9"/>
+      <c r="AW109" s="9"/>
+      <c r="AX109" s="9"/>
+      <c r="AY109" s="9"/>
+      <c r="AZ109" s="9"/>
+      <c r="BA109" s="9"/>
     </row>
     <row r="110" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X110" s="11"/>
-      <c r="Y110" s="11"/>
-      <c r="Z110" s="11"/>
-      <c r="AA110" s="11"/>
-      <c r="AB110" s="11"/>
-      <c r="AC110" s="11"/>
-      <c r="AD110" s="11"/>
-      <c r="AE110" s="11"/>
-      <c r="AF110" s="11"/>
-      <c r="AG110" s="11"/>
-      <c r="AH110" s="11"/>
-      <c r="AI110" s="11"/>
-      <c r="AJ110" s="11"/>
-      <c r="AK110" s="11"/>
-      <c r="AL110" s="11"/>
-      <c r="AM110" s="11"/>
-      <c r="AN110" s="11"/>
-      <c r="AO110" s="11"/>
-      <c r="AP110" s="11"/>
-      <c r="AQ110" s="11"/>
-      <c r="AR110" s="11"/>
-      <c r="AS110" s="11"/>
-      <c r="AT110" s="11"/>
-      <c r="AU110" s="11"/>
-      <c r="AV110" s="11"/>
-      <c r="AW110" s="11"/>
-      <c r="AX110" s="11"/>
-      <c r="AY110" s="11"/>
-      <c r="AZ110" s="11"/>
-      <c r="BA110" s="11"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
+      <c r="AA110" s="9"/>
+      <c r="AB110" s="9"/>
+      <c r="AC110" s="9"/>
+      <c r="AD110" s="9"/>
+      <c r="AE110" s="9"/>
+      <c r="AF110" s="9"/>
+      <c r="AG110" s="9"/>
+      <c r="AH110" s="9"/>
+      <c r="AI110" s="9"/>
+      <c r="AJ110" s="9"/>
+      <c r="AK110" s="9"/>
+      <c r="AL110" s="9"/>
+      <c r="AM110" s="9"/>
+      <c r="AN110" s="9"/>
+      <c r="AO110" s="9"/>
+      <c r="AP110" s="9"/>
+      <c r="AQ110" s="9"/>
+      <c r="AR110" s="9"/>
+      <c r="AS110" s="9"/>
+      <c r="AT110" s="9"/>
+      <c r="AU110" s="9"/>
+      <c r="AV110" s="9"/>
+      <c r="AW110" s="9"/>
+      <c r="AX110" s="9"/>
+      <c r="AY110" s="9"/>
+      <c r="AZ110" s="9"/>
+      <c r="BA110" s="9"/>
     </row>
     <row r="111" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X111" s="11"/>
-      <c r="Y111" s="11"/>
-      <c r="Z111" s="11"/>
-      <c r="AA111" s="11"/>
-      <c r="AB111" s="11"/>
-      <c r="AC111" s="11"/>
-      <c r="AD111" s="11"/>
-      <c r="AE111" s="11"/>
-      <c r="AF111" s="11"/>
-      <c r="AG111" s="11"/>
-      <c r="AH111" s="11"/>
-      <c r="AI111" s="11"/>
-      <c r="AJ111" s="11"/>
-      <c r="AK111" s="11"/>
-      <c r="AL111" s="11"/>
-      <c r="AM111" s="11"/>
-      <c r="AN111" s="11"/>
-      <c r="AO111" s="11"/>
-      <c r="AP111" s="11"/>
-      <c r="AQ111" s="11"/>
-      <c r="AR111" s="11"/>
-      <c r="AS111" s="11"/>
-      <c r="AT111" s="11"/>
-      <c r="AU111" s="11"/>
-      <c r="AV111" s="11"/>
-      <c r="AW111" s="11"/>
-      <c r="AX111" s="11"/>
-      <c r="AY111" s="11"/>
-      <c r="AZ111" s="11"/>
-      <c r="BA111" s="11"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="9"/>
+      <c r="AA111" s="9"/>
+      <c r="AB111" s="9"/>
+      <c r="AC111" s="9"/>
+      <c r="AD111" s="9"/>
+      <c r="AE111" s="9"/>
+      <c r="AF111" s="9"/>
+      <c r="AG111" s="9"/>
+      <c r="AH111" s="9"/>
+      <c r="AI111" s="9"/>
+      <c r="AJ111" s="9"/>
+      <c r="AK111" s="9"/>
+      <c r="AL111" s="9"/>
+      <c r="AM111" s="9"/>
+      <c r="AN111" s="9"/>
+      <c r="AO111" s="9"/>
+      <c r="AP111" s="9"/>
+      <c r="AQ111" s="9"/>
+      <c r="AR111" s="9"/>
+      <c r="AS111" s="9"/>
+      <c r="AT111" s="9"/>
+      <c r="AU111" s="9"/>
+      <c r="AV111" s="9"/>
+      <c r="AW111" s="9"/>
+      <c r="AX111" s="9"/>
+      <c r="AY111" s="9"/>
+      <c r="AZ111" s="9"/>
+      <c r="BA111" s="9"/>
     </row>
     <row r="112" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X112" s="11"/>
-      <c r="Y112" s="11"/>
-      <c r="Z112" s="11"/>
-      <c r="AA112" s="11"/>
-      <c r="AB112" s="11"/>
-      <c r="AC112" s="11"/>
-      <c r="AD112" s="11"/>
-      <c r="AE112" s="11"/>
-      <c r="AF112" s="11"/>
-      <c r="AG112" s="11"/>
-      <c r="AH112" s="11"/>
-      <c r="AI112" s="11"/>
-      <c r="AJ112" s="11"/>
-      <c r="AK112" s="11"/>
-      <c r="AL112" s="11"/>
-      <c r="AM112" s="11"/>
-      <c r="AN112" s="11"/>
-      <c r="AO112" s="11"/>
-      <c r="AP112" s="11"/>
-      <c r="AQ112" s="11"/>
-      <c r="AR112" s="11"/>
-      <c r="AS112" s="11"/>
-      <c r="AT112" s="11"/>
-      <c r="AU112" s="11"/>
-      <c r="AV112" s="11"/>
-      <c r="AW112" s="11"/>
-      <c r="AX112" s="11"/>
-      <c r="AY112" s="11"/>
-      <c r="AZ112" s="11"/>
-      <c r="BA112" s="11"/>
+      <c r="X112" s="9"/>
+      <c r="Y112" s="9"/>
+      <c r="Z112" s="9"/>
+      <c r="AA112" s="9"/>
+      <c r="AB112" s="9"/>
+      <c r="AC112" s="9"/>
+      <c r="AD112" s="9"/>
+      <c r="AE112" s="9"/>
+      <c r="AF112" s="9"/>
+      <c r="AG112" s="9"/>
+      <c r="AH112" s="9"/>
+      <c r="AI112" s="9"/>
+      <c r="AJ112" s="9"/>
+      <c r="AK112" s="9"/>
+      <c r="AL112" s="9"/>
+      <c r="AM112" s="9"/>
+      <c r="AN112" s="9"/>
+      <c r="AO112" s="9"/>
+      <c r="AP112" s="9"/>
+      <c r="AQ112" s="9"/>
+      <c r="AR112" s="9"/>
+      <c r="AS112" s="9"/>
+      <c r="AT112" s="9"/>
+      <c r="AU112" s="9"/>
+      <c r="AV112" s="9"/>
+      <c r="AW112" s="9"/>
+      <c r="AX112" s="9"/>
+      <c r="AY112" s="9"/>
+      <c r="AZ112" s="9"/>
+      <c r="BA112" s="9"/>
     </row>
     <row r="113" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X113" s="11"/>
-      <c r="Y113" s="11"/>
-      <c r="Z113" s="11"/>
-      <c r="AA113" s="11"/>
-      <c r="AB113" s="11"/>
-      <c r="AC113" s="11"/>
-      <c r="AD113" s="11"/>
-      <c r="AE113" s="11"/>
-      <c r="AF113" s="11"/>
-      <c r="AG113" s="11"/>
-      <c r="AH113" s="11"/>
-      <c r="AI113" s="11"/>
-      <c r="AJ113" s="11"/>
-      <c r="AK113" s="11"/>
-      <c r="AL113" s="11"/>
-      <c r="AM113" s="11"/>
-      <c r="AN113" s="11"/>
-      <c r="AO113" s="11"/>
-      <c r="AP113" s="11"/>
-      <c r="AQ113" s="11"/>
-      <c r="AR113" s="11"/>
-      <c r="AS113" s="11"/>
-      <c r="AT113" s="11"/>
-      <c r="AU113" s="11"/>
-      <c r="AV113" s="11"/>
-      <c r="AW113" s="11"/>
-      <c r="AX113" s="11"/>
-      <c r="AY113" s="11"/>
-      <c r="AZ113" s="11"/>
-      <c r="BA113" s="11"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
+      <c r="AA113" s="9"/>
+      <c r="AB113" s="9"/>
+      <c r="AC113" s="9"/>
+      <c r="AD113" s="9"/>
+      <c r="AE113" s="9"/>
+      <c r="AF113" s="9"/>
+      <c r="AG113" s="9"/>
+      <c r="AH113" s="9"/>
+      <c r="AI113" s="9"/>
+      <c r="AJ113" s="9"/>
+      <c r="AK113" s="9"/>
+      <c r="AL113" s="9"/>
+      <c r="AM113" s="9"/>
+      <c r="AN113" s="9"/>
+      <c r="AO113" s="9"/>
+      <c r="AP113" s="9"/>
+      <c r="AQ113" s="9"/>
+      <c r="AR113" s="9"/>
+      <c r="AS113" s="9"/>
+      <c r="AT113" s="9"/>
+      <c r="AU113" s="9"/>
+      <c r="AV113" s="9"/>
+      <c r="AW113" s="9"/>
+      <c r="AX113" s="9"/>
+      <c r="AY113" s="9"/>
+      <c r="AZ113" s="9"/>
+      <c r="BA113" s="9"/>
     </row>
     <row r="114" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X114" s="11"/>
-      <c r="Y114" s="11"/>
-      <c r="Z114" s="11"/>
-      <c r="AA114" s="11"/>
-      <c r="AB114" s="11"/>
-      <c r="AC114" s="11"/>
-      <c r="AD114" s="11"/>
-      <c r="AE114" s="11"/>
-      <c r="AF114" s="11"/>
-      <c r="AG114" s="11"/>
-      <c r="AH114" s="11"/>
-      <c r="AI114" s="11"/>
-      <c r="AJ114" s="11"/>
-      <c r="AK114" s="11"/>
-      <c r="AL114" s="11"/>
-      <c r="AM114" s="11"/>
-      <c r="AN114" s="11"/>
-      <c r="AO114" s="11"/>
-      <c r="AP114" s="11"/>
-      <c r="AQ114" s="11"/>
-      <c r="AR114" s="11"/>
-      <c r="AS114" s="11"/>
-      <c r="AT114" s="11"/>
-      <c r="AU114" s="11"/>
-      <c r="AV114" s="11"/>
-      <c r="AW114" s="11"/>
-      <c r="AX114" s="11"/>
-      <c r="AY114" s="11"/>
-      <c r="AZ114" s="11"/>
-      <c r="BA114" s="11"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="9"/>
+      <c r="AA114" s="9"/>
+      <c r="AB114" s="9"/>
+      <c r="AC114" s="9"/>
+      <c r="AD114" s="9"/>
+      <c r="AE114" s="9"/>
+      <c r="AF114" s="9"/>
+      <c r="AG114" s="9"/>
+      <c r="AH114" s="9"/>
+      <c r="AI114" s="9"/>
+      <c r="AJ114" s="9"/>
+      <c r="AK114" s="9"/>
+      <c r="AL114" s="9"/>
+      <c r="AM114" s="9"/>
+      <c r="AN114" s="9"/>
+      <c r="AO114" s="9"/>
+      <c r="AP114" s="9"/>
+      <c r="AQ114" s="9"/>
+      <c r="AR114" s="9"/>
+      <c r="AS114" s="9"/>
+      <c r="AT114" s="9"/>
+      <c r="AU114" s="9"/>
+      <c r="AV114" s="9"/>
+      <c r="AW114" s="9"/>
+      <c r="AX114" s="9"/>
+      <c r="AY114" s="9"/>
+      <c r="AZ114" s="9"/>
+      <c r="BA114" s="9"/>
     </row>
     <row r="115" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="X115" s="11"/>
-      <c r="Y115" s="11"/>
-      <c r="Z115" s="11"/>
-      <c r="AA115" s="11"/>
-      <c r="AB115" s="11"/>
-      <c r="AC115" s="11"/>
-      <c r="AD115" s="11"/>
-      <c r="AE115" s="11"/>
-      <c r="AF115" s="11"/>
-      <c r="AG115" s="11"/>
-      <c r="AH115" s="11"/>
-      <c r="AI115" s="11"/>
-      <c r="AJ115" s="11"/>
-      <c r="AK115" s="11"/>
-      <c r="AL115" s="11"/>
-      <c r="AM115" s="11"/>
-      <c r="AN115" s="11"/>
-      <c r="AO115" s="11"/>
-      <c r="AP115" s="11"/>
-      <c r="AQ115" s="11"/>
-      <c r="AR115" s="11"/>
-      <c r="AS115" s="11"/>
-      <c r="AT115" s="11"/>
-      <c r="AU115" s="11"/>
-      <c r="AV115" s="11"/>
-      <c r="AW115" s="11"/>
-      <c r="AX115" s="11"/>
-      <c r="AY115" s="11"/>
-      <c r="AZ115" s="11"/>
-      <c r="BA115" s="11"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="9"/>
+      <c r="AA115" s="9"/>
+      <c r="AB115" s="9"/>
+      <c r="AC115" s="9"/>
+      <c r="AD115" s="9"/>
+      <c r="AE115" s="9"/>
+      <c r="AF115" s="9"/>
+      <c r="AG115" s="9"/>
+      <c r="AH115" s="9"/>
+      <c r="AI115" s="9"/>
+      <c r="AJ115" s="9"/>
+      <c r="AK115" s="9"/>
+      <c r="AL115" s="9"/>
+      <c r="AM115" s="9"/>
+      <c r="AN115" s="9"/>
+      <c r="AO115" s="9"/>
+      <c r="AP115" s="9"/>
+      <c r="AQ115" s="9"/>
+      <c r="AR115" s="9"/>
+      <c r="AS115" s="9"/>
+      <c r="AT115" s="9"/>
+      <c r="AU115" s="9"/>
+      <c r="AV115" s="9"/>
+      <c r="AW115" s="9"/>
+      <c r="AX115" s="9"/>
+      <c r="AY115" s="9"/>
+      <c r="AZ115" s="9"/>
+      <c r="BA115" s="9"/>
     </row>
     <row r="116" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="AP116" s="11"/>
-      <c r="AQ116" s="11"/>
-      <c r="AR116" s="11"/>
-      <c r="AS116" s="11"/>
-      <c r="AT116" s="11"/>
-      <c r="AU116" s="11"/>
-      <c r="AV116" s="11"/>
-      <c r="AW116" s="11"/>
-      <c r="AX116" s="11"/>
-      <c r="AY116" s="11"/>
-      <c r="AZ116" s="11"/>
-      <c r="BA116" s="11"/>
+      <c r="AP116" s="9"/>
+      <c r="AQ116" s="9"/>
+      <c r="AR116" s="9"/>
+      <c r="AS116" s="9"/>
+      <c r="AT116" s="9"/>
+      <c r="AU116" s="9"/>
+      <c r="AV116" s="9"/>
+      <c r="AW116" s="9"/>
+      <c r="AX116" s="9"/>
+      <c r="AY116" s="9"/>
+      <c r="AZ116" s="9"/>
+      <c r="BA116" s="9"/>
     </row>
     <row r="117" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="AP117" s="11"/>
-      <c r="AQ117" s="11"/>
-      <c r="AR117" s="11"/>
-      <c r="AS117" s="11"/>
-      <c r="AT117" s="11"/>
-      <c r="AU117" s="11"/>
-      <c r="AV117" s="11"/>
-      <c r="AW117" s="11"/>
-      <c r="AX117" s="11"/>
-      <c r="AY117" s="11"/>
-      <c r="AZ117" s="11"/>
-      <c r="BA117" s="11"/>
+      <c r="AP117" s="9"/>
+      <c r="AQ117" s="9"/>
+      <c r="AR117" s="9"/>
+      <c r="AS117" s="9"/>
+      <c r="AT117" s="9"/>
+      <c r="AU117" s="9"/>
+      <c r="AV117" s="9"/>
+      <c r="AW117" s="9"/>
+      <c r="AX117" s="9"/>
+      <c r="AY117" s="9"/>
+      <c r="AZ117" s="9"/>
+      <c r="BA117" s="9"/>
     </row>
     <row r="118" spans="24:53" x14ac:dyDescent="0.2">
-      <c r="AP118" s="11"/>
-      <c r="AQ118" s="11"/>
-      <c r="AR118" s="11"/>
-      <c r="AS118" s="11"/>
-      <c r="AT118" s="11"/>
-      <c r="AU118" s="11"/>
-      <c r="AV118" s="11"/>
-      <c r="AW118" s="11"/>
-      <c r="AX118" s="11"/>
-      <c r="AY118" s="11"/>
-      <c r="AZ118" s="11"/>
-      <c r="BA118" s="11"/>
+      <c r="AP118" s="9"/>
+      <c r="AQ118" s="9"/>
+      <c r="AR118" s="9"/>
+      <c r="AS118" s="9"/>
+      <c r="AT118" s="9"/>
+      <c r="AU118" s="9"/>
+      <c r="AV118" s="9"/>
+      <c r="AW118" s="9"/>
+      <c r="AX118" s="9"/>
+      <c r="AY118" s="9"/>
+      <c r="AZ118" s="9"/>
+      <c r="BA118" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="AB32:AI32"/>
     <mergeCell ref="AB31:AI31"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="AF65:AH65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF186B2-7B14-3545-83DC-B5216940CEF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319021F-C084-1148-B89B-6CE7D4D2A121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
   </bookViews>
@@ -10339,7 +10339,7 @@
   <dimension ref="A1:BA118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AZ51" sqref="AZ51"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319021F-C084-1148-B89B-6CE7D4D2A121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{B377B83C-EE86-764C-BFFA-E68BAA1D5C5D}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="RSystemDesign" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -109,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,14 +262,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,7 +279,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,7 +314,7 @@
         <xdr:cNvPr id="1082" name="Group 1081">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50480BC5-80E3-C047-B403-5B4A15E75157}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50480BC5-80E3-C047-B403-5B4A15E75157}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -328,8 +322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4480691" y="7003747"/>
-          <a:ext cx="3384238" cy="7238396"/>
+          <a:off x="4473132" y="7147378"/>
+          <a:ext cx="3378189" cy="7155242"/>
           <a:chOff x="3653175" y="6503810"/>
           <a:chExt cx="3388269" cy="7252072"/>
         </a:xfrm>
@@ -339,7 +333,7 @@
           <xdr:cNvPr id="159" name="Rounded Rectangle 158">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECCFA98-439C-E84B-8F1A-E0E54A1E1884}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7ECCFA98-439C-E84B-8F1A-E0E54A1E1884}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -510,84 +504,7 @@
           </a:p>
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -790,7 +707,7 @@
           <xdr:cNvPr id="4" name="Group 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3A5137-6644-E74C-83CE-E5AD2F01E750}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F3A5137-6644-E74C-83CE-E5AD2F01E750}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -809,7 +726,7 @@
             <xdr:cNvPr id="161" name="Rounded Rectangle 160">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62306583-A3B9-E441-8A67-F536BB02C808}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62306583-A3B9-E441-8A67-F536BB02C808}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -875,7 +792,7 @@
             <xdr:cNvPr id="169" name="Rounded Rectangle 168">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF172B3D-5D93-FE41-9165-F0FCF9257DBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF172B3D-5D93-FE41-9165-F0FCF9257DBD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -944,7 +861,7 @@
             <xdr:cNvPr id="171" name="Rounded Rectangle 170">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194479BD-B2C7-8143-810E-7D86D214CB71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{194479BD-B2C7-8143-810E-7D86D214CB71}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1014,7 +931,7 @@
           <xdr:cNvPr id="309" name="Rounded Rectangle 308">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C089DF-A58C-1B45-B92B-E67D43D8D975}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07C089DF-A58C-1B45-B92B-E67D43D8D975}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1022,7 +939,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4086041" y="9538399"/>
+            <a:off x="4086041" y="11721964"/>
             <a:ext cx="2553947" cy="382169"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1073,7 +990,7 @@
           <xdr:cNvPr id="310" name="Rounded Rectangle 309">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0F55BE-BC24-824E-A87F-817CAA809D7E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C0F55BE-BC24-824E-A87F-817CAA809D7E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1081,7 +998,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4035136" y="10578026"/>
+            <a:off x="4035136" y="12761591"/>
             <a:ext cx="2553947" cy="382170"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1132,7 +1049,7 @@
           <xdr:cNvPr id="311" name="Rounded Rectangle 310">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E14F0A-A6AF-C440-B411-094E3E16AFF9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01E14F0A-A6AF-C440-B411-094E3E16AFF9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1140,7 +1057,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4047862" y="10063067"/>
+            <a:off x="4047862" y="12246632"/>
             <a:ext cx="2566673" cy="382169"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1207,7 +1124,7 @@
         <xdr:cNvPr id="1083" name="Group 1082">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708AA4AB-EB18-A649-A517-2F8F4FF45FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{708AA4AB-EB18-A649-A517-2F8F4FF45FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,8 +1132,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9228677" y="6516913"/>
-          <a:ext cx="3384237" cy="4005943"/>
+          <a:off x="9212046" y="6675663"/>
+          <a:ext cx="3378190" cy="3907669"/>
           <a:chOff x="8407209" y="6016978"/>
           <a:chExt cx="3388269" cy="4004615"/>
         </a:xfrm>
@@ -1226,7 +1143,7 @@
           <xdr:cNvPr id="167" name="Rounded Rectangle 166">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD5E2EC-93EC-0F4E-85D6-06B3D8CB4724}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBD5E2EC-93EC-0F4E-85D6-06B3D8CB4724}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1435,7 +1352,7 @@
           <xdr:cNvPr id="173" name="Rounded Rectangle 172">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAA0339-7B8D-D84C-9452-FEF1141DAFF1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DAA0339-7B8D-D84C-9452-FEF1141DAFF1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1494,7 +1411,7 @@
           <xdr:cNvPr id="174" name="Rounded Rectangle 173">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD3D207-85C9-F74E-A554-8087D19C9F45}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CD3D207-85C9-F74E-A554-8087D19C9F45}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1553,7 +1470,7 @@
           <xdr:cNvPr id="175" name="Rounded Rectangle 174">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51E763F-6A98-DF4B-B500-F98635E3B7CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D51E763F-6A98-DF4B-B500-F98635E3B7CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1612,7 +1529,7 @@
           <xdr:cNvPr id="176" name="Rounded Rectangle 175">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239B44FF-27A2-A949-9BCE-6E263B88B1B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{239B44FF-27A2-A949-9BCE-6E263B88B1B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1687,7 +1604,7 @@
         <xdr:cNvPr id="1069" name="Group 1068">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F07E37F-BEB8-4541-8FD2-F7BB25CB24A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F07E37F-BEB8-4541-8FD2-F7BB25CB24A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,8 +1612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9202904" y="10868175"/>
-          <a:ext cx="3384237" cy="3918856"/>
+          <a:off x="9186273" y="10913532"/>
+          <a:ext cx="3378190" cy="3956654"/>
           <a:chOff x="8331200" y="15544800"/>
           <a:chExt cx="3360047" cy="3988451"/>
         </a:xfrm>
@@ -1714,7 +1631,7 @@
           <xdr:cNvPr id="177" name="Rounded Rectangle 176">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D52B57-9D65-4043-8F12-4E99EA0C820A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10D52B57-9D65-4043-8F12-4E99EA0C820A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1926,7 +1843,7 @@
           <xdr:cNvPr id="179" name="Rounded Rectangle 178">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705F7E89-5C30-AE46-B5F3-5B8A211CE991}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{705F7E89-5C30-AE46-B5F3-5B8A211CE991}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1934,7 +1851,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8694047" y="16688537"/>
+            <a:off x="8761898" y="16688537"/>
             <a:ext cx="2374900" cy="393700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1985,7 +1902,7 @@
           <xdr:cNvPr id="180" name="Rounded Rectangle 179">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D9CF92-283C-EE47-B80C-F36D765C6EB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5D9CF92-283C-EE47-B80C-F36D765C6EB9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2044,7 +1961,7 @@
           <xdr:cNvPr id="184" name="Rounded Rectangle 183">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CFB88B-BE40-2845-A838-299F9E54E85C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43CFB88B-BE40-2845-A838-299F9E54E85C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2103,7 +2020,7 @@
           <xdr:cNvPr id="186" name="Rounded Rectangle 185">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100CFA61-C7C8-0A4D-9E49-0D207F358160}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{100CFA61-C7C8-0A4D-9E49-0D207F358160}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2178,7 +2095,7 @@
         <xdr:cNvPr id="1084" name="Group 1083">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA89917-BF6E-E14E-B8F6-1C08437E8146}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FA89917-BF6E-E14E-B8F6-1C08437E8146}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,8 +2103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14049828" y="6466114"/>
-          <a:ext cx="5381978" cy="7065434"/>
+          <a:off x="14025637" y="6624864"/>
+          <a:ext cx="5371395" cy="6944481"/>
           <a:chOff x="12894733" y="5966178"/>
           <a:chExt cx="5389034" cy="7035590"/>
         </a:xfrm>
@@ -2197,7 +2114,7 @@
           <xdr:cNvPr id="187" name="Rounded Rectangle 186">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2527,7 +2444,7 @@
           <xdr:cNvPr id="189" name="Rounded Rectangle 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2586,7 +2503,7 @@
           <xdr:cNvPr id="190" name="Rounded Rectangle 189">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2645,7 +2562,7 @@
           <xdr:cNvPr id="191" name="Rounded Rectangle 190">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2704,7 +2621,7 @@
           <xdr:cNvPr id="194" name="Rounded Rectangle 193">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C952AAB-5F1E-1D4B-B691-D82A53DD4979}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C952AAB-5F1E-1D4B-B691-D82A53DD4979}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2763,7 +2680,7 @@
           <xdr:cNvPr id="196" name="Rounded Rectangle 195">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3250D696-7025-7B44-AE05-0BB7D5F144B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3250D696-7025-7B44-AE05-0BB7D5F144B6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2822,7 +2739,7 @@
           <xdr:cNvPr id="199" name="Rounded Rectangle 198">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EC042B-602C-BC43-9B30-AD55449FAA92}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36EC042B-602C-BC43-9B30-AD55449FAA92}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2897,7 +2814,7 @@
         <xdr:cNvPr id="20" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC17918-23FB-BE46-9F97-4A038DA29204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EC17918-23FB-BE46-9F97-4A038DA29204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,8 +2822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20304006" y="4720168"/>
-          <a:ext cx="10871199" cy="10517483"/>
+          <a:off x="20267720" y="4826001"/>
+          <a:ext cx="10862128" cy="10509924"/>
           <a:chOff x="16844551" y="9612295"/>
           <a:chExt cx="9220200" cy="9220200"/>
         </a:xfrm>
@@ -2916,7 +2833,7 @@
           <xdr:cNvPr id="6" name="Graphic 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B4114F-748B-8449-99D0-B590EC86FD96}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1B4114F-748B-8449-99D0-B590EC86FD96}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2925,10 +2842,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2959,7 +2876,7 @@
           <xdr:cNvPr id="200" name="Rectangle 199">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E257BF-E901-CB4B-9D4A-0A18CE831981}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1E257BF-E901-CB4B-9D4A-0A18CE831981}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3066,7 +2983,7 @@
         <xdr:cNvPr id="230" name="Straight Arrow Connector 229">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203B5619-69F3-2246-819E-2AD1CFDBF80A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{203B5619-69F3-2246-819E-2AD1CFDBF80A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3040,7 @@
         <xdr:cNvPr id="232" name="Straight Arrow Connector 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93176CFC-E993-0B4E-95D8-FA0EA3C15EC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93176CFC-E993-0B4E-95D8-FA0EA3C15EC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3097,7 @@
         <xdr:cNvPr id="234" name="Straight Arrow Connector 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638F96A7-35EA-D448-BEA9-21F4397DC9C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{638F96A7-35EA-D448-BEA9-21F4397DC9C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3154,7 @@
         <xdr:cNvPr id="238" name="Straight Arrow Connector 237">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C0217D-C862-134C-BE74-FF4F105CB42F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01C0217D-C862-134C-BE74-FF4F105CB42F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3211,7 @@
         <xdr:cNvPr id="240" name="Straight Arrow Connector 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BC3206-8A61-4B4A-A39B-C0796EF03F4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13BC3206-8A61-4B4A-A39B-C0796EF03F4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3268,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875A65DC-0B9A-8E47-8D1E-5D7E11481AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{875A65DC-0B9A-8E47-8D1E-5D7E11481AED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,7 +3325,7 @@
         <xdr:cNvPr id="242" name="Straight Arrow Connector 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB23153-E20C-AF40-81CB-05806E6A6412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB23153-E20C-AF40-81CB-05806E6A6412}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,7 +3382,7 @@
         <xdr:cNvPr id="246" name="Straight Arrow Connector 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055870A8-FE32-6848-8666-E89C14CFE276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{055870A8-FE32-6848-8666-E89C14CFE276}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3439,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C73DA6-B4EF-B04C-911D-39B2796E17E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71C73DA6-B4EF-B04C-911D-39B2796E17E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,7 +3496,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,7 +3553,7 @@
         <xdr:cNvPr id="250" name="Straight Arrow Connector 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8F75D8-8176-9544-9293-18363AC316C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E8F75D8-8176-9544-9293-18363AC316C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,7 +3610,7 @@
         <xdr:cNvPr id="251" name="Straight Arrow Connector 250">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3D1C60-7ECE-C149-81A5-8A0FB2660976}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB3D1C60-7ECE-C149-81A5-8A0FB2660976}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +3667,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88894649-E449-814C-BB46-3EE419A28B60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88894649-E449-814C-BB46-3EE419A28B60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3807,7 +3724,7 @@
         <xdr:cNvPr id="262" name="Straight Arrow Connector 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8725711A-810C-7B48-9EC1-2267E0ADD429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8725711A-810C-7B48-9EC1-2267E0ADD429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3864,7 +3781,7 @@
         <xdr:cNvPr id="265" name="Straight Arrow Connector 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC91AEF-442D-F844-9225-C9D72D02105F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC91AEF-442D-F844-9225-C9D72D02105F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3921,7 +3838,7 @@
         <xdr:cNvPr id="268" name="Straight Arrow Connector 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E24346-F1AA-214B-912C-111790E4CDE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E24346-F1AA-214B-912C-111790E4CDE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3978,7 +3895,7 @@
         <xdr:cNvPr id="271" name="Straight Arrow Connector 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC2345-5143-F444-86BB-58FB87DEEE9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4DC2345-5143-F444-86BB-58FB87DEEE9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,7 +3952,7 @@
         <xdr:cNvPr id="275" name="Straight Arrow Connector 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018239AC-8CCB-9C49-892E-6F52A27F52E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{018239AC-8CCB-9C49-892E-6F52A27F52E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4009,7 @@
         <xdr:cNvPr id="277" name="Straight Arrow Connector 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D27669-F802-7D4D-9CF6-0B4EAD48E548}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27D27669-F802-7D4D-9CF6-0B4EAD48E548}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,7 +4066,7 @@
         <xdr:cNvPr id="280" name="Straight Arrow Connector 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7B1650-7DF6-EB4F-A65C-C9D88F25215A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA7B1650-7DF6-EB4F-A65C-C9D88F25215A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4191,22 +4108,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>318694</xdr:colOff>
+      <xdr:colOff>385749</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>166533</xdr:rowOff>
+      <xdr:rowOff>191669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>311970</xdr:colOff>
+      <xdr:colOff>312866</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>75013</xdr:rowOff>
+      <xdr:rowOff>133075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="285" name="Straight Arrow Connector 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B942567-F14C-E24C-80C8-ECEA31F1D13E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B942567-F14C-E24C-80C8-ECEA31F1D13E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,8 +4134,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11960361" y="8088914"/>
-          <a:ext cx="4982561" cy="4096456"/>
+          <a:off x="11974499" y="8219883"/>
+          <a:ext cx="4893724" cy="4023549"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4266,7 +4183,7 @@
         <xdr:cNvPr id="295" name="Straight Arrow Connector 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336E7CD6-5418-6242-AC0A-CBB573B38753}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{336E7CD6-5418-6242-AC0A-CBB573B38753}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4326,7 +4243,7 @@
         <xdr:cNvPr id="300" name="Straight Arrow Connector 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE184485-5149-574C-976B-506911474977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE184485-5149-574C-976B-506911474977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4386,7 +4303,7 @@
         <xdr:cNvPr id="331" name="Straight Arrow Connector 330">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566F5B8C-26C0-8D44-B401-91DD8085D17A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{566F5B8C-26C0-8D44-B401-91DD8085D17A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,22 +4348,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>318694</xdr:colOff>
+      <xdr:colOff>385749</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>136994</xdr:rowOff>
+      <xdr:rowOff>188903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>630271</xdr:colOff>
+      <xdr:colOff>630220</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>75013</xdr:rowOff>
+      <xdr:rowOff>133075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="344" name="Straight Arrow Connector 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B60ABA-2D65-204F-B57F-7E58424BF8B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B60ABA-2D65-204F-B57F-7E58424BF8B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4457,8 +4374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11960361" y="11824018"/>
-          <a:ext cx="3637767" cy="361352"/>
+          <a:off x="11974499" y="11891046"/>
+          <a:ext cx="3555542" cy="352386"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4506,7 +4423,7 @@
         <xdr:cNvPr id="381" name="Group 380">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216C2C1D-9CA2-B747-9944-BB151C8340A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{216C2C1D-9CA2-B747-9944-BB151C8340A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,8 +4431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9475878" y="18991540"/>
-          <a:ext cx="2401446" cy="3304443"/>
+          <a:off x="9459247" y="19233445"/>
+          <a:ext cx="2396910" cy="3426907"/>
           <a:chOff x="6914835" y="2298700"/>
           <a:chExt cx="2381566" cy="3407641"/>
         </a:xfrm>
@@ -4525,7 +4442,7 @@
           <xdr:cNvPr id="391" name="Rectangle 390">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40C6BAD-0D4B-D24F-9543-CF1FA4A6F2A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40C6BAD-0D4B-D24F-9543-CF1FA4A6F2A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4681,7 +4598,7 @@
           <xdr:cNvPr id="392" name="Picture 391" descr="Running Apache Kafka on Windows 10 | by Bivás Biswas | Towards ...">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB212C5-9AF2-5D4A-A8DF-BB2D594C5364}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEB212C5-9AF2-5D4A-A8DF-BB2D594C5364}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4693,7 +4610,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4720,7 +4637,7 @@
           </a:effectLst>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -4750,7 +4667,7 @@
         <xdr:cNvPr id="1076" name="Group 1075">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276888AF-FC1A-7F45-A47D-B9F2088B3DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276888AF-FC1A-7F45-A47D-B9F2088B3DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4758,8 +4675,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4599415" y="18956262"/>
-          <a:ext cx="2494643" cy="2378508"/>
+          <a:off x="4591856" y="19198167"/>
+          <a:ext cx="2490107" cy="2463174"/>
           <a:chOff x="4292600" y="18211800"/>
           <a:chExt cx="2476500" cy="2449465"/>
         </a:xfrm>
@@ -4769,7 +4686,7 @@
           <xdr:cNvPr id="397" name="Rectangle 396">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D1A9EE-ABC7-F24C-86C3-96814C434478}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47D1A9EE-ABC7-F24C-86C3-96814C434478}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4928,7 +4845,7 @@
           <xdr:cNvPr id="379" name="Picture 378" descr="Redis icon">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895EA87C-B408-C34E-8492-97CE753FE9DE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{895EA87C-B408-C34E-8492-97CE753FE9DE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4940,7 +4857,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4967,7 +4884,7 @@
           </a:effectLst>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -4997,7 +4914,7 @@
         <xdr:cNvPr id="417" name="Group 416">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D732CC6-D034-CA44-AF03-0D5737823720}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D732CC6-D034-CA44-AF03-0D5737823720}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5005,8 +4922,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32046534" y="4776609"/>
-          <a:ext cx="2831899" cy="3553985"/>
+          <a:off x="31999665" y="4882442"/>
+          <a:ext cx="2827364" cy="3546425"/>
           <a:chOff x="8336654" y="12268199"/>
           <a:chExt cx="2806700" cy="3657150"/>
         </a:xfrm>
@@ -5016,7 +4933,7 @@
           <xdr:cNvPr id="418" name="Rounded Rectangle 417">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965699A9-7CA0-544B-B852-39E2B86A079E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{965699A9-7CA0-544B-B852-39E2B86A079E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5214,7 +5131,7 @@
           <xdr:cNvPr id="419" name="Rounded Rectangle 418">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C99564-4FA2-DE4E-8642-0808E51FDAC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5C99564-4FA2-DE4E-8642-0808E51FDAC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5286,7 +5203,7 @@
           <xdr:cNvPr id="421" name="Rounded Rectangle 420">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3E2370-0D0A-124E-9E11-166F3FABEDF1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B3E2370-0D0A-124E-9E11-166F3FABEDF1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5361,7 +5278,7 @@
         <xdr:cNvPr id="1086" name="Group 1085">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C14806-4CA3-4D4F-A96F-40214825C2C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23C14806-4CA3-4D4F-A96F-40214825C2C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5369,8 +5286,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32053590" y="12330488"/>
-          <a:ext cx="2824843" cy="3272367"/>
+          <a:off x="32006721" y="12322928"/>
+          <a:ext cx="2820308" cy="3393320"/>
           <a:chOff x="30485644" y="12200466"/>
           <a:chExt cx="2827867" cy="3286969"/>
         </a:xfrm>
@@ -5380,7 +5297,7 @@
           <xdr:cNvPr id="424" name="Rounded Rectangle 423">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77E6446-0CB9-734D-A4D8-96073390F59D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E77E6446-0CB9-734D-A4D8-96073390F59D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5556,7 +5473,7 @@
           <xdr:cNvPr id="425" name="Rounded Rectangle 424">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A93A6B-0F6D-394B-9AA1-2470B4B71E9D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07A93A6B-0F6D-394B-9AA1-2470B4B71E9D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5615,7 +5532,7 @@
           <xdr:cNvPr id="426" name="Rounded Rectangle 425">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64139CAF-464B-D04B-9A44-62949819A1D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64139CAF-464B-D04B-9A44-62949819A1D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5690,7 +5607,7 @@
         <xdr:cNvPr id="1085" name="Group 1084">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD14F83-841E-3B4F-9A8C-CD81FECD2E29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD14F83-841E-3B4F-9A8C-CD81FECD2E29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5698,8 +5615,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32053590" y="8968713"/>
-          <a:ext cx="2824843" cy="2612475"/>
+          <a:off x="32006721" y="9044308"/>
+          <a:ext cx="2820308" cy="2559559"/>
           <a:chOff x="31267400" y="8235242"/>
           <a:chExt cx="2827867" cy="2614616"/>
         </a:xfrm>
@@ -5709,7 +5626,7 @@
           <xdr:cNvPr id="428" name="Rounded Rectangle 427">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43DC537-3A33-3A4D-A2A9-0C04BAF89CFA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F43DC537-3A33-3A4D-A2A9-0C04BAF89CFA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5885,7 +5802,7 @@
           <xdr:cNvPr id="429" name="Rounded Rectangle 428">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91718858-7895-9749-97EB-A1098D3A045D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91718858-7895-9749-97EB-A1098D3A045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5960,7 +5877,7 @@
         <xdr:cNvPr id="433" name="Straight Arrow Connector 432">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A75F5F-C62C-EA4E-A889-5BF855F5EF69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A75F5F-C62C-EA4E-A889-5BF855F5EF69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6017,7 +5934,7 @@
         <xdr:cNvPr id="321" name="Group 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65BE929-A822-EE49-BAC4-D5B229C5827B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65BE929-A822-EE49-BAC4-D5B229C5827B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6025,8 +5942,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4454072" y="4291793"/>
-          <a:ext cx="16526529" cy="1635882"/>
+          <a:off x="4446513" y="4382508"/>
+          <a:ext cx="16496291" cy="1696358"/>
           <a:chOff x="5080000" y="2963333"/>
           <a:chExt cx="16546688" cy="1643945"/>
         </a:xfrm>
@@ -6036,7 +5953,7 @@
           <xdr:cNvPr id="402" name="Magnetic Disk 401">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB588F2E-844B-C94A-BE2D-8EC6FFABAC95}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB588F2E-844B-C94A-BE2D-8EC6FFABAC95}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6102,7 +6019,7 @@
           <xdr:cNvPr id="403" name="Magnetic Disk 402">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6AFDB4-6E26-9547-AD8D-6DA7D4A0ECF3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE6AFDB4-6E26-9547-AD8D-6DA7D4A0ECF3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6168,7 +6085,7 @@
           <xdr:cNvPr id="404" name="Magnetic Disk 403">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97493D29-2BDD-4540-BD84-596AAABA08B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97493D29-2BDD-4540-BD84-596AAABA08B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6234,7 +6151,7 @@
           <xdr:cNvPr id="405" name="Magnetic Disk 404">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B47D21A-5F2E-D947-88A7-692072F8B60A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B47D21A-5F2E-D947-88A7-692072F8B60A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6300,7 +6217,7 @@
           <xdr:cNvPr id="406" name="Magnetic Disk 405">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF81425-EE45-0B4F-8771-102551EC3B73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FF81425-EE45-0B4F-8771-102551EC3B73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6366,7 +6283,7 @@
           <xdr:cNvPr id="407" name="Rounded Rectangle 406">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FA4414-C833-2646-8504-DD5491A13904}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93FA4414-C833-2646-8504-DD5491A13904}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6443,7 +6360,7 @@
           <xdr:cNvPr id="431" name="Magnetic Disk 430">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D0145A-8DAA-1449-9F5D-B2031DD02E31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24D0145A-8DAA-1449-9F5D-B2031DD02E31}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6509,7 +6426,7 @@
           <xdr:cNvPr id="441" name="Magnetic Disk 440">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493608F4-5246-E540-88DA-0BA3BB66B142}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{493608F4-5246-E540-88DA-0BA3BB66B142}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6576,13 +6493,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>317383</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>169127</xdr:rowOff>
+      <xdr:colOff>316975</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>159565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328420</xdr:colOff>
+      <xdr:colOff>327063</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
@@ -6591,7 +6508,7 @@
         <xdr:cNvPr id="442" name="Straight Arrow Connector 441">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BE5EB8-F4D5-A04E-B59D-879DA07EE5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52BE5EB8-F4D5-A04E-B59D-879DA07EE5D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6602,8 +6519,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6043146" y="10888788"/>
-          <a:ext cx="11037" cy="7448362"/>
+          <a:off x="6111350" y="13698672"/>
+          <a:ext cx="10088" cy="5499495"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6648,7 +6565,7 @@
         <xdr:cNvPr id="450" name="Straight Arrow Connector 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5EF63D-2089-6F4B-8144-8C031F2584D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E5EF63D-2089-6F4B-8144-8C031F2584D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6705,7 +6622,7 @@
         <xdr:cNvPr id="454" name="Rectangle 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE967C55-A66A-2D46-BFDB-31EFF67E489D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE967C55-A66A-2D46-BFDB-31EFF67E489D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6923,7 +6840,7 @@
         <xdr:cNvPr id="324" name="Picture 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D95467-D978-924F-9F6B-BA66D635B33B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9D95467-D978-924F-9F6B-BA66D635B33B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6932,7 +6849,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6975,7 +6892,7 @@
         <xdr:cNvPr id="461" name="Straight Arrow Connector 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6CB371-C2BE-CF4A-9724-0D9F04D628B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A6CB371-C2BE-CF4A-9724-0D9F04D628B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7032,7 +6949,7 @@
         <xdr:cNvPr id="483" name="Straight Arrow Connector 482">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B68623-A322-1C4C-B15A-083CD6C4F55C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B68623-A322-1C4C-B15A-083CD6C4F55C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7088,7 +7005,7 @@
         <xdr:cNvPr id="486" name="Straight Arrow Connector 485">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8BCCA6-02CA-214E-88B9-3EAE1C4B737D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF8BCCA6-02CA-214E-88B9-3EAE1C4B737D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7147,7 +7064,7 @@
         <xdr:cNvPr id="489" name="Straight Arrow Connector 488">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBF1DFF-7848-674B-BB38-7D6CE2B505B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCBF1DFF-7848-674B-BB38-7D6CE2B505B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7206,7 +7123,7 @@
         <xdr:cNvPr id="362" name="Group 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89196DA3-1495-6046-97E2-411F2B58C448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89196DA3-1495-6046-97E2-411F2B58C448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7214,8 +7131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="474074" y="7608675"/>
-          <a:ext cx="2247206" cy="2266194"/>
+          <a:off x="474074" y="7729627"/>
+          <a:ext cx="2242670" cy="2183040"/>
           <a:chOff x="208019" y="9388510"/>
           <a:chExt cx="2212770" cy="2377138"/>
         </a:xfrm>
@@ -7225,7 +7142,7 @@
           <xdr:cNvPr id="496" name="Rectangle 495">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF98590C-71EE-A948-AC63-0759C864B308}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF98590C-71EE-A948-AC63-0759C864B308}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7384,7 +7301,7 @@
           <xdr:cNvPr id="495" name="Graphic 494">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC1E48-7DF7-AC4C-B2F6-4CFACC7F52AB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13DC1E48-7DF7-AC4C-B2F6-4CFACC7F52AB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7393,10 +7310,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId7"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7424,7 +7341,7 @@
           <xdr:cNvPr id="497" name="Graphic 496">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA70258C-B10E-5043-9CC3-07CBC037F577}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA70258C-B10E-5043-9CC3-07CBC037F577}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7433,10 +7350,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId9"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7475,7 +7392,7 @@
         <xdr:cNvPr id="502" name="Rectangle 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2109533F-EC23-B84C-87A7-6BE6B7B7F541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2109533F-EC23-B84C-87A7-6BE6B7B7F541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7745,7 +7662,7 @@
         <xdr:cNvPr id="460" name="Picture 459">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8644C2C-AE85-544D-A6A4-031731659E61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8644C2C-AE85-544D-A6A4-031731659E61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7754,7 +7671,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:duotone>
             <a:schemeClr val="bg2">
               <a:shade val="45000"/>
@@ -7804,7 +7721,7 @@
         <xdr:cNvPr id="504" name="Rounded Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394D5C0E-76FF-4B4A-821B-CC63CAC282D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{394D5C0E-76FF-4B4A-821B-CC63CAC282D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7903,7 +7820,7 @@
         <xdr:cNvPr id="115" name="Straight Arrow Connector 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A02B88-451B-4A4C-A535-F754F8319BAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52A02B88-451B-4A4C-A535-F754F8319BAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7963,7 +7880,7 @@
         <xdr:cNvPr id="124" name="Group 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F16429-9B31-A74F-A4A8-B7629F6D2B95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F16429-9B31-A74F-A4A8-B7629F6D2B95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7971,8 +7888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13622262" y="680357"/>
-          <a:ext cx="10744200" cy="2730500"/>
+          <a:off x="13598071" y="703035"/>
+          <a:ext cx="10733617" cy="2760739"/>
           <a:chOff x="7416800" y="825500"/>
           <a:chExt cx="10744200" cy="2730500"/>
         </a:xfrm>
@@ -7982,7 +7899,7 @@
           <xdr:cNvPr id="125" name="Rectangle 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4154B796-B707-1643-B865-775F2E833820}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4154B796-B707-1643-B865-775F2E833820}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8090,7 +8007,7 @@
           <xdr:cNvPr id="126" name="Group 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF6239D-7BD0-6A4F-BFA8-2061A98D2368}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FF6239D-7BD0-6A4F-BFA8-2061A98D2368}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8109,7 +8026,7 @@
             <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECDC9EA-9288-2F49-80AD-3B860AF094FC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EECDC9EA-9288-2F49-80AD-3B860AF094FC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8148,7 +8065,7 @@
             <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4801EB1B-B7C9-0644-B47D-D37EDD029155}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4801EB1B-B7C9-0644-B47D-D37EDD029155}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8189,7 +8106,7 @@
             <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48799B7-B2B0-3141-B344-D6DDDBA42CD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D48799B7-B2B0-3141-B344-D6DDDBA42CD2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8228,7 +8145,7 @@
             <xdr:cNvPr id="136" name="Straight Arrow Connector 135">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2588D54D-3F90-D04A-9243-9DE6E6C26B2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2588D54D-3F90-D04A-9243-9DE6E6C26B2F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8271,7 +8188,7 @@
           <xdr:cNvPr id="127" name="Group 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16113A0F-C460-FF4D-9145-B9F3AB427B5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16113A0F-C460-FF4D-9145-B9F3AB427B5B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8290,7 +8207,7 @@
             <xdr:cNvPr id="129" name="Rectangle 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A65C566-0E4A-8349-BF17-9552A92D0296}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A65C566-0E4A-8349-BF17-9552A92D0296}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8375,7 +8292,7 @@
             <xdr:cNvPr id="130" name="Rounded Rectangle 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AF0BDB-45CD-2D4B-AF23-AF065E93C78C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5AF0BDB-45CD-2D4B-AF23-AF065E93C78C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8441,7 +8358,7 @@
             <xdr:cNvPr id="131" name="Rectangle 130">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265B21B5-5BB9-B049-A885-6BC7FBCC60F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265B21B5-5BB9-B049-A885-6BC7FBCC60F4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8528,7 +8445,7 @@
             <xdr:cNvPr id="132" name="Magnetic Disk 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B017D6-AE59-2045-916C-B558EEBC73FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00B017D6-AE59-2045-916C-B558EEBC73FF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8592,7 +8509,7 @@
           <xdr:cNvPr id="128" name="Rounded Rectangle 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088D29CB-DFD8-8549-9298-2515219F2121}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{088D29CB-DFD8-8549-9298-2515219F2121}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8649,6 +8566,527 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>589643</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527049</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>92715</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="203" name="Группа 202"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6399893" y="8357054"/>
+          <a:ext cx="3257549" cy="5070661"/>
+          <a:chOff x="6394290" y="8361057"/>
+          <a:chExt cx="3254347" cy="5201129"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="116" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="186" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6507683" y="8361057"/>
+            <a:ext cx="3140954" cy="3376295"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="119" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="186" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6530361" y="9067827"/>
+            <a:ext cx="3118276" cy="2669525"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="186" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6450987" y="9840099"/>
+            <a:ext cx="3197650" cy="1897253"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="141" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="179" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6485004" y="8417753"/>
+            <a:ext cx="3124325" cy="3963351"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="144" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="179" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6507683" y="9110650"/>
+            <a:ext cx="3101646" cy="3270454"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="147" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="179" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6428309" y="9862778"/>
+            <a:ext cx="3181020" cy="2518326"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="155" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="184" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6439647" y="8449235"/>
+            <a:ext cx="3127116" cy="4528013"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="156" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="184" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6485004" y="9144667"/>
+            <a:ext cx="3081759" cy="3832581"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="157" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="184" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6394290" y="9908135"/>
+            <a:ext cx="3172473" cy="3069113"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="185" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="180" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6450986" y="9874117"/>
+            <a:ext cx="3179449" cy="3688069"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="188" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="180" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6519022" y="9121989"/>
+            <a:ext cx="3111413" cy="4440197"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="192" name="Straight Arrow Connector 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="180" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6473665" y="8383735"/>
+            <a:ext cx="3156770" cy="5178451"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8672,7 +9110,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DFEC0C-64CC-A544-AAEC-2706741FF457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2DFEC0C-64CC-A544-AAEC-2706741FF457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8691,7 +9129,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7CD4D4-4197-7243-8D19-18F2A73E2D5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C7CD4D4-4197-7243-8D19-18F2A73E2D5B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8848,7 +9286,7 @@
           <xdr:cNvPr id="4" name="Picture 3" descr="Redis icon">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9856B0-7D7C-EB4F-8DA7-BF6E2F59CF41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF9856B0-7D7C-EB4F-8DA7-BF6E2F59CF41}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8860,7 +9298,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8880,7 +9318,7 @@
           <a:noFill/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -8910,7 +9348,7 @@
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C26D63-3EAC-5343-B5C0-7465F755E9B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6C26D63-3EAC-5343-B5C0-7465F755E9B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8929,7 +9367,7 @@
           <xdr:cNvPr id="6" name="Rectangle 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA2E11C-FD3D-EA4F-AD69-B75E2B896D8B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFA2E11C-FD3D-EA4F-AD69-B75E2B896D8B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9129,7 +9567,7 @@
           <xdr:cNvPr id="7" name="Picture 6" descr="Running Apache Kafka on Windows 10 | by Bivás Biswas | Towards ...">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA7BD74-C1D3-AD49-83D7-DC1EC4A2C440}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEA7BD74-C1D3-AD49-83D7-DC1EC4A2C440}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9141,7 +9579,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -9161,7 +9599,7 @@
           <a:noFill/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -9191,7 +9629,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22ABB78E-4400-3C49-AC6F-B60B3F57ECD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22ABB78E-4400-3C49-AC6F-B60B3F57ECD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9200,7 +9638,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:duotone>
             <a:schemeClr val="bg2">
               <a:shade val="45000"/>
@@ -9243,7 +9681,7 @@
         <xdr:cNvPr id="9" name="Graphic 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEE3CF2-D900-AF41-BFAF-475EBCCD840C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CEE3CF2-D900-AF41-BFAF-475EBCCD840C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9252,10 +9690,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId5"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9300,7 +9738,7 @@
         <xdr:cNvPr id="11" name="Graphic 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADCD72C-9A14-3946-8EDF-2DCEF2433BFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CADCD72C-9A14-3946-8EDF-2DCEF2433BFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9309,10 +9747,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9350,7 +9788,7 @@
         <xdr:cNvPr id="38" name="Group 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DD0467-14A4-A049-9972-F30EB711C9FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11DD0467-14A4-A049-9972-F30EB711C9FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9369,7 +9807,7 @@
           <xdr:cNvPr id="14" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0D20BF-8DB8-5B43-8AC1-9E866E21B1C2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB0D20BF-8DB8-5B43-8AC1-9E866E21B1C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9477,7 +9915,7 @@
           <xdr:cNvPr id="36" name="Group 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE3DD64-49C8-1141-9EC3-611B28AA9777}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDE3DD64-49C8-1141-9EC3-611B28AA9777}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9496,7 +9934,7 @@
             <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358DA170-A732-F847-8AC7-213D2341E60A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{358DA170-A732-F847-8AC7-213D2341E60A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9535,7 +9973,7 @@
             <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F238C8E-955F-F04D-A251-027FDFA32935}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F238C8E-955F-F04D-A251-027FDFA32935}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9576,7 +10014,7 @@
             <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3F42AF-3D36-404B-9D9C-4563A0B20916}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F3F42AF-3D36-404B-9D9C-4563A0B20916}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9615,7 +10053,7 @@
             <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1831F6AB-97BC-384F-A13A-B119E9EA682C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1831F6AB-97BC-384F-A13A-B119E9EA682C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9658,7 +10096,7 @@
           <xdr:cNvPr id="37" name="Group 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2671E30C-8F33-F94F-8B1F-B8991FC94693}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2671E30C-8F33-F94F-8B1F-B8991FC94693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9677,7 +10115,7 @@
             <xdr:cNvPr id="28" name="Rectangle 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2EAD9B-C362-D04D-8D39-CE930A01C0EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA2EAD9B-C362-D04D-8D39-CE930A01C0EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9762,7 +10200,7 @@
             <xdr:cNvPr id="29" name="Rounded Rectangle 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BACC33-BA03-1D43-82AF-0EA38CD4B08A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5BACC33-BA03-1D43-82AF-0EA38CD4B08A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9828,7 +10266,7 @@
             <xdr:cNvPr id="30" name="Rectangle 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF207838-520B-1F4D-A17C-0FCE2A2F4C4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF207838-520B-1F4D-A17C-0FCE2A2F4C4C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9915,7 +10353,7 @@
             <xdr:cNvPr id="31" name="Magnetic Disk 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7458DF-8C19-1042-A8D9-37B309E80897}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A7458DF-8C19-1042-A8D9-37B309E80897}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9979,7 +10417,7 @@
           <xdr:cNvPr id="32" name="Rounded Rectangle 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2326A89F-2C69-C741-ABE7-5B43854DD48C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2326A89F-2C69-C741-ABE7-5B43854DD48C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10082,7 +10520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -10134,7 +10572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -10328,41 +10766,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418F5B1-9DD0-8349-B469-8AF4836345C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="27" width="10.83203125" style="1"/>
+    <col min="1" max="27" width="10.875" style="1"/>
     <col min="28" max="28" width="8" style="1" customWidth="1"/>
-    <col min="29" max="30" width="10.83203125" style="1"/>
+    <col min="29" max="30" width="10.875" style="1"/>
     <col min="31" max="31" width="7" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="32" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="8"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -10372,18 +10810,18 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+    <row r="2" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="11"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -10393,7 +10831,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -10413,7 +10851,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
@@ -10428,7 +10866,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
@@ -10443,46 +10881,46 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="15" customFormat="1" ht="21">
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="15" customFormat="1" ht="21">
       <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+    <row r="8" spans="1:19" s="15" customFormat="1" ht="21"/>
+    <row r="9" spans="1:19" s="15" customFormat="1" ht="21">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="15" customFormat="1" ht="21">
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="21">
       <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="9" customFormat="1" ht="21">
       <c r="B12" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="9" customFormat="1"/>
+    <row r="14" spans="1:19">
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="27" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:37">
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -10496,7 +10934,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:37">
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -10510,7 +10948,7 @@
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
     </row>
-    <row r="29" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:37">
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -10524,7 +10962,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:37" ht="16.5">
       <c r="F30" s="2"/>
       <c r="M30" s="2"/>
       <c r="Z30" s="9"/>
@@ -10540,43 +10978,43 @@
       <c r="AJ30" s="9"/>
       <c r="AK30" s="9"/>
     </row>
-    <row r="31" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:37" ht="16.5">
       <c r="F31" s="2"/>
       <c r="M31" s="2"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
-      <c r="AB31" s="18" t="s">
+      <c r="AB31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:37" ht="16.5">
       <c r="F32" s="2"/>
       <c r="M32" s="2"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
-      <c r="AB32" s="18" t="s">
+      <c r="AB32" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="18"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9"/>
     </row>
-    <row r="33" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:37" ht="16.5">
       <c r="F33" s="2"/>
       <c r="M33" s="2"/>
       <c r="Z33" s="9"/>
@@ -10592,7 +11030,7 @@
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
     </row>
-    <row r="34" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:37" ht="16.5">
       <c r="F34" s="2"/>
       <c r="M34" s="2"/>
       <c r="AC34" s="20" t="s">
@@ -10601,7 +11039,7 @@
       <c r="AD34" s="20"/>
       <c r="AE34" s="20"/>
     </row>
-    <row r="35" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:37" ht="16.5">
       <c r="F35" s="2"/>
       <c r="M35" s="2"/>
       <c r="AC35" s="3" t="s">
@@ -10614,7 +11052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:37" ht="16.5">
       <c r="F36" s="2"/>
       <c r="AC36" s="4" t="s">
         <v>12</v>
@@ -10626,7 +11064,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:37" ht="16.5">
       <c r="F37" s="2"/>
       <c r="AC37" s="4" t="s">
         <v>12</v>
@@ -10638,7 +11076,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:37" ht="16.5">
       <c r="F38" s="2"/>
       <c r="AC38" s="4" t="s">
         <v>12</v>
@@ -10650,7 +11088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:37" ht="16.5">
       <c r="F39" s="2"/>
       <c r="AC39" s="4" t="s">
         <v>12</v>
@@ -10662,7 +11100,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:37" ht="16.5">
       <c r="F40" s="2"/>
       <c r="AC40" s="4" t="s">
         <v>12</v>
@@ -10674,7 +11112,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="41" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:37" ht="16.5">
       <c r="F41" s="2"/>
       <c r="AC41" s="4" t="s">
         <v>12</v>
@@ -10686,7 +11124,7 @@
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:37" ht="16.5">
       <c r="F42" s="2"/>
       <c r="AC42" s="4" t="s">
         <v>12</v>
@@ -10698,7 +11136,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:37" ht="16.5">
       <c r="F43" s="2"/>
       <c r="AC43" s="4" t="s">
         <v>12</v>
@@ -10710,7 +11148,7 @@
         <v>7670</v>
       </c>
     </row>
-    <row r="44" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:37" ht="16.5">
       <c r="F44" s="2"/>
       <c r="AC44" s="4" t="s">
         <v>12</v>
@@ -10722,7 +11160,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="45" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:37" ht="16.5">
       <c r="F45" s="2"/>
       <c r="AC45" s="4" t="s">
         <v>12</v>
@@ -10734,7 +11172,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="46" spans="6:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:37" ht="16.5">
       <c r="F46" s="2"/>
       <c r="AC46" s="4" t="s">
         <v>12</v>
@@ -10746,7 +11184,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:37">
       <c r="AC47" s="4" t="s">
         <v>12</v>
       </c>
@@ -10757,7 +11195,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="6:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:37">
       <c r="AC48" s="4" t="s">
         <v>12</v>
       </c>
@@ -10768,7 +11206,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="49" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:34">
       <c r="AC49" s="4" t="s">
         <v>12</v>
       </c>
@@ -10779,7 +11217,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:34" ht="16.5">
       <c r="F50" s="2"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
@@ -10794,7 +11232,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="51" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:34" ht="16.5">
       <c r="F51" s="2"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -10809,7 +11247,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="52" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:34" ht="16.5">
       <c r="F52" s="2"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -10824,7 +11262,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="53" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:34" ht="16.5">
       <c r="F53" s="2"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -10839,7 +11277,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="54" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:34" ht="16.5">
       <c r="F54" s="2"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
@@ -10854,7 +11292,7 @@
         <v>115160</v>
       </c>
     </row>
-    <row r="55" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:34" ht="16.5">
       <c r="F55" s="2"/>
       <c r="AF55" s="6" t="s">
         <v>12</v>
@@ -10866,7 +11304,7 @@
         <v>153440</v>
       </c>
     </row>
-    <row r="56" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:34" ht="16.5">
       <c r="F56" s="2"/>
       <c r="AF56" s="6" t="s">
         <v>12</v>
@@ -10878,7 +11316,7 @@
         <v>75960</v>
       </c>
     </row>
-    <row r="57" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:34" ht="16.5">
       <c r="F57" s="2"/>
       <c r="AF57" s="6" t="s">
         <v>12</v>
@@ -10890,7 +11328,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="58" spans="6:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:34" ht="16.5">
       <c r="F58" s="2"/>
       <c r="AF58" s="6" t="s">
         <v>12</v>
@@ -10902,7 +11340,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:34">
       <c r="AF59" s="6" t="s">
         <v>12</v>
       </c>
@@ -10913,7 +11351,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:34">
       <c r="AF60" s="6" t="s">
         <v>12</v>
       </c>
@@ -10924,7 +11362,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="61" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:34">
       <c r="AF61" s="6" t="s">
         <v>12</v>
       </c>
@@ -10935,7 +11373,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:34">
       <c r="AF62" s="6" t="s">
         <v>12</v>
       </c>
@@ -10946,7 +11384,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="63" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:34">
       <c r="AF63" s="6" t="s">
         <v>12</v>
       </c>
@@ -10957,7 +11395,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="6:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:34">
       <c r="AF64" s="7" t="s">
         <v>0</v>
       </c>
@@ -10968,96 +11406,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="17:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="17:34">
       <c r="AF65" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AG65" s="21"/>
       <c r="AH65" s="21"/>
     </row>
-    <row r="67" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="17:34" s="9" customFormat="1"/>
+    <row r="68" spans="17:34" s="9" customFormat="1">
       <c r="Q68" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="17:34" s="9" customFormat="1">
       <c r="Q69" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="17:34" s="9" customFormat="1">
       <c r="Q70" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="17:34" s="9" customFormat="1">
       <c r="Q71" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="17:34" s="9" customFormat="1"/>
+    <row r="73" spans="17:34" s="9" customFormat="1">
       <c r="Q73" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="17:34" s="9" customFormat="1">
       <c r="Q74" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="17:34" s="9" customFormat="1">
       <c r="Q75" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="17:34" s="9" customFormat="1">
       <c r="Q76" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="17:34" s="9" customFormat="1">
       <c r="Q77" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="17:34" s="9" customFormat="1">
       <c r="Q78" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="47:47" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="79" spans="17:34" s="9" customFormat="1"/>
+    <row r="80" spans="17:34" s="9" customFormat="1"/>
+    <row r="81" spans="47:47" s="9" customFormat="1"/>
+    <row r="82" spans="47:47" s="9" customFormat="1"/>
+    <row r="83" spans="47:47" s="9" customFormat="1"/>
+    <row r="84" spans="47:47" s="9" customFormat="1"/>
+    <row r="85" spans="47:47" s="9" customFormat="1"/>
+    <row r="86" spans="47:47" s="9" customFormat="1"/>
+    <row r="87" spans="47:47" s="9" customFormat="1"/>
+    <row r="88" spans="47:47" s="9" customFormat="1"/>
+    <row r="89" spans="47:47" s="9" customFormat="1"/>
+    <row r="90" spans="47:47" s="9" customFormat="1"/>
+    <row r="91" spans="47:47" s="9" customFormat="1"/>
+    <row r="92" spans="47:47" s="9" customFormat="1"/>
+    <row r="93" spans="47:47" s="9" customFormat="1"/>
+    <row r="94" spans="47:47" s="9" customFormat="1" ht="20.25">
       <c r="AU94" s="10"/>
     </row>
-    <row r="95" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="95" spans="47:47" s="9" customFormat="1"/>
+    <row r="96" spans="47:47" s="9" customFormat="1"/>
+    <row r="97" spans="24:53" s="9" customFormat="1"/>
+    <row r="98" spans="24:53" s="9" customFormat="1"/>
+    <row r="99" spans="24:53" s="9" customFormat="1"/>
+    <row r="100" spans="24:53" s="9" customFormat="1"/>
+    <row r="101" spans="24:53" s="9" customFormat="1"/>
+    <row r="102" spans="24:53" s="9" customFormat="1"/>
+    <row r="103" spans="24:53" s="9" customFormat="1"/>
+    <row r="104" spans="24:53" s="9" customFormat="1"/>
+    <row r="105" spans="24:53" s="9" customFormat="1"/>
+    <row r="106" spans="24:53" s="9" customFormat="1"/>
+    <row r="107" spans="24:53">
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -11088,7 +11526,7 @@
       <c r="AZ107" s="9"/>
       <c r="BA107" s="9"/>
     </row>
-    <row r="108" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="108" spans="24:53">
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -11120,7 +11558,7 @@
       <c r="AZ108" s="9"/>
       <c r="BA108" s="9"/>
     </row>
-    <row r="109" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="109" spans="24:53">
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -11152,7 +11590,7 @@
       <c r="AZ109" s="9"/>
       <c r="BA109" s="9"/>
     </row>
-    <row r="110" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="110" spans="24:53">
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -11184,7 +11622,7 @@
       <c r="AZ110" s="9"/>
       <c r="BA110" s="9"/>
     </row>
-    <row r="111" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="111" spans="24:53">
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -11216,7 +11654,7 @@
       <c r="AZ111" s="9"/>
       <c r="BA111" s="9"/>
     </row>
-    <row r="112" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="112" spans="24:53">
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -11248,7 +11686,7 @@
       <c r="AZ112" s="9"/>
       <c r="BA112" s="9"/>
     </row>
-    <row r="113" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="113" spans="24:53">
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -11280,7 +11718,7 @@
       <c r="AZ113" s="9"/>
       <c r="BA113" s="9"/>
     </row>
-    <row r="114" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="114" spans="24:53">
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -11312,7 +11750,7 @@
       <c r="AZ114" s="9"/>
       <c r="BA114" s="9"/>
     </row>
-    <row r="115" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="115" spans="24:53">
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -11344,7 +11782,7 @@
       <c r="AZ115" s="9"/>
       <c r="BA115" s="9"/>
     </row>
-    <row r="116" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="116" spans="24:53">
       <c r="AP116" s="9"/>
       <c r="AQ116" s="9"/>
       <c r="AR116" s="9"/>
@@ -11358,7 +11796,7 @@
       <c r="AZ116" s="9"/>
       <c r="BA116" s="9"/>
     </row>
-    <row r="117" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="117" spans="24:53">
       <c r="AP117" s="9"/>
       <c r="AQ117" s="9"/>
       <c r="AR117" s="9"/>
@@ -11372,7 +11810,7 @@
       <c r="AZ117" s="9"/>
       <c r="BA117" s="9"/>
     </row>
-    <row r="118" spans="24:53" x14ac:dyDescent="0.2">
+    <row r="118" spans="24:53">
       <c r="AP118" s="9"/>
       <c r="AQ118" s="9"/>
       <c r="AR118" s="9"/>
@@ -11401,24 +11839,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC890A72-171A-F84D-839D-C1D91BD00799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D8:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:4">
       <c r="D8">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:4">
       <c r="D9">
         <f>D8/300</f>
         <v>3333333.3333333335</v>

--- a/potok/PotokDesign.xlsx
+++ b/potok/PotokDesign.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/potok/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5E1889-DA93-BE41-85A8-BF60AA4CA060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RSystemDesign" sheetId="1" r:id="rId1"/>
+    <sheet name="PotokDesign" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -103,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,7 +285,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,7 +320,7 @@
         <xdr:cNvPr id="1082" name="Group 1081">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50480BC5-80E3-C047-B403-5B4A15E75157}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -322,8 +328,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4473132" y="7147378"/>
-          <a:ext cx="3378189" cy="7155242"/>
+          <a:off x="4450453" y="7235824"/>
+          <a:ext cx="3360047" cy="7599742"/>
           <a:chOff x="3653175" y="6503810"/>
           <a:chExt cx="3388269" cy="7252072"/>
         </a:xfrm>
@@ -333,7 +339,7 @@
           <xdr:cNvPr id="159" name="Rounded Rectangle 158">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7ECCFA98-439C-E84B-8F1A-E0E54A1E1884}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -707,7 +713,7 @@
           <xdr:cNvPr id="4" name="Group 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F3A5137-6644-E74C-83CE-E5AD2F01E750}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -726,7 +732,7 @@
             <xdr:cNvPr id="161" name="Rounded Rectangle 160">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62306583-A3B9-E441-8A67-F536BB02C808}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -792,7 +798,7 @@
             <xdr:cNvPr id="169" name="Rounded Rectangle 168">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF172B3D-5D93-FE41-9165-F0FCF9257DBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -861,7 +867,7 @@
             <xdr:cNvPr id="171" name="Rounded Rectangle 170">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{194479BD-B2C7-8143-810E-7D86D214CB71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -931,7 +937,7 @@
           <xdr:cNvPr id="309" name="Rounded Rectangle 308">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07C089DF-A58C-1B45-B92B-E67D43D8D975}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -990,7 +996,7 @@
           <xdr:cNvPr id="310" name="Rounded Rectangle 309">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C0F55BE-BC24-824E-A87F-817CAA809D7E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1049,7 +1055,7 @@
           <xdr:cNvPr id="311" name="Rounded Rectangle 310">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01E14F0A-A6AF-C440-B411-094E3E16AFF9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1124,7 +1130,7 @@
         <xdr:cNvPr id="1083" name="Group 1082">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{708AA4AB-EB18-A649-A517-2F8F4FF45FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,8 +1138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9212046" y="6675663"/>
-          <a:ext cx="3378190" cy="3907669"/>
+          <a:off x="9162153" y="6727824"/>
+          <a:ext cx="3360047" cy="4204758"/>
           <a:chOff x="8407209" y="6016978"/>
           <a:chExt cx="3388269" cy="4004615"/>
         </a:xfrm>
@@ -1143,7 +1149,7 @@
           <xdr:cNvPr id="167" name="Rounded Rectangle 166">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBD5E2EC-93EC-0F4E-85D6-06B3D8CB4724}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1352,7 +1358,7 @@
           <xdr:cNvPr id="173" name="Rounded Rectangle 172">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DAA0339-7B8D-D84C-9452-FEF1141DAFF1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1411,7 +1417,7 @@
           <xdr:cNvPr id="174" name="Rounded Rectangle 173">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CD3D207-85C9-F74E-A554-8087D19C9F45}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,7 +1476,7 @@
           <xdr:cNvPr id="175" name="Rounded Rectangle 174">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D51E763F-6A98-DF4B-B500-F98635E3B7CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1529,7 +1535,7 @@
           <xdr:cNvPr id="176" name="Rounded Rectangle 175">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{239B44FF-27A2-A949-9BCE-6E263B88B1B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1604,7 +1610,7 @@
         <xdr:cNvPr id="1069" name="Group 1068">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F07E37F-BEB8-4541-8FD2-F7BB25CB24A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,8 +1618,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9186273" y="10913532"/>
-          <a:ext cx="3378190" cy="3956654"/>
+          <a:off x="9136380" y="11299068"/>
+          <a:ext cx="3360047" cy="4110868"/>
           <a:chOff x="8331200" y="15544800"/>
           <a:chExt cx="3360047" cy="3988451"/>
         </a:xfrm>
@@ -1631,7 +1637,7 @@
           <xdr:cNvPr id="177" name="Rounded Rectangle 176">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10D52B57-9D65-4043-8F12-4E99EA0C820A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1843,7 +1849,7 @@
           <xdr:cNvPr id="179" name="Rounded Rectangle 178">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{705F7E89-5C30-AE46-B5F3-5B8A211CE991}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1902,7 +1908,7 @@
           <xdr:cNvPr id="180" name="Rounded Rectangle 179">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5D9CF92-283C-EE47-B80C-F36D765C6EB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1961,7 +1967,7 @@
           <xdr:cNvPr id="184" name="Rounded Rectangle 183">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43CFB88B-BE40-2845-A838-299F9E54E85C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2020,7 +2026,7 @@
           <xdr:cNvPr id="186" name="Rounded Rectangle 185">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{100CFA61-C7C8-0A4D-9E49-0D207F358160}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2095,7 +2101,7 @@
         <xdr:cNvPr id="1084" name="Group 1083">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FA89917-BF6E-E14E-B8F6-1C08437E8146}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,8 +2109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14025637" y="6624864"/>
-          <a:ext cx="5371395" cy="6944481"/>
+          <a:off x="13953066" y="6677025"/>
+          <a:ext cx="5339645" cy="7418463"/>
           <a:chOff x="12894733" y="5966178"/>
           <a:chExt cx="5389034" cy="7035590"/>
         </a:xfrm>
@@ -2114,7 +2120,7 @@
           <xdr:cNvPr id="187" name="Rounded Rectangle 186">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16DA8385-B9AF-884F-9ADC-9212381ADC85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2444,7 +2450,7 @@
           <xdr:cNvPr id="189" name="Rounded Rectangle 188">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DBEF0C4-2113-6441-97E6-D965019C7406}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2503,7 +2509,7 @@
           <xdr:cNvPr id="190" name="Rounded Rectangle 189">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04418C56-8DBD-2444-BA68-7E1C23CF0EC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2562,7 +2568,7 @@
           <xdr:cNvPr id="191" name="Rounded Rectangle 190">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03895422-F2C3-DC4E-881F-BD029C2B7D43}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2621,7 +2627,7 @@
           <xdr:cNvPr id="194" name="Rounded Rectangle 193">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C952AAB-5F1E-1D4B-B691-D82A53DD4979}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2680,7 +2686,7 @@
           <xdr:cNvPr id="196" name="Rounded Rectangle 195">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3250D696-7025-7B44-AE05-0BB7D5F144B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2739,7 +2745,7 @@
           <xdr:cNvPr id="199" name="Rounded Rectangle 198">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36EC042B-602C-BC43-9B30-AD55449FAA92}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2814,7 +2820,7 @@
         <xdr:cNvPr id="20" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EC17918-23FB-BE46-9F97-4A038DA29204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,8 +2828,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20267720" y="4826001"/>
-          <a:ext cx="10862128" cy="10509924"/>
+          <a:off x="20158863" y="4841876"/>
+          <a:ext cx="10982324" cy="11038335"/>
           <a:chOff x="16844551" y="9612295"/>
           <a:chExt cx="9220200" cy="9220200"/>
         </a:xfrm>
@@ -2833,7 +2839,7 @@
           <xdr:cNvPr id="6" name="Graphic 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1B4114F-748B-8449-99D0-B590EC86FD96}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2845,7 +2851,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2876,7 +2882,7 @@
           <xdr:cNvPr id="200" name="Rectangle 199">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1E257BF-E901-CB4B-9D4A-0A18CE831981}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2983,7 +2989,7 @@
         <xdr:cNvPr id="230" name="Straight Arrow Connector 229">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{203B5619-69F3-2246-819E-2AD1CFDBF80A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3046,7 @@
         <xdr:cNvPr id="232" name="Straight Arrow Connector 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93176CFC-E993-0B4E-95D8-FA0EA3C15EC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3103,7 @@
         <xdr:cNvPr id="234" name="Straight Arrow Connector 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{638F96A7-35EA-D448-BEA9-21F4397DC9C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3160,7 @@
         <xdr:cNvPr id="238" name="Straight Arrow Connector 237">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01C0217D-C862-134C-BE74-FF4F105CB42F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3217,7 @@
         <xdr:cNvPr id="240" name="Straight Arrow Connector 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13BC3206-8A61-4B4A-A39B-C0796EF03F4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3274,7 @@
         <xdr:cNvPr id="241" name="Straight Arrow Connector 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{875A65DC-0B9A-8E47-8D1E-5D7E11481AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3331,7 @@
         <xdr:cNvPr id="242" name="Straight Arrow Connector 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB23153-E20C-AF40-81CB-05806E6A6412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3388,7 @@
         <xdr:cNvPr id="246" name="Straight Arrow Connector 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{055870A8-FE32-6848-8666-E89C14CFE276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3445,7 @@
         <xdr:cNvPr id="247" name="Straight Arrow Connector 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71C73DA6-B4EF-B04C-911D-39B2796E17E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3496,7 +3502,7 @@
         <xdr:cNvPr id="249" name="Straight Arrow Connector 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3559,7 @@
         <xdr:cNvPr id="250" name="Straight Arrow Connector 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E8F75D8-8176-9544-9293-18363AC316C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3616,7 @@
         <xdr:cNvPr id="251" name="Straight Arrow Connector 250">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB3D1C60-7ECE-C149-81A5-8A0FB2660976}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3673,7 @@
         <xdr:cNvPr id="252" name="Straight Arrow Connector 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88894649-E449-814C-BB46-3EE419A28B60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3730,7 @@
         <xdr:cNvPr id="262" name="Straight Arrow Connector 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8725711A-810C-7B48-9EC1-2267E0ADD429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3787,7 @@
         <xdr:cNvPr id="265" name="Straight Arrow Connector 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC91AEF-442D-F844-9225-C9D72D02105F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3844,7 @@
         <xdr:cNvPr id="268" name="Straight Arrow Connector 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E24346-F1AA-214B-912C-111790E4CDE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3895,7 +3901,7 @@
         <xdr:cNvPr id="271" name="Straight Arrow Connector 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4DC2345-5143-F444-86BB-58FB87DEEE9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3952,7 +3958,7 @@
         <xdr:cNvPr id="275" name="Straight Arrow Connector 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{018239AC-8CCB-9C49-892E-6F52A27F52E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4009,7 +4015,7 @@
         <xdr:cNvPr id="277" name="Straight Arrow Connector 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27D27669-F802-7D4D-9CF6-0B4EAD48E548}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4072,7 @@
         <xdr:cNvPr id="280" name="Straight Arrow Connector 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA7B1650-7DF6-EB4F-A65C-C9D88F25215A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4123,7 +4129,7 @@
         <xdr:cNvPr id="285" name="Straight Arrow Connector 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B942567-F14C-E24C-80C8-ECEA31F1D13E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4183,7 +4189,7 @@
         <xdr:cNvPr id="295" name="Straight Arrow Connector 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{336E7CD6-5418-6242-AC0A-CBB573B38753}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4243,7 +4249,7 @@
         <xdr:cNvPr id="300" name="Straight Arrow Connector 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE184485-5149-574C-976B-506911474977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4309,7 @@
         <xdr:cNvPr id="331" name="Straight Arrow Connector 330">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{566F5B8C-26C0-8D44-B401-91DD8085D17A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4363,7 +4369,7 @@
         <xdr:cNvPr id="344" name="Straight Arrow Connector 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B60ABA-2D65-204F-B57F-7E58424BF8B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4423,7 +4429,7 @@
         <xdr:cNvPr id="381" name="Group 380">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{216C2C1D-9CA2-B747-9944-BB151C8340A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,8 +4437,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9459247" y="19233445"/>
-          <a:ext cx="2396910" cy="3426907"/>
+          <a:off x="9409354" y="19820820"/>
+          <a:ext cx="2383303" cy="3458657"/>
           <a:chOff x="6914835" y="2298700"/>
           <a:chExt cx="2381566" cy="3407641"/>
         </a:xfrm>
@@ -4442,7 +4448,7 @@
           <xdr:cNvPr id="391" name="Rectangle 390">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A40C6BAD-0D4B-D24F-9543-CF1FA4A6F2A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4598,7 +4604,7 @@
           <xdr:cNvPr id="392" name="Picture 391" descr="Running Apache Kafka on Windows 10 | by Bivás Biswas | Towards ...">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEB212C5-9AF2-5D4A-A8DF-BB2D594C5364}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4610,7 +4616,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4637,7 +4643,7 @@
           </a:effectLst>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -4667,7 +4673,7 @@
         <xdr:cNvPr id="1076" name="Group 1075">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276888AF-FC1A-7F45-A47D-B9F2088B3DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4675,8 +4681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4591856" y="19198167"/>
-          <a:ext cx="2490107" cy="2463174"/>
+          <a:off x="4569177" y="19785542"/>
+          <a:ext cx="2476500" cy="2483585"/>
           <a:chOff x="4292600" y="18211800"/>
           <a:chExt cx="2476500" cy="2449465"/>
         </a:xfrm>
@@ -4686,7 +4692,7 @@
           <xdr:cNvPr id="397" name="Rectangle 396">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47D1A9EE-ABC7-F24C-86C3-96814C434478}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4845,7 +4851,7 @@
           <xdr:cNvPr id="379" name="Picture 378" descr="Redis icon">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{895EA87C-B408-C34E-8492-97CE753FE9DE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4857,7 +4863,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4884,7 +4890,7 @@
           </a:effectLst>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -4914,7 +4920,7 @@
         <xdr:cNvPr id="417" name="Group 416">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D732CC6-D034-CA44-AF03-0D5737823720}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4922,8 +4928,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31999665" y="4882442"/>
-          <a:ext cx="2827364" cy="3546425"/>
+          <a:off x="32006469" y="4898317"/>
+          <a:ext cx="2813756" cy="3727854"/>
           <a:chOff x="8336654" y="12268199"/>
           <a:chExt cx="2806700" cy="3657150"/>
         </a:xfrm>
@@ -4933,7 +4939,7 @@
           <xdr:cNvPr id="418" name="Rounded Rectangle 417">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{965699A9-7CA0-544B-B852-39E2B86A079E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5131,7 +5137,7 @@
           <xdr:cNvPr id="419" name="Rounded Rectangle 418">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5C99564-4FA2-DE4E-8642-0808E51FDAC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5203,7 +5209,7 @@
           <xdr:cNvPr id="421" name="Rounded Rectangle 420">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B3E2370-0D0A-124E-9E11-166F3FABEDF1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5278,7 +5284,7 @@
         <xdr:cNvPr id="1086" name="Group 1085">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23C14806-4CA3-4D4F-A96F-40214825C2C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5286,8 +5292,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32006721" y="12322928"/>
-          <a:ext cx="2820308" cy="3393320"/>
+          <a:off x="32013525" y="12835464"/>
+          <a:ext cx="2806700" cy="3429605"/>
           <a:chOff x="30485644" y="12200466"/>
           <a:chExt cx="2827867" cy="3286969"/>
         </a:xfrm>
@@ -5297,7 +5303,7 @@
           <xdr:cNvPr id="424" name="Rounded Rectangle 423">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E77E6446-0CB9-734D-A4D8-96073390F59D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5473,7 +5479,7 @@
           <xdr:cNvPr id="425" name="Rounded Rectangle 424">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07A93A6B-0F6D-394B-9AA1-2470B4B71E9D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5532,7 +5538,7 @@
           <xdr:cNvPr id="426" name="Rounded Rectangle 425">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64139CAF-464B-D04B-9A44-62949819A1D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5607,7 +5613,7 @@
         <xdr:cNvPr id="1085" name="Group 1084">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD14F83-841E-3B4F-9A8C-CD81FECD2E29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5615,8 +5621,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32006721" y="9044308"/>
-          <a:ext cx="2820308" cy="2559559"/>
+          <a:off x="32013525" y="9296040"/>
+          <a:ext cx="2806700" cy="2747791"/>
           <a:chOff x="31267400" y="8235242"/>
           <a:chExt cx="2827867" cy="2614616"/>
         </a:xfrm>
@@ -5626,7 +5632,7 @@
           <xdr:cNvPr id="428" name="Rounded Rectangle 427">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F43DC537-3A33-3A4D-A2A9-0C04BAF89CFA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5802,7 +5808,7 @@
           <xdr:cNvPr id="429" name="Rounded Rectangle 428">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91718858-7895-9749-97EB-A1098D3A045D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5877,7 +5883,7 @@
         <xdr:cNvPr id="433" name="Straight Arrow Connector 432">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53A75F5F-C62C-EA4E-A889-5BF855F5EF69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5934,7 +5940,7 @@
         <xdr:cNvPr id="321" name="Group 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65BE929-A822-EE49-BAC4-D5B229C5827B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5942,8 +5948,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4446513" y="4382508"/>
-          <a:ext cx="16496291" cy="1696358"/>
+          <a:off x="4423834" y="4393847"/>
+          <a:ext cx="16405577" cy="1714501"/>
           <a:chOff x="5080000" y="2963333"/>
           <a:chExt cx="16546688" cy="1643945"/>
         </a:xfrm>
@@ -5953,7 +5959,7 @@
           <xdr:cNvPr id="402" name="Magnetic Disk 401">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB588F2E-844B-C94A-BE2D-8EC6FFABAC95}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6019,7 +6025,7 @@
           <xdr:cNvPr id="403" name="Magnetic Disk 402">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE6AFDB4-6E26-9547-AD8D-6DA7D4A0ECF3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6085,7 +6091,7 @@
           <xdr:cNvPr id="404" name="Magnetic Disk 403">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97493D29-2BDD-4540-BD84-596AAABA08B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6151,7 +6157,7 @@
           <xdr:cNvPr id="405" name="Magnetic Disk 404">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B47D21A-5F2E-D947-88A7-692072F8B60A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6217,7 +6223,7 @@
           <xdr:cNvPr id="406" name="Magnetic Disk 405">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FF81425-EE45-0B4F-8771-102551EC3B73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6283,7 +6289,7 @@
           <xdr:cNvPr id="407" name="Rounded Rectangle 406">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93FA4414-C833-2646-8504-DD5491A13904}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6360,7 +6366,7 @@
           <xdr:cNvPr id="431" name="Magnetic Disk 430">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24D0145A-8DAA-1449-9F5D-B2031DD02E31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6426,7 +6432,7 @@
           <xdr:cNvPr id="441" name="Magnetic Disk 440">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{493608F4-5246-E540-88DA-0BA3BB66B142}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6508,7 +6514,7 @@
         <xdr:cNvPr id="442" name="Straight Arrow Connector 441">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52BE5EB8-F4D5-A04E-B59D-879DA07EE5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6565,7 +6571,7 @@
         <xdr:cNvPr id="450" name="Straight Arrow Connector 449">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E5EF63D-2089-6F4B-8144-8C031F2584D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6622,7 +6628,7 @@
         <xdr:cNvPr id="454" name="Rectangle 453">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE967C55-A66A-2D46-BFDB-31EFF67E489D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6840,7 +6846,7 @@
         <xdr:cNvPr id="324" name="Picture 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9D95467-D978-924F-9F6B-BA66D635B33B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6892,7 +6898,7 @@
         <xdr:cNvPr id="461" name="Straight Arrow Connector 460">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A6CB371-C2BE-CF4A-9724-0D9F04D628B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6949,7 +6955,7 @@
         <xdr:cNvPr id="483" name="Straight Arrow Connector 482">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B68623-A322-1C4C-B15A-083CD6C4F55C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7005,7 +7011,7 @@
         <xdr:cNvPr id="486" name="Straight Arrow Connector 485">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF8BCCA6-02CA-214E-88B9-3EAE1C4B737D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7064,7 +7070,7 @@
         <xdr:cNvPr id="489" name="Straight Arrow Connector 488">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCBF1DFF-7848-674B-BB38-7D6CE2B505B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7123,7 +7129,7 @@
         <xdr:cNvPr id="362" name="Group 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89196DA3-1495-6046-97E2-411F2B58C448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7131,8 +7137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="474074" y="7729627"/>
-          <a:ext cx="2242670" cy="2183040"/>
+          <a:off x="474074" y="7872502"/>
+          <a:ext cx="2229063" cy="2382611"/>
           <a:chOff x="208019" y="9388510"/>
           <a:chExt cx="2212770" cy="2377138"/>
         </a:xfrm>
@@ -7142,7 +7148,7 @@
           <xdr:cNvPr id="496" name="Rectangle 495">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF98590C-71EE-A948-AC63-0759C864B308}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7301,7 +7307,7 @@
           <xdr:cNvPr id="495" name="Graphic 494">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13DC1E48-7DF7-AC4C-B2F6-4CFACC7F52AB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7313,7 +7319,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId7"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7341,7 +7347,7 @@
           <xdr:cNvPr id="497" name="Graphic 496">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA70258C-B10E-5043-9CC3-07CBC037F577}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7353,7 +7359,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId9"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7392,7 +7398,7 @@
         <xdr:cNvPr id="502" name="Rectangle 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2109533F-EC23-B84C-87A7-6BE6B7B7F541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7662,7 +7668,7 @@
         <xdr:cNvPr id="460" name="Picture 459">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8644C2C-AE85-544D-A6A4-031731659E61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7721,7 +7727,7 @@
         <xdr:cNvPr id="504" name="Rounded Rectangle 503">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{394D5C0E-76FF-4B4A-821B-CC63CAC282D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7820,7 +7826,7 @@
         <xdr:cNvPr id="115" name="Straight Arrow Connector 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52A02B88-451B-4A4C-A535-F754F8319BAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7880,7 +7886,7 @@
         <xdr:cNvPr id="124" name="Group 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F16429-9B31-A74F-A4A8-B7629F6D2B95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7888,8 +7894,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13598071" y="703035"/>
-          <a:ext cx="10733617" cy="2760739"/>
+          <a:off x="13525500" y="709839"/>
+          <a:ext cx="10670117" cy="2753935"/>
           <a:chOff x="7416800" y="825500"/>
           <a:chExt cx="10744200" cy="2730500"/>
         </a:xfrm>
@@ -7899,7 +7905,7 @@
           <xdr:cNvPr id="125" name="Rectangle 124">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4154B796-B707-1643-B865-775F2E833820}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8007,7 +8013,7 @@
           <xdr:cNvPr id="126" name="Group 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FF6239D-7BD0-6A4F-BFA8-2061A98D2368}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8026,7 +8032,7 @@
             <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EECDC9EA-9288-2F49-80AD-3B860AF094FC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8065,7 +8071,7 @@
             <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4801EB1B-B7C9-0644-B47D-D37EDD029155}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8106,7 +8112,7 @@
             <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D48799B7-B2B0-3141-B344-D6DDDBA42CD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8145,7 +8151,7 @@
             <xdr:cNvPr id="136" name="Straight Arrow Connector 135">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2588D54D-3F90-D04A-9243-9DE6E6C26B2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8188,7 +8194,7 @@
           <xdr:cNvPr id="127" name="Group 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16113A0F-C460-FF4D-9145-B9F3AB427B5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8207,7 +8213,7 @@
             <xdr:cNvPr id="129" name="Rectangle 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A65C566-0E4A-8349-BF17-9552A92D0296}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8292,7 +8298,7 @@
             <xdr:cNvPr id="130" name="Rounded Rectangle 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5AF0BDB-45CD-2D4B-AF23-AF065E93C78C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8358,7 +8364,7 @@
             <xdr:cNvPr id="131" name="Rectangle 130">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265B21B5-5BB9-B049-A885-6BC7FBCC60F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8445,7 +8451,7 @@
             <xdr:cNvPr id="132" name="Magnetic Disk 131">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00B017D6-AE59-2045-916C-B558EEBC73FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8509,7 +8515,7 @@
           <xdr:cNvPr id="128" name="Rounded Rectangle 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{088D29CB-DFD8-8549-9298-2515219F2121}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8581,13 +8587,19 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="203" name="Группа 202"/>
+        <xdr:cNvPr id="203" name="Группа 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6399893" y="8357054"/>
-          <a:ext cx="3257549" cy="5070661"/>
+          <a:off x="6368143" y="8554358"/>
+          <a:ext cx="3239406" cy="5397232"/>
           <a:chOff x="6394290" y="8361057"/>
           <a:chExt cx="3254347" cy="5201129"/>
         </a:xfrm>
@@ -8597,7 +8609,7 @@
           <xdr:cNvPr id="116" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8638,7 +8650,7 @@
           <xdr:cNvPr id="119" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8679,7 +8691,7 @@
           <xdr:cNvPr id="122" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8720,7 +8732,7 @@
           <xdr:cNvPr id="141" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8761,7 +8773,7 @@
           <xdr:cNvPr id="144" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8802,7 +8814,7 @@
           <xdr:cNvPr id="147" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8843,7 +8855,7 @@
           <xdr:cNvPr id="155" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8884,7 +8896,7 @@
           <xdr:cNvPr id="156" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8925,7 +8937,7 @@
           <xdr:cNvPr id="157" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8966,7 +8978,7 @@
           <xdr:cNvPr id="185" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9007,7 +9019,7 @@
           <xdr:cNvPr id="188" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9048,7 +9060,7 @@
           <xdr:cNvPr id="192" name="Straight Arrow Connector 248">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4FBC497-32DB-8041-991A-65339DF7B861}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9110,7 +9122,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2DFEC0C-64CC-A544-AAEC-2706741FF457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9129,7 +9141,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C7CD4D4-4197-7243-8D19-18F2A73E2D5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9286,7 +9298,7 @@
           <xdr:cNvPr id="4" name="Picture 3" descr="Redis icon">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF9856B0-7D7C-EB4F-8DA7-BF6E2F59CF41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9298,7 +9310,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -9318,7 +9330,7 @@
           <a:noFill/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -9348,7 +9360,7 @@
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6C26D63-3EAC-5343-B5C0-7465F755E9B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9367,7 +9379,7 @@
           <xdr:cNvPr id="6" name="Rectangle 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFA2E11C-FD3D-EA4F-AD69-B75E2B896D8B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9567,7 +9579,7 @@
           <xdr:cNvPr id="7" name="Picture 6" descr="Running Apache Kafka on Windows 10 | by Bivás Biswas | Towards ...">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEA7BD74-C1D3-AD49-83D7-DC1EC4A2C440}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9579,7 +9591,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -9599,7 +9611,7 @@
           <a:noFill/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
@@ -9629,7 +9641,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22ABB78E-4400-3C49-AC6F-B60B3F57ECD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9681,7 +9693,7 @@
         <xdr:cNvPr id="9" name="Graphic 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CEE3CF2-D900-AF41-BFAF-475EBCCD840C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9693,7 +9705,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId5"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9738,7 +9750,7 @@
         <xdr:cNvPr id="11" name="Graphic 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CADCD72C-9A14-3946-8EDF-2DCEF2433BFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9750,7 +9762,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId7"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9788,7 +9800,7 @@
         <xdr:cNvPr id="38" name="Group 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11DD0467-14A4-A049-9972-F30EB711C9FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9807,7 +9819,7 @@
           <xdr:cNvPr id="14" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB0D20BF-8DB8-5B43-8AC1-9E866E21B1C2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9915,7 +9927,7 @@
           <xdr:cNvPr id="36" name="Group 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDE3DD64-49C8-1141-9EC3-611B28AA9777}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9934,7 +9946,7 @@
             <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{358DA170-A732-F847-8AC7-213D2341E60A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9973,7 +9985,7 @@
             <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F238C8E-955F-F04D-A251-027FDFA32935}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10014,7 +10026,7 @@
             <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F3F42AF-3D36-404B-9D9C-4563A0B20916}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10053,7 +10065,7 @@
             <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1831F6AB-97BC-384F-A13A-B119E9EA682C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10096,7 +10108,7 @@
           <xdr:cNvPr id="37" name="Group 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2671E30C-8F33-F94F-8B1F-B8991FC94693}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10115,7 +10127,7 @@
             <xdr:cNvPr id="28" name="Rectangle 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA2EAD9B-C362-D04D-8D39-CE930A01C0EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10200,7 +10212,7 @@
             <xdr:cNvPr id="29" name="Rounded Rectangle 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5BACC33-BA03-1D43-82AF-0EA38CD4B08A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10266,7 +10278,7 @@
             <xdr:cNvPr id="30" name="Rectangle 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF207838-520B-1F4D-A17C-0FCE2A2F4C4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10353,7 +10365,7 @@
             <xdr:cNvPr id="31" name="Magnetic Disk 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A7458DF-8C19-1042-A8D9-37B309E80897}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10417,7 +10429,7 @@
           <xdr:cNvPr id="32" name="Rounded Rectangle 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2326A89F-2C69-C741-ABE7-5B43854DD48C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10766,30 +10778,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="10.875" style="1"/>
+    <col min="1" max="27" width="10.83203125" style="1"/>
     <col min="28" max="28" width="8" style="1" customWidth="1"/>
-    <col min="29" max="30" width="10.875" style="1"/>
-    <col min="31" max="31" width="7" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.875" style="1"/>
+    <col min="29" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="9.33203125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="15.95" customHeight="1">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -10810,7 +10822,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
+    <row r="2" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -10831,7 +10843,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
+    <row r="3" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -10851,7 +10863,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
+    <row r="4" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
@@ -10866,7 +10878,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
+    <row r="5" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
@@ -10881,46 +10893,46 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:19" s="15" customFormat="1" ht="21">
+    <row r="6" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="15" customFormat="1" ht="21">
+    <row r="7" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="15" customFormat="1" ht="21"/>
-    <row r="9" spans="1:19" s="15" customFormat="1" ht="21">
+    <row r="8" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="15" customFormat="1" ht="21">
+    <row r="10" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" ht="21">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="9" customFormat="1" ht="21">
+    <row r="12" spans="1:19" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="9" customFormat="1"/>
-    <row r="14" spans="1:19">
+    <row r="13" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="27" spans="6:37">
+    <row r="27" spans="6:37" x14ac:dyDescent="0.2">
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -10934,7 +10946,7 @@
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="6:37">
+    <row r="28" spans="6:37" x14ac:dyDescent="0.2">
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -10948,7 +10960,7 @@
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
     </row>
-    <row r="29" spans="6:37">
+    <row r="29" spans="6:37" x14ac:dyDescent="0.2">
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -10962,7 +10974,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="6:37" ht="16.5">
+    <row r="30" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F30" s="2"/>
       <c r="M30" s="2"/>
       <c r="Z30" s="9"/>
@@ -10978,7 +10990,7 @@
       <c r="AJ30" s="9"/>
       <c r="AK30" s="9"/>
     </row>
-    <row r="31" spans="6:37" ht="16.5">
+    <row r="31" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F31" s="2"/>
       <c r="M31" s="2"/>
       <c r="Z31" s="9"/>
@@ -10996,7 +11008,7 @@
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="6:37" ht="16.5">
+    <row r="32" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F32" s="2"/>
       <c r="M32" s="2"/>
       <c r="Z32" s="9"/>
@@ -11014,7 +11026,7 @@
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9"/>
     </row>
-    <row r="33" spans="6:37" ht="16.5">
+    <row r="33" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F33" s="2"/>
       <c r="M33" s="2"/>
       <c r="Z33" s="9"/>
@@ -11030,7 +11042,7 @@
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
     </row>
-    <row r="34" spans="6:37" ht="16.5">
+    <row r="34" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F34" s="2"/>
       <c r="M34" s="2"/>
       <c r="AC34" s="20" t="s">
@@ -11039,7 +11051,7 @@
       <c r="AD34" s="20"/>
       <c r="AE34" s="20"/>
     </row>
-    <row r="35" spans="6:37" ht="16.5">
+    <row r="35" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F35" s="2"/>
       <c r="M35" s="2"/>
       <c r="AC35" s="3" t="s">
@@ -11052,7 +11064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="6:37" ht="16.5">
+    <row r="36" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F36" s="2"/>
       <c r="AC36" s="4" t="s">
         <v>12</v>
@@ -11064,7 +11076,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="6:37" ht="16.5">
+    <row r="37" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F37" s="2"/>
       <c r="AC37" s="4" t="s">
         <v>12</v>
@@ -11076,7 +11088,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="6:37" ht="16.5">
+    <row r="38" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F38" s="2"/>
       <c r="AC38" s="4" t="s">
         <v>12</v>
@@ -11088,7 +11100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="6:37" ht="16.5">
+    <row r="39" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F39" s="2"/>
       <c r="AC39" s="4" t="s">
         <v>12</v>
@@ -11100,7 +11112,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="6:37" ht="16.5">
+    <row r="40" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F40" s="2"/>
       <c r="AC40" s="4" t="s">
         <v>12</v>
@@ -11112,7 +11124,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="41" spans="6:37" ht="16.5">
+    <row r="41" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F41" s="2"/>
       <c r="AC41" s="4" t="s">
         <v>12</v>
@@ -11124,7 +11136,7 @@
         <v>25900</v>
       </c>
     </row>
-    <row r="42" spans="6:37" ht="16.5">
+    <row r="42" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F42" s="2"/>
       <c r="AC42" s="4" t="s">
         <v>12</v>
@@ -11136,7 +11148,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="6:37" ht="16.5">
+    <row r="43" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F43" s="2"/>
       <c r="AC43" s="4" t="s">
         <v>12</v>
@@ -11148,7 +11160,7 @@
         <v>7670</v>
       </c>
     </row>
-    <row r="44" spans="6:37" ht="16.5">
+    <row r="44" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F44" s="2"/>
       <c r="AC44" s="4" t="s">
         <v>12</v>
@@ -11160,7 +11172,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="45" spans="6:37" ht="16.5">
+    <row r="45" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F45" s="2"/>
       <c r="AC45" s="4" t="s">
         <v>12</v>
@@ -11172,7 +11184,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="46" spans="6:37" ht="16.5">
+    <row r="46" spans="6:37" ht="17" x14ac:dyDescent="0.2">
       <c r="F46" s="2"/>
       <c r="AC46" s="4" t="s">
         <v>12</v>
@@ -11184,7 +11196,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="6:37">
+    <row r="47" spans="6:37" x14ac:dyDescent="0.2">
       <c r="AC47" s="4" t="s">
         <v>12</v>
       </c>
@@ -11195,7 +11207,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="48" spans="6:37">
+    <row r="48" spans="6:37" x14ac:dyDescent="0.2">
       <c r="AC48" s="4" t="s">
         <v>12</v>
       </c>
@@ -11206,7 +11218,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="49" spans="6:34">
+    <row r="49" spans="6:34" x14ac:dyDescent="0.2">
       <c r="AC49" s="4" t="s">
         <v>12</v>
       </c>
@@ -11217,7 +11229,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="6:34" ht="16.5">
+    <row r="50" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F50" s="2"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
@@ -11232,7 +11244,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="51" spans="6:34" ht="16.5">
+    <row r="51" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -11247,7 +11259,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="52" spans="6:34" ht="16.5">
+    <row r="52" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -11262,7 +11274,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="53" spans="6:34" ht="16.5">
+    <row r="53" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F53" s="2"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -11277,7 +11289,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="54" spans="6:34" ht="16.5">
+    <row r="54" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F54" s="2"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
@@ -11292,7 +11304,7 @@
         <v>115160</v>
       </c>
     </row>
-    <row r="55" spans="6:34" ht="16.5">
+    <row r="55" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F55" s="2"/>
       <c r="AF55" s="6" t="s">
         <v>12</v>
@@ -11304,7 +11316,7 @@
         <v>153440</v>
       </c>
     </row>
-    <row r="56" spans="6:34" ht="16.5">
+    <row r="56" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F56" s="2"/>
       <c r="AF56" s="6" t="s">
         <v>12</v>
@@ -11316,7 +11328,7 @@
         <v>75960</v>
       </c>
     </row>
-    <row r="57" spans="6:34" ht="16.5">
+    <row r="57" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F57" s="2"/>
       <c r="AF57" s="6" t="s">
         <v>12</v>
@@ -11328,7 +11340,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="58" spans="6:34" ht="16.5">
+    <row r="58" spans="6:34" ht="17" x14ac:dyDescent="0.2">
       <c r="F58" s="2"/>
       <c r="AF58" s="6" t="s">
         <v>12</v>
@@ -11340,7 +11352,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="6:34">
+    <row r="59" spans="6:34" x14ac:dyDescent="0.2">
       <c r="AF59" s="6" t="s">
         <v>12</v>
       </c>
@@ -11351,7 +11363,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="6:34">
+    <row r="60" spans="6:34" x14ac:dyDescent="0.2">
       <c r="AF60" s="6" t="s">
         <v>12</v>
       </c>
@@ -11362,7 +11374,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="61" spans="6:34">
+    <row r="61" spans="6:34" x14ac:dyDescent="0.2">
       <c r="AF61" s="6" t="s">
         <v>12</v>
       </c>
@@ -11373,7 +11385,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="6:34">
+    <row r="62" spans="6:34" x14ac:dyDescent="0.2">
       <c r="AF62" s="6" t="s">
         <v>12</v>
       </c>
@@ -11384,7 +11396,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="63" spans="6:34">
+    <row r="63" spans="6:34" x14ac:dyDescent="0.2">
       <c r="AF63" s="6" t="s">
         <v>12</v>
       </c>
@@ -11395,7 +11407,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="6:34">
+    <row r="64" spans="6:34" x14ac:dyDescent="0.2">
       <c r="AF64" s="7" t="s">
         <v>0</v>
       </c>
@@ -11406,96 +11418,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="17:34">
+    <row r="65" spans="17:34" x14ac:dyDescent="0.2">
       <c r="AF65" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AG65" s="21"/>
       <c r="AH65" s="21"/>
     </row>
-    <row r="67" spans="17:34" s="9" customFormat="1"/>
-    <row r="68" spans="17:34" s="9" customFormat="1">
+    <row r="67" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q68" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="17:34" s="9" customFormat="1">
+    <row r="69" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q69" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="17:34" s="9" customFormat="1">
+    <row r="70" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q70" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="17:34" s="9" customFormat="1">
+    <row r="71" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q71" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="17:34" s="9" customFormat="1"/>
-    <row r="73" spans="17:34" s="9" customFormat="1">
+    <row r="72" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q73" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="17:34" s="9" customFormat="1">
+    <row r="74" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q74" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="17:34" s="9" customFormat="1">
+    <row r="75" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q75" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="17:34" s="9" customFormat="1">
+    <row r="76" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q76" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="17:34" s="9" customFormat="1">
+    <row r="77" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q77" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="17:34" s="9" customFormat="1">
+    <row r="78" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q78" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="17:34" s="9" customFormat="1"/>
-    <row r="80" spans="17:34" s="9" customFormat="1"/>
-    <row r="81" spans="47:47" s="9" customFormat="1"/>
-    <row r="82" spans="47:47" s="9" customFormat="1"/>
-    <row r="83" spans="47:47" s="9" customFormat="1"/>
-    <row r="84" spans="47:47" s="9" customFormat="1"/>
-    <row r="85" spans="47:47" s="9" customFormat="1"/>
-    <row r="86" spans="47:47" s="9" customFormat="1"/>
-    <row r="87" spans="47:47" s="9" customFormat="1"/>
-    <row r="88" spans="47:47" s="9" customFormat="1"/>
-    <row r="89" spans="47:47" s="9" customFormat="1"/>
-    <row r="90" spans="47:47" s="9" customFormat="1"/>
-    <row r="91" spans="47:47" s="9" customFormat="1"/>
-    <row r="92" spans="47:47" s="9" customFormat="1"/>
-    <row r="93" spans="47:47" s="9" customFormat="1"/>
-    <row r="94" spans="47:47" s="9" customFormat="1" ht="20.25">
+    <row r="79" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="17:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="47:47" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="AU94" s="10"/>
     </row>
-    <row r="95" spans="47:47" s="9" customFormat="1"/>
-    <row r="96" spans="47:47" s="9" customFormat="1"/>
-    <row r="97" spans="24:53" s="9" customFormat="1"/>
-    <row r="98" spans="24:53" s="9" customFormat="1"/>
-    <row r="99" spans="24:53" s="9" customFormat="1"/>
-    <row r="100" spans="24:53" s="9" customFormat="1"/>
-    <row r="101" spans="24:53" s="9" customFormat="1"/>
-    <row r="102" spans="24:53" s="9" customFormat="1"/>
-    <row r="103" spans="24:53" s="9" customFormat="1"/>
-    <row r="104" spans="24:53" s="9" customFormat="1"/>
-    <row r="105" spans="24:53" s="9" customFormat="1"/>
-    <row r="106" spans="24:53" s="9" customFormat="1"/>
-    <row r="107" spans="24:53">
+    <row r="95" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="47:47" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="24:53" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -11526,7 +11538,7 @@
       <c r="AZ107" s="9"/>
       <c r="BA107" s="9"/>
     </row>
-    <row r="108" spans="24:53">
+    <row r="108" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -11558,7 +11570,7 @@
       <c r="AZ108" s="9"/>
       <c r="BA108" s="9"/>
     </row>
-    <row r="109" spans="24:53">
+    <row r="109" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -11590,7 +11602,7 @@
       <c r="AZ109" s="9"/>
       <c r="BA109" s="9"/>
     </row>
-    <row r="110" spans="24:53">
+    <row r="110" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -11622,7 +11634,7 @@
       <c r="AZ110" s="9"/>
       <c r="BA110" s="9"/>
     </row>
-    <row r="111" spans="24:53">
+    <row r="111" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -11654,7 +11666,7 @@
       <c r="AZ111" s="9"/>
       <c r="BA111" s="9"/>
     </row>
-    <row r="112" spans="24:53">
+    <row r="112" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -11686,7 +11698,7 @@
       <c r="AZ112" s="9"/>
       <c r="BA112" s="9"/>
     </row>
-    <row r="113" spans="24:53">
+    <row r="113" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -11718,7 +11730,7 @@
       <c r="AZ113" s="9"/>
       <c r="BA113" s="9"/>
     </row>
-    <row r="114" spans="24:53">
+    <row r="114" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -11750,7 +11762,7 @@
       <c r="AZ114" s="9"/>
       <c r="BA114" s="9"/>
     </row>
-    <row r="115" spans="24:53">
+    <row r="115" spans="24:53" x14ac:dyDescent="0.2">
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -11782,7 +11794,7 @@
       <c r="AZ115" s="9"/>
       <c r="BA115" s="9"/>
     </row>
-    <row r="116" spans="24:53">
+    <row r="116" spans="24:53" x14ac:dyDescent="0.2">
       <c r="AP116" s="9"/>
       <c r="AQ116" s="9"/>
       <c r="AR116" s="9"/>
@@ -11796,7 +11808,7 @@
       <c r="AZ116" s="9"/>
       <c r="BA116" s="9"/>
     </row>
-    <row r="117" spans="24:53">
+    <row r="117" spans="24:53" x14ac:dyDescent="0.2">
       <c r="AP117" s="9"/>
       <c r="AQ117" s="9"/>
       <c r="AR117" s="9"/>
@@ -11810,7 +11822,7 @@
       <c r="AZ117" s="9"/>
       <c r="BA117" s="9"/>
     </row>
-    <row r="118" spans="24:53">
+    <row r="118" spans="24:53" x14ac:dyDescent="0.2">
       <c r="AP118" s="9"/>
       <c r="AQ118" s="9"/>
       <c r="AR118" s="9"/>
@@ -11839,24 +11851,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D8:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:4">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D9">
         <f>D8/300</f>
         <v>3333333.3333333335</v>
